--- a/enlaces_equipos.xlsx
+++ b/enlaces_equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://v7hfx-my.sharepoint.com/personal/joseca20_v7hfx_onmicrosoft_com/Documents/web scraping/statsFutbol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03F8DB77-C1DB-4768-A85B-B5FDE22167B0}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8014A8E8-B76C-460F-ADA5-2DC0C00C0CE2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474EBA83-D6A0-4565-BEB0-BC6B2AA992C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1197,6 +1197,438 @@
   </si>
   <si>
     <t>europe/turkey/trabzonspor</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/audax-italiano</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/cd-cobresal</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/colo-colo</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/coquimbo-unido</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/deportes-iquique</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/everton-de-vina-del-mar</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/cd-huachipato</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/deportes-la-serena</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/deportes-limache</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/deportivo-nublense</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/o-higgins-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/cd-palestino</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/union-la-calera</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/cd-universidad-catolica</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/club-universidad-de-chile</t>
+  </si>
+  <si>
+    <t>n-s-america/chile/union-espanola</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/boston-river</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/club-atletico-cerro</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/cerro-largo-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/danubio-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/defensor-sporting</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/juventud-de-las-piedras</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/liverpool-fc-montevideo</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/miramar-misiones</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/montevideo-city-torque</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/club-nacional-de-football</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/penarol</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/club-plaza-colonia-de-deportes</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/club-atletico-progreso</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/racing-club-de-montevideo</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/club-atletico-river-plate</t>
+  </si>
+  <si>
+    <t>n-s-america/uruguay/montevideo-wanderers-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/atlanta-united-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/austin-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/club-de-foot-montreal</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/charlotte-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/chicago-fire-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/fc-cincinnati</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/colorado-rapids</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/columbus-crew-sc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/dc-united</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/fc-dallas</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/houston-dynamo</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/inter-miami-cf</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/los-angeles-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/los-angeles-galaxy</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/minnesota-united-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/nashville-sc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/new-england-revolution</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/new-york-city-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/new-york-red-bulls</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/orlando-city-sc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/philadelphia-union</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/portland-timbers</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/real-salt-lake</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/san-diego-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/san-jose-earthquakes</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/seattle-sounders-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/sporting-kansas-city</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/st-louis-city-sc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/toronto-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/usa/vancouver-whitecaps-fc</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/bohemians-1905</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/ceske-budejovice</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/fk-dukla-prague</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/fc-hradec-kralove</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/fk-jablonec</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/mfk-karvina</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/fc-slovan-liberec</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/fk-mlada-boleslav</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/fc-banik-ostrava</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/fk-pardubice</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/fc-viktoria-plzen</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/sk-sigma-olomouc</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/slavia-prague</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/fc-slovacko</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/sparta-prague</t>
+  </si>
+  <si>
+    <t>europe/czech-republic/fk-teplice</t>
+  </si>
+  <si>
+    <t>europe/greece/aek-athens-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/aris-thessaloniki-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/asteras-tripolis-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/athens-kallithea-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/atromitos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/lamia-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/levadiakos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/ofi-crete-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/olympiacos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/panathinaikos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/panetolikos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/panserraikos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/paok-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/volos-fc</t>
+  </si>
+  <si>
+    <t>europe/switzerland/fc-basel</t>
+  </si>
+  <si>
+    <t>europe/switzerland/grasshopper-club-zurich</t>
+  </si>
+  <si>
+    <t>europe/switzerland/fc-lausanne-sport</t>
+  </si>
+  <si>
+    <t>europe/switzerland/fc-lugano</t>
+  </si>
+  <si>
+    <t>europe/switzerland/fc-luzern</t>
+  </si>
+  <si>
+    <t>europe/switzerland/servette-fc</t>
+  </si>
+  <si>
+    <t>europe/switzerland/fc-sion</t>
+  </si>
+  <si>
+    <t>europe/switzerland/fc-st-gallen</t>
+  </si>
+  <si>
+    <t>europe/switzerland/fc-winterthur</t>
+  </si>
+  <si>
+    <t>europe/switzerland/bsc-young-boys</t>
+  </si>
+  <si>
+    <t>europe/switzerland/yverdon-sport-fc</t>
+  </si>
+  <si>
+    <t>europe/switzerland/fc-zurich</t>
+  </si>
+  <si>
+    <t>europe/austria/sk-austria-klagenfurt</t>
+  </si>
+  <si>
+    <t>europe/austria/rheindorf-altach</t>
+  </si>
+  <si>
+    <t>europe/austria/austria-vienna</t>
+  </si>
+  <si>
+    <t>europe/austria/bw-linz</t>
+  </si>
+  <si>
+    <t>europe/austria/grazer-ak</t>
+  </si>
+  <si>
+    <t>europe/austria/tsv-hartberg</t>
+  </si>
+  <si>
+    <t>europe/austria/lask</t>
+  </si>
+  <si>
+    <t>europe/austria/rapid-vienna</t>
+  </si>
+  <si>
+    <t>europe/austria/red-bull-salzburg</t>
+  </si>
+  <si>
+    <t>europe/austria/sturm-graz</t>
+  </si>
+  <si>
+    <t>europe/austria/wsg-swarovski-tirol</t>
+  </si>
+  <si>
+    <t>europe/austria/wolfsberger-ac</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-chornomorets-odessa</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-dynamo-kyiv</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-inhulets-petrove</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-karpaty-lviv</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-kolos-kovalivka</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-kryvbas-kryvyi-rih</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-livyi-bereh-kyiv</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-lnz-cherkasy</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-obolon-kyiv</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-oleksandriya</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-polissya-zhytomyr</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-rukh-lviv</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-shakhtar-donetsk</t>
+  </si>
+  <si>
+    <t>europe/ukraine/nk-veres-rivne</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-vorskla-poltava</t>
+  </si>
+  <si>
+    <t>europe/ukraine/fc-zorya-luhansk</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/aberdeen-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/celtic-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/dundee-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/dundee-united-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/heart-of-midlothian-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/hibernian-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/kilmarnock-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/motherwell-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/rangers-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/ross-county-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/st-johnstone-fc</t>
+  </si>
+  <si>
+    <t>uk-ireland/scotland/st-mirren-fc</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1744,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:B386" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:B386" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:B530" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:B530" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B210">
     <sortCondition ref="A1:A210"/>
   </sortState>
@@ -1624,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3E121-4DD2-4C5A-A60B-ED62DD98B116}">
-  <dimension ref="A1:B386"/>
+  <dimension ref="A1:B530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="B387" sqref="B387"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="B530" sqref="B530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2996,7 +3428,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="str">
+      <c r="A152" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rionegro-aguilas</v>
       </c>
@@ -3005,7 +3437,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="str">
+      <c r="A153" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-fc</v>
       </c>
@@ -3014,7 +3446,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="str">
+      <c r="A154" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>america-de-cali</v>
       </c>
@@ -3023,7 +3455,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="str">
+      <c r="A155" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-nacional</v>
       </c>
@@ -3032,7 +3464,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="str">
+      <c r="A156" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-bucaramanga</v>
       </c>
@@ -3041,7 +3473,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="str">
+      <c r="A157" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>boyaca-chico-fc</v>
       </c>
@@ -3050,7 +3482,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="str">
+      <c r="A158" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-cali</v>
       </c>
@@ -3059,7 +3491,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="str">
+      <c r="A159" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>envigado-fc</v>
       </c>
@@ -3068,7 +3500,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="str">
+      <c r="A160" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortaleza-ceif</v>
       </c>
@@ -3077,7 +3509,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="str">
+      <c r="A161" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-independiente-medellin</v>
       </c>
@@ -3086,7 +3518,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="str">
+      <c r="A162" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-junior</v>
       </c>
@@ -3095,7 +3527,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="str">
+      <c r="A163" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-la-equidad</v>
       </c>
@@ -3104,7 +3536,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="str">
+      <c r="A164" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>llaneros-fc</v>
       </c>
@@ -3113,7 +3545,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="str">
+      <c r="A165" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>millonarios-fc</v>
       </c>
@@ -3122,7 +3554,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="str">
+      <c r="A166" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>once-caldas</v>
       </c>
@@ -3131,7 +3563,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="str">
+      <c r="A167" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-pasto</v>
       </c>
@@ -3140,7 +3572,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="str">
+      <c r="A168" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-pereira</v>
       </c>
@@ -3149,7 +3581,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="str">
+      <c r="A169" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>independiente-santa-fe</v>
       </c>
@@ -3158,7 +3590,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="str">
+      <c r="A170" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-tolima</v>
       </c>
@@ -3167,7 +3599,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="str">
+      <c r="A171" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-magdalena</v>
       </c>
@@ -3176,7 +3608,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="str">
+      <c r="A172" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>clube-atletico-mineiro</v>
       </c>
@@ -3185,7 +3617,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="str">
+      <c r="A173" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-bahia</v>
       </c>
@@ -3194,7 +3626,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="str">
+      <c r="A174" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>botafogo-de-futebol-e-regatas</v>
       </c>
@@ -3203,7 +3635,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="str">
+      <c r="A175" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>red-bull-bragantino</v>
       </c>
@@ -3212,7 +3644,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="str">
+      <c r="A176" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ceara-sporting-club</v>
       </c>
@@ -3221,7 +3653,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="str">
+      <c r="A177" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-corinthians-paulista</v>
       </c>
@@ -3230,7 +3662,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="str">
+      <c r="A178" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cruzeiro-esporte-clube</v>
       </c>
@@ -3239,7 +3671,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="str">
+      <c r="A179" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>clube-de-regatas-do-flamengo</v>
       </c>
@@ -3248,7 +3680,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="str">
+      <c r="A180" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fluminense-fc</v>
       </c>
@@ -3257,7 +3689,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="str">
+      <c r="A181" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortaleza-esporte-clube</v>
       </c>
@@ -3266,7 +3698,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="str">
+      <c r="A182" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gremio-football-porto-alagrense</v>
       </c>
@@ -3275,7 +3707,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="str">
+      <c r="A183" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-internacional</v>
       </c>
@@ -3284,7 +3716,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="str">
+      <c r="A184" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-juventude</v>
       </c>
@@ -3293,7 +3725,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="str">
+      <c r="A185" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mirassol-fc</v>
       </c>
@@ -3302,7 +3734,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="str">
+      <c r="A186" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sociedade-esportiva-palmeiras</v>
       </c>
@@ -3311,7 +3743,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="str">
+      <c r="A187" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>santos-fc</v>
       </c>
@@ -3320,7 +3752,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="str">
+      <c r="A188" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sao-paulo-fc</v>
       </c>
@@ -3329,7 +3761,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="str">
+      <c r="A189" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-do-recife</v>
       </c>
@@ -3338,7 +3770,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="str">
+      <c r="A190" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cr-vasco-da-gama</v>
       </c>
@@ -3347,7 +3779,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="str">
+      <c r="A191" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-vitoria</v>
       </c>
@@ -3356,7 +3788,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="str">
+      <c r="A192" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>adelaide-united-fc</v>
       </c>
@@ -3365,7 +3797,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="str">
+      <c r="A193" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>auckland-fc</v>
       </c>
@@ -3374,7 +3806,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="5" t="str">
+      <c r="A194" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>brisbane-roar-fc</v>
       </c>
@@ -3383,7 +3815,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="str">
+      <c r="A195" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>central-coast-mariners-fc</v>
       </c>
@@ -3392,7 +3824,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="5" t="str">
+      <c r="A196" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>macarthur-fc</v>
       </c>
@@ -3401,7 +3833,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="5" t="str">
+      <c r="A197" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>melbourne-city-fc</v>
       </c>
@@ -3410,7 +3842,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="5" t="str">
+      <c r="A198" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>melbourne-victory-fc</v>
       </c>
@@ -3419,7 +3851,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="5" t="str">
+      <c r="A199" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>newcastle-jets-fc</v>
       </c>
@@ -3428,7 +3860,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="5" t="str">
+      <c r="A200" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>perth-glory-fc</v>
       </c>
@@ -3437,7 +3869,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="str">
+      <c r="A201" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sydney-fc</v>
       </c>
@@ -3446,7 +3878,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="5" t="str">
+      <c r="A202" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wellington-phoenix-fc</v>
       </c>
@@ -3455,7 +3887,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="5" t="str">
+      <c r="A203" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>western-united-fc</v>
       </c>
@@ -3464,7 +3896,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="str">
+      <c r="A204" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>western-sydney-wanderers-fc</v>
       </c>
@@ -3473,7 +3905,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="str">
+      <c r="A205" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>eintracht-braunschweig</v>
       </c>
@@ -3482,7 +3914,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="str">
+      <c r="A206" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>darmstadt-98</v>
       </c>
@@ -3491,7 +3923,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="str">
+      <c r="A207" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortuna-dusseldorf</v>
       </c>
@@ -3500,7 +3932,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="str">
+      <c r="A208" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sv-elversberg</v>
       </c>
@@ -3509,7 +3941,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="str">
+      <c r="A209" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-koln</v>
       </c>
@@ -3518,7 +3950,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="str">
+      <c r="A210" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>greuther-furth</v>
       </c>
@@ -3527,7 +3959,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="5" t="str">
+      <c r="A211" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hamburger-sv</v>
       </c>
@@ -3536,7 +3968,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="str">
+      <c r="A212" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hannover-96</v>
       </c>
@@ -3545,7 +3977,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="str">
+      <c r="A213" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hertha-berlin</v>
       </c>
@@ -3554,7 +3986,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="5" t="str">
+      <c r="A214" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-kaiserslautern</v>
       </c>
@@ -3563,7 +3995,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="5" t="str">
+      <c r="A215" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>karlsruher-sc</v>
       </c>
@@ -3572,7 +4004,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="5" t="str">
+      <c r="A216" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-magdeburg</v>
       </c>
@@ -3581,7 +4013,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="str">
+      <c r="A217" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>preussen-munster</v>
       </c>
@@ -3590,7 +4022,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="5" t="str">
+      <c r="A218" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-nurnberg</v>
       </c>
@@ -3599,7 +4031,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="5" t="str">
+      <c r="A219" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-paderborn</v>
       </c>
@@ -3608,7 +4040,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="5" t="str">
+      <c r="A220" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>jahn-regensburg</v>
       </c>
@@ -3617,7 +4049,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="str">
+      <c r="A221" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>schalke-04</v>
       </c>
@@ -3626,7 +4058,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="5" t="str">
+      <c r="A222" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ssv-ulm-1846</v>
       </c>
@@ -3635,7 +4067,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="str">
+      <c r="A223" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-san-luis</v>
       </c>
@@ -3644,7 +4076,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="5" t="str">
+      <c r="A224" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atlas-fc</v>
       </c>
@@ -3653,7 +4085,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="5" t="str">
+      <c r="A225" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-america</v>
       </c>
@@ -3662,7 +4094,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="5" t="str">
+      <c r="A226" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cruz-azul</v>
       </c>
@@ -3671,7 +4103,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="str">
+      <c r="A227" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-guadalajara</v>
       </c>
@@ -3680,7 +4112,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="5" t="str">
+      <c r="A228" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-juarez</v>
       </c>
@@ -3689,7 +4121,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="5" t="str">
+      <c r="A229" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-leon</v>
       </c>
@@ -3698,7 +4130,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="5" t="str">
+      <c r="A230" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mazatlan-fc</v>
       </c>
@@ -3707,7 +4139,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="5" t="str">
+      <c r="A231" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cf-monterrey</v>
       </c>
@@ -3716,7 +4148,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="5" t="str">
+      <c r="A232" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-necaxa</v>
       </c>
@@ -3725,7 +4157,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="5" t="str">
+      <c r="A233" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cf-pachuca</v>
       </c>
@@ -3734,7 +4166,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="5" t="str">
+      <c r="A234" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-puebla</v>
       </c>
@@ -3743,7 +4175,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="5" t="str">
+      <c r="A235" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>queretaro-fc</v>
       </c>
@@ -3752,7 +4184,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="5" t="str">
+      <c r="A236" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>santos-laguna</v>
       </c>
@@ -3761,7 +4193,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="5" t="str">
+      <c r="A237" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tigres-uanl</v>
       </c>
@@ -3770,7 +4202,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="str">
+      <c r="A238" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-tijuana</v>
       </c>
@@ -3779,7 +4211,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="str">
+      <c r="A239" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-toluca-fc</v>
       </c>
@@ -3788,7 +4220,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="5" t="str">
+      <c r="A240" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>unam</v>
       </c>
@@ -3797,7 +4229,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="5" t="str">
+      <c r="A241" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>afc-ajax</v>
       </c>
@@ -3806,7 +4238,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="5" t="str">
+      <c r="A242" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>az-alkmaar</v>
       </c>
@@ -3815,7 +4247,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="5" t="str">
+      <c r="A243" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>almere-city-fc</v>
       </c>
@@ -3824,7 +4256,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="5" t="str">
+      <c r="A244" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>feyenoord-rotterdam</v>
       </c>
@@ -3833,7 +4265,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="5" t="str">
+      <c r="A245" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>go-ahead-eagles</v>
       </c>
@@ -3842,7 +4274,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="5" t="str">
+      <c r="A246" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-groningen</v>
       </c>
@@ -3851,7 +4283,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="5" t="str">
+      <c r="A247" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-heerenveen</v>
       </c>
@@ -3860,7 +4292,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="5" t="str">
+      <c r="A248" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>heracles-almelo</v>
       </c>
@@ -3869,7 +4301,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="str">
+      <c r="A249" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>nac-breda</v>
       </c>
@@ -3878,7 +4310,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="5" t="str">
+      <c r="A250" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>nec-nijmegen</v>
       </c>
@@ -3887,7 +4319,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="5" t="str">
+      <c r="A251" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>psv-eindhoven</v>
       </c>
@@ -3896,7 +4328,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="5" t="str">
+      <c r="A252" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortuna-sittard</v>
       </c>
@@ -3905,7 +4337,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="5" t="str">
+      <c r="A253" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sparta-rotterdam</v>
       </c>
@@ -3914,7 +4346,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="5" t="str">
+      <c r="A254" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-twente</v>
       </c>
@@ -3923,7 +4355,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="5" t="str">
+      <c r="A255" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-utrecht</v>
       </c>
@@ -3932,7 +4364,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="5" t="str">
+      <c r="A256" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rkc-waalwijk</v>
       </c>
@@ -3941,7 +4373,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="5" t="str">
+      <c r="A257" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>willem-ii</v>
       </c>
@@ -3950,7 +4382,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="5" t="str">
+      <c r="A258" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>pec-zwolle</v>
       </c>
@@ -3959,7 +4391,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="5" t="str">
+      <c r="A259" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rsc-anderlecht</v>
       </c>
@@ -3968,7 +4400,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="5" t="str">
+      <c r="A260" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>royal-antwerp-fc</v>
       </c>
@@ -3977,7 +4409,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="5" t="str">
+      <c r="A261" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>k-beerschot-va</v>
       </c>
@@ -3986,7 +4418,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="5" t="str">
+      <c r="A262" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cercle-brugge-ksv</v>
       </c>
@@ -3995,7 +4427,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="5" t="str">
+      <c r="A263" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>royal-charleroi-sc</v>
       </c>
@@ -4004,7 +4436,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="5" t="str">
+      <c r="A264" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-brugge-kv</v>
       </c>
@@ -4013,7 +4445,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="5" t="str">
+      <c r="A265" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fcv-dender-eh</v>
       </c>
@@ -4022,7 +4454,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="5" t="str">
+      <c r="A266" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>krc-genk</v>
       </c>
@@ -4031,7 +4463,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="5" t="str">
+      <c r="A267" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kaa-gent</v>
       </c>
@@ -4040,7 +4472,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="5" t="str">
+      <c r="A268" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kv-kortrijk</v>
       </c>
@@ -4049,7 +4481,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="5" t="str">
+      <c r="A269" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kv-mechelen</v>
       </c>
@@ -4058,7 +4490,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="5" t="str">
+      <c r="A270" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>oh-leuven</v>
       </c>
@@ -4067,7 +4499,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="5" t="str">
+      <c r="A271" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>standard-liege</v>
       </c>
@@ -4076,7 +4508,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="5" t="str">
+      <c r="A272" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sint-truidense-vv</v>
       </c>
@@ -4085,7 +4517,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="5" t="str">
+      <c r="A273" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ru-saint-gilloise</v>
       </c>
@@ -4094,7 +4526,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="5" t="str">
+      <c r="A274" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kvc-westerlo</v>
       </c>
@@ -4103,7 +4535,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="5" t="str">
+      <c r="A275" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-bodo-glimt</v>
       </c>
@@ -4112,7 +4544,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="5" t="str">
+      <c r="A276" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sk-brann</v>
       </c>
@@ -4121,7 +4553,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="5" t="str">
+      <c r="A277" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bryne-fk</v>
       </c>
@@ -4130,7 +4562,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="5" t="str">
+      <c r="A278" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fredrikstad-fk</v>
       </c>
@@ -4139,7 +4571,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="5" t="str">
+      <c r="A279" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ham-kam</v>
       </c>
@@ -4148,7 +4580,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="5" t="str">
+      <c r="A280" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-haugesund</v>
       </c>
@@ -4157,7 +4589,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="5" t="str">
+      <c r="A281" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kfum-kameratene-oslo</v>
       </c>
@@ -4166,7 +4598,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="5" t="str">
+      <c r="A282" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kristiansund-bk</v>
       </c>
@@ -4175,7 +4607,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="5" t="str">
+      <c r="A283" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>molde-fk</v>
       </c>
@@ -4184,7 +4616,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="5" t="str">
+      <c r="A284" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rosenborg-bk</v>
       </c>
@@ -4193,7 +4625,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="5" t="str">
+      <c r="A285" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sandefjord-fotball</v>
       </c>
@@ -4202,7 +4634,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="5" t="str">
+      <c r="A286" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sarpsborg-08-ff</v>
       </c>
@@ -4211,7 +4643,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="5" t="str">
+      <c r="A287" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stromsgodset</v>
       </c>
@@ -4220,7 +4652,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="5" t="str">
+      <c r="A288" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tromso-il</v>
       </c>
@@ -4229,7 +4661,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="5" t="str">
+      <c r="A289" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>valerenga-fotball</v>
       </c>
@@ -4238,7 +4670,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="5" t="str">
+      <c r="A290" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>viking-fk</v>
       </c>
@@ -4247,7 +4679,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="5" t="str">
+      <c r="A291" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-lima</v>
       </c>
@@ -4256,7 +4688,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="5" t="str">
+      <c r="A292" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>asociacion-deportiva-tarma</v>
       </c>
@@ -4265,7 +4697,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="5" t="str">
+      <c r="A293" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-atletico</v>
       </c>
@@ -4274,7 +4706,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="5" t="str">
+      <c r="A294" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-universidad-de-huanuco</v>
       </c>
@@ -4283,7 +4715,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="5" t="str">
+      <c r="A295" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ayacucho-fc</v>
       </c>
@@ -4292,7 +4724,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="5" t="str">
+      <c r="A296" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-binacional</v>
       </c>
@@ -4301,7 +4733,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="5" t="str">
+      <c r="A297" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>universidad-tecnica-de-cajamarca</v>
       </c>
@@ -4310,7 +4742,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="5" t="str">
+      <c r="A298" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-sportivo-cienciano</v>
       </c>
@@ -4319,7 +4751,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="5" t="str">
+      <c r="A299" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>comerciantes-unidos</v>
       </c>
@@ -4328,7 +4760,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="5" t="str">
+      <c r="A300" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cusco-fc</v>
       </c>
@@ -4337,7 +4769,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="5" t="str">
+      <c r="A301" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-garcilaso</v>
       </c>
@@ -4346,7 +4778,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="5" t="str">
+      <c r="A302" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-grau</v>
       </c>
@@ -4355,7 +4787,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="5" t="str">
+      <c r="A303" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-huancayo</v>
       </c>
@@ -4364,7 +4796,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="5" t="str">
+      <c r="A304" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>adc-juan-pablo-ii-college</v>
       </c>
@@ -4373,7 +4805,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="5" t="str">
+      <c r="A305" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>los-chankas-cyc</v>
       </c>
@@ -4382,7 +4814,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="5" t="str">
+      <c r="A306" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fbc-melgar</v>
       </c>
@@ -4391,7 +4823,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="5" t="str">
+      <c r="A307" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-boys</v>
       </c>
@@ -4400,7 +4832,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="5" t="str">
+      <c r="A308" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sporting-cristal</v>
       </c>
@@ -4409,7 +4841,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="5" t="str">
+      <c r="A309" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-universitario-de-deportes</v>
       </c>
@@ -4418,7 +4850,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="5" t="str">
+      <c r="A310" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-arouca</v>
       </c>
@@ -4427,7 +4859,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="5" t="str">
+      <c r="A311" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>avs-futebol-sad</v>
       </c>
@@ -4436,7 +4868,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="5" t="str">
+      <c r="A312" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>benfica</v>
       </c>
@@ -4445,7 +4877,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="5" t="str">
+      <c r="A313" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>boavista-fc</v>
       </c>
@@ -4454,7 +4886,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="5" t="str">
+      <c r="A314" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>braga</v>
       </c>
@@ -4463,7 +4895,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="5" t="str">
+      <c r="A315" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>casa-pia-ac</v>
       </c>
@@ -4472,7 +4904,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="5" t="str">
+      <c r="A316" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gd-estoril-praia</v>
       </c>
@@ -4481,7 +4913,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="5" t="str">
+      <c r="A317" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cf-estrela-da-amadora</v>
       </c>
@@ -4490,7 +4922,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="5" t="str">
+      <c r="A318" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>famalicao</v>
       </c>
@@ -4499,7 +4931,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="5" t="str">
+      <c r="A319" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-farense</v>
       </c>
@@ -4508,7 +4940,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="5" t="str">
+      <c r="A320" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-porto</v>
       </c>
@@ -4517,7 +4949,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="5" t="str">
+      <c r="A321" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gil-vicente</v>
       </c>
@@ -4526,7 +4958,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="5" t="str">
+      <c r="A322" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vitoria-de-guimaraes</v>
       </c>
@@ -4535,7 +4967,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="5" t="str">
+      <c r="A323" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>moreirense-fc</v>
       </c>
@@ -4544,7 +4976,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="5" t="str">
+      <c r="A324" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-nacional</v>
       </c>
@@ -4553,7 +4985,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="5" t="str">
+      <c r="A325" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rio-ave-fc</v>
       </c>
@@ -4562,7 +4994,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="5" t="str">
+      <c r="A326" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>santa-clara</v>
       </c>
@@ -4571,7 +5003,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="5" t="str">
+      <c r="A327" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sporting-cp</v>
       </c>
@@ -4580,7 +5012,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="5" t="str">
+      <c r="A328" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-okhdood-club</v>
       </c>
@@ -4589,7 +5021,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="5" t="str">
+      <c r="A329" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-fateh-sc</v>
       </c>
@@ -4598,7 +5030,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="5" t="str">
+      <c r="A330" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-fayha-fc</v>
       </c>
@@ -4607,7 +5039,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="5" t="str">
+      <c r="A331" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>khaleej-fc</v>
       </c>
@@ -4616,7 +5048,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="5" t="str">
+      <c r="A332" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-kholood-club</v>
       </c>
@@ -4625,7 +5057,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="5" t="str">
+      <c r="A333" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-orobah-fc</v>
       </c>
@@ -4634,7 +5066,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="5" t="str">
+      <c r="A334" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-qadsiah-fc</v>
       </c>
@@ -4643,7 +5075,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="5" t="str">
+      <c r="A335" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-riyadh-sc</v>
       </c>
@@ -4652,7 +5084,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="5" t="str">
+      <c r="A336" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-ahli-saudi-fc</v>
       </c>
@@ -4661,7 +5093,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="5" t="str">
+      <c r="A337" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-ettifaq-fc</v>
       </c>
@@ -4670,7 +5102,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="5" t="str">
+      <c r="A338" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-hilal-fc</v>
       </c>
@@ -4679,7 +5111,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="5" t="str">
+      <c r="A339" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-ittihad-fc</v>
       </c>
@@ -4688,7 +5120,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="5" t="str">
+      <c r="A340" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-nassr-fc</v>
       </c>
@@ -4697,7 +5129,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="5" t="str">
+      <c r="A341" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-raed-fc</v>
       </c>
@@ -4706,7 +5138,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="5" t="str">
+      <c r="A342" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-shabab-fc</v>
       </c>
@@ -4715,7 +5147,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="5" t="str">
+      <c r="A343" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-taawoun-fc</v>
       </c>
@@ -4724,7 +5156,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="5" t="str">
+      <c r="A344" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-wehda</v>
       </c>
@@ -4733,7 +5165,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="5" t="str">
+      <c r="A345" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>damac-fc</v>
       </c>
@@ -4742,7 +5174,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="5" t="str">
+      <c r="A346" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>albacete-balompie</v>
       </c>
@@ -4751,7 +5183,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="5" t="str">
+      <c r="A347" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ud-almeria</v>
       </c>
@@ -4760,7 +5192,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="5" t="str">
+      <c r="A348" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>burgos-cf</v>
       </c>
@@ -4769,7 +5201,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="5" t="str">
+      <c r="A349" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cadiz-cf</v>
       </c>
@@ -4778,7 +5210,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="5" t="str">
+      <c r="A350" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-cartagena</v>
       </c>
@@ -4787,7 +5219,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="5" t="str">
+      <c r="A351" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-castellon</v>
       </c>
@@ -4796,7 +5228,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="5" t="str">
+      <c r="A352" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cordoba-cf</v>
       </c>
@@ -4805,7 +5237,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="5" t="str">
+      <c r="A353" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sd-eibar</v>
       </c>
@@ -4814,7 +5246,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="5" t="str">
+      <c r="A354" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>elche-cf</v>
       </c>
@@ -4823,7 +5255,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="5" t="str">
+      <c r="A355" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-eldense</v>
       </c>
@@ -4832,7 +5264,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="5" t="str">
+      <c r="A356" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>racing-de-ferrol</v>
       </c>
@@ -4841,7 +5273,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="5" t="str">
+      <c r="A357" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sporting-de-gijon</v>
       </c>
@@ -4850,7 +5282,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="5" t="str">
+      <c r="A358" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>granada-cf</v>
       </c>
@@ -4859,7 +5291,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="5" t="str">
+      <c r="A359" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sd-huesca</v>
       </c>
@@ -4868,7 +5300,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="5" t="str">
+      <c r="A360" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-de-la-coruna</v>
       </c>
@@ -4877,7 +5309,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="5" t="str">
+      <c r="A361" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>levante-ud</v>
       </c>
@@ -4886,7 +5318,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="5" t="str">
+      <c r="A362" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>malaga-cf</v>
       </c>
@@ -4895,7 +5327,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="5" t="str">
+      <c r="A363" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-mirandes</v>
       </c>
@@ -4904,7 +5336,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="5" t="str">
+      <c r="A364" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-oviedo</v>
       </c>
@@ -4913,7 +5345,7 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="5" t="str">
+      <c r="A365" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>racing-de-santander</v>
       </c>
@@ -4922,7 +5354,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="5" t="str">
+      <c r="A366" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-tenerife</v>
       </c>
@@ -4931,7 +5363,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="5" t="str">
+      <c r="A367" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-zaragoza</v>
       </c>
@@ -4940,7 +5372,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="5" t="str">
+      <c r="A368" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>adana-demirspor</v>
       </c>
@@ -4949,7 +5381,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="5" t="str">
+      <c r="A369" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alanyaspor</v>
       </c>
@@ -4958,7 +5390,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="5" t="str">
+      <c r="A370" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>antalyaspor</v>
       </c>
@@ -4967,7 +5399,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="5" t="str">
+      <c r="A371" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>istanbul-basaksehir-fk</v>
       </c>
@@ -4976,7 +5408,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="5" t="str">
+      <c r="A372" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>besiktas-jk</v>
       </c>
@@ -4985,7 +5417,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="5" t="str">
+      <c r="A373" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bodrumspor</v>
       </c>
@@ -4994,7 +5426,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="5" t="str">
+      <c r="A374" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>eyupspor</v>
       </c>
@@ -5003,7 +5435,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="5" t="str">
+      <c r="A375" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fenerbahce-sk</v>
       </c>
@@ -5012,7 +5444,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="5" t="str">
+      <c r="A376" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>galatasaray-sk</v>
       </c>
@@ -5021,7 +5453,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="5" t="str">
+      <c r="A377" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gaziantep-fk</v>
       </c>
@@ -5030,7 +5462,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="5" t="str">
+      <c r="A378" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>goztepe-sk</v>
       </c>
@@ -5039,7 +5471,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="5" t="str">
+      <c r="A379" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hatayspor</v>
       </c>
@@ -5048,7 +5480,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="5" t="str">
+      <c r="A380" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kasimpasa-sk</v>
       </c>
@@ -5057,7 +5489,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="5" t="str">
+      <c r="A381" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kayserispor</v>
       </c>
@@ -5066,7 +5498,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="5" t="str">
+      <c r="A382" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>konyaspor</v>
       </c>
@@ -5075,7 +5507,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="5" t="str">
+      <c r="A383" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>caykur-rizespor</v>
       </c>
@@ -5084,7 +5516,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="5" t="str">
+      <c r="A384" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>samsunspor</v>
       </c>
@@ -5093,7 +5525,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="5" t="str">
+      <c r="A385" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sivasspor</v>
       </c>
@@ -5102,12 +5534,1308 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="5" t="str">
+      <c r="A386" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>trabzonspor</v>
       </c>
       <c r="B386" t="s">
         <v>386</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>audax-italiano</v>
+      </c>
+      <c r="B387" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cd-cobresal</v>
+      </c>
+      <c r="B388" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>colo-colo</v>
+      </c>
+      <c r="B389" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>coquimbo-unido</v>
+      </c>
+      <c r="B390" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>deportes-iquique</v>
+      </c>
+      <c r="B391" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>everton-de-vina-del-mar</v>
+      </c>
+      <c r="B392" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cd-huachipato</v>
+      </c>
+      <c r="B393" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>deportes-la-serena</v>
+      </c>
+      <c r="B394" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>deportes-limache</v>
+      </c>
+      <c r="B395" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>deportivo-nublense</v>
+      </c>
+      <c r="B396" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>o-higgins-fc</v>
+      </c>
+      <c r="B397" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cd-palestino</v>
+      </c>
+      <c r="B398" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>union-la-calera</v>
+      </c>
+      <c r="B399" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cd-universidad-catolica</v>
+      </c>
+      <c r="B400" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>club-universidad-de-chile</v>
+      </c>
+      <c r="B401" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>union-espanola</v>
+      </c>
+      <c r="B402" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>boston-river</v>
+      </c>
+      <c r="B403" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>club-atletico-cerro</v>
+      </c>
+      <c r="B404" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cerro-largo-fc</v>
+      </c>
+      <c r="B405" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>danubio-fc</v>
+      </c>
+      <c r="B406" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>defensor-sporting</v>
+      </c>
+      <c r="B407" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>juventud-de-las-piedras</v>
+      </c>
+      <c r="B408" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>liverpool-fc-montevideo</v>
+      </c>
+      <c r="B409" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>miramar-misiones</v>
+      </c>
+      <c r="B410" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>montevideo-city-torque</v>
+      </c>
+      <c r="B411" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>club-nacional-de-football</v>
+      </c>
+      <c r="B412" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>penarol</v>
+      </c>
+      <c r="B413" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>club-plaza-colonia-de-deportes</v>
+      </c>
+      <c r="B414" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>club-atletico-progreso</v>
+      </c>
+      <c r="B415" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>racing-club-de-montevideo</v>
+      </c>
+      <c r="B416" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>club-atletico-river-plate</v>
+      </c>
+      <c r="B417" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>montevideo-wanderers-fc</v>
+      </c>
+      <c r="B418" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>atlanta-united-fc</v>
+      </c>
+      <c r="B419" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>austin-fc</v>
+      </c>
+      <c r="B420" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>club-de-foot-montreal</v>
+      </c>
+      <c r="B421" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>charlotte-fc</v>
+      </c>
+      <c r="B422" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>chicago-fire-fc</v>
+      </c>
+      <c r="B423" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-cincinnati</v>
+      </c>
+      <c r="B424" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>colorado-rapids</v>
+      </c>
+      <c r="B425" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>columbus-crew-sc</v>
+      </c>
+      <c r="B426" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>dc-united</v>
+      </c>
+      <c r="B427" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-dallas</v>
+      </c>
+      <c r="B428" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>houston-dynamo</v>
+      </c>
+      <c r="B429" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>inter-miami-cf</v>
+      </c>
+      <c r="B430" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>los-angeles-fc</v>
+      </c>
+      <c r="B431" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>los-angeles-galaxy</v>
+      </c>
+      <c r="B432" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>minnesota-united-fc</v>
+      </c>
+      <c r="B433" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>nashville-sc</v>
+      </c>
+      <c r="B434" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>new-england-revolution</v>
+      </c>
+      <c r="B435" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>new-york-city-fc</v>
+      </c>
+      <c r="B436" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>new-york-red-bulls</v>
+      </c>
+      <c r="B437" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>orlando-city-sc</v>
+      </c>
+      <c r="B438" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>philadelphia-union</v>
+      </c>
+      <c r="B439" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>portland-timbers</v>
+      </c>
+      <c r="B440" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>real-salt-lake</v>
+      </c>
+      <c r="B441" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>san-diego-fc</v>
+      </c>
+      <c r="B442" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>san-jose-earthquakes</v>
+      </c>
+      <c r="B443" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>seattle-sounders-fc</v>
+      </c>
+      <c r="B444" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sporting-kansas-city</v>
+      </c>
+      <c r="B445" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>st-louis-city-sc</v>
+      </c>
+      <c r="B446" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>toronto-fc</v>
+      </c>
+      <c r="B447" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>vancouver-whitecaps-fc</v>
+      </c>
+      <c r="B448" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>bohemians-1905</v>
+      </c>
+      <c r="B449" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ceske-budejovice</v>
+      </c>
+      <c r="B450" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fk-dukla-prague</v>
+      </c>
+      <c r="B451" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-hradec-kralove</v>
+      </c>
+      <c r="B452" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fk-jablonec</v>
+      </c>
+      <c r="B453" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>mfk-karvina</v>
+      </c>
+      <c r="B454" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-slovan-liberec</v>
+      </c>
+      <c r="B455" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fk-mlada-boleslav</v>
+      </c>
+      <c r="B456" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-banik-ostrava</v>
+      </c>
+      <c r="B457" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fk-pardubice</v>
+      </c>
+      <c r="B458" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-viktoria-plzen</v>
+      </c>
+      <c r="B459" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sk-sigma-olomouc</v>
+      </c>
+      <c r="B460" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>slavia-prague</v>
+      </c>
+      <c r="B461" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-slovacko</v>
+      </c>
+      <c r="B462" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sparta-prague</v>
+      </c>
+      <c r="B463" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fk-teplice</v>
+      </c>
+      <c r="B464" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>aek-athens-fc</v>
+      </c>
+      <c r="B465" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>aris-thessaloniki-fc</v>
+      </c>
+      <c r="B466" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>asteras-tripolis-fc</v>
+      </c>
+      <c r="B467" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>athens-kallithea-fc</v>
+      </c>
+      <c r="B468" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>atromitos-fc</v>
+      </c>
+      <c r="B469" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>lamia-fc</v>
+      </c>
+      <c r="B470" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>levadiakos-fc</v>
+      </c>
+      <c r="B471" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ofi-crete-fc</v>
+      </c>
+      <c r="B472" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>olympiacos-fc</v>
+      </c>
+      <c r="B473" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>panathinaikos-fc</v>
+      </c>
+      <c r="B474" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>panetolikos-fc</v>
+      </c>
+      <c r="B475" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>panserraikos-fc</v>
+      </c>
+      <c r="B476" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>paok-fc</v>
+      </c>
+      <c r="B477" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>volos-fc</v>
+      </c>
+      <c r="B478" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-basel</v>
+      </c>
+      <c r="B479" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>grasshopper-club-zurich</v>
+      </c>
+      <c r="B480" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-lausanne-sport</v>
+      </c>
+      <c r="B481" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-lugano</v>
+      </c>
+      <c r="B482" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-luzern</v>
+      </c>
+      <c r="B483" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>servette-fc</v>
+      </c>
+      <c r="B484" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-sion</v>
+      </c>
+      <c r="B485" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-st-gallen</v>
+      </c>
+      <c r="B486" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-winterthur</v>
+      </c>
+      <c r="B487" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>bsc-young-boys</v>
+      </c>
+      <c r="B488" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>yverdon-sport-fc</v>
+      </c>
+      <c r="B489" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-zurich</v>
+      </c>
+      <c r="B490" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sk-austria-klagenfurt</v>
+      </c>
+      <c r="B491" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>rheindorf-altach</v>
+      </c>
+      <c r="B492" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>austria-vienna</v>
+      </c>
+      <c r="B493" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>bw-linz</v>
+      </c>
+      <c r="B494" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>grazer-ak</v>
+      </c>
+      <c r="B495" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>tsv-hartberg</v>
+      </c>
+      <c r="B496" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>lask</v>
+      </c>
+      <c r="B497" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>rapid-vienna</v>
+      </c>
+      <c r="B498" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>red-bull-salzburg</v>
+      </c>
+      <c r="B499" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sturm-graz</v>
+      </c>
+      <c r="B500" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>wsg-swarovski-tirol</v>
+      </c>
+      <c r="B501" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>wolfsberger-ac</v>
+      </c>
+      <c r="B502" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-chornomorets-odessa</v>
+      </c>
+      <c r="B503" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-dynamo-kyiv</v>
+      </c>
+      <c r="B504" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-inhulets-petrove</v>
+      </c>
+      <c r="B505" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-karpaty-lviv</v>
+      </c>
+      <c r="B506" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-kolos-kovalivka</v>
+      </c>
+      <c r="B507" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-kryvbas-kryvyi-rih</v>
+      </c>
+      <c r="B508" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-livyi-bereh-kyiv</v>
+      </c>
+      <c r="B509" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-lnz-cherkasy</v>
+      </c>
+      <c r="B510" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-obolon-kyiv</v>
+      </c>
+      <c r="B511" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-oleksandriya</v>
+      </c>
+      <c r="B512" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-polissya-zhytomyr</v>
+      </c>
+      <c r="B513" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-rukh-lviv</v>
+      </c>
+      <c r="B514" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-shakhtar-donetsk</v>
+      </c>
+      <c r="B515" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>nk-veres-rivne</v>
+      </c>
+      <c r="B516" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-vorskla-poltava</v>
+      </c>
+      <c r="B517" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-zorya-luhansk</v>
+      </c>
+      <c r="B518" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>aberdeen-fc</v>
+      </c>
+      <c r="B519" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>celtic-fc</v>
+      </c>
+      <c r="B520" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>dundee-fc</v>
+      </c>
+      <c r="B521" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>dundee-united-fc</v>
+      </c>
+      <c r="B522" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>heart-of-midlothian-fc</v>
+      </c>
+      <c r="B523" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>hibernian-fc</v>
+      </c>
+      <c r="B524" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>kilmarnock-fc</v>
+      </c>
+      <c r="B525" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>motherwell-fc</v>
+      </c>
+      <c r="B526" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>rangers-fc</v>
+      </c>
+      <c r="B527" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ross-county-fc</v>
+      </c>
+      <c r="B528" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>st-johnstone-fc</v>
+      </c>
+      <c r="B529" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="5" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>st-mirren-fc</v>
+      </c>
+      <c r="B530" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/enlaces_equipos.xlsx
+++ b/enlaces_equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://v7hfx-my.sharepoint.com/personal/joseca20_v7hfx_onmicrosoft_com/Documents/web scraping/statsFutbol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8014A8E8-B76C-460F-ADA5-2DC0C00C0CE2}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FDE8115-4D3E-4162-95A8-E868BBBD26A1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474EBA83-D6A0-4565-BEB0-BC6B2AA992C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="515">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1545,54 +1545,6 @@
   </si>
   <si>
     <t>europe/austria/wolfsberger-ac</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-chornomorets-odessa</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-dynamo-kyiv</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-inhulets-petrove</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-karpaty-lviv</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-kolos-kovalivka</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-kryvbas-kryvyi-rih</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-livyi-bereh-kyiv</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-lnz-cherkasy</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-obolon-kyiv</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-oleksandriya</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-polissya-zhytomyr</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-rukh-lviv</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-shakhtar-donetsk</t>
-  </si>
-  <si>
-    <t>europe/ukraine/nk-veres-rivne</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-vorskla-poltava</t>
-  </si>
-  <si>
-    <t>europe/ukraine/fc-zorya-luhansk</t>
   </si>
   <si>
     <t>uk-ireland/scotland/aberdeen-fc</t>
@@ -1700,7 +1652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1708,7 +1660,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1744,8 +1695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:B530" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:B530" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:B514" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:B514" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B210">
     <sortCondition ref="A1:A210"/>
   </sortState>
@@ -2056,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3E121-4DD2-4C5A-A60B-ED62DD98B116}">
-  <dimension ref="A1:B530"/>
+  <dimension ref="A1:B514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="B530" sqref="B530"/>
+    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
+      <selection activeCell="C509" sqref="C509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5543,7 +5494,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="5" t="str">
+      <c r="A387" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>audax-italiano</v>
       </c>
@@ -5552,7 +5503,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="5" t="str">
+      <c r="A388" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-cobresal</v>
       </c>
@@ -5561,7 +5512,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="5" t="str">
+      <c r="A389" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>colo-colo</v>
       </c>
@@ -5570,7 +5521,7 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="5" t="str">
+      <c r="A390" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>coquimbo-unido</v>
       </c>
@@ -5579,7 +5530,7 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="5" t="str">
+      <c r="A391" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-iquique</v>
       </c>
@@ -5588,7 +5539,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="5" t="str">
+      <c r="A392" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>everton-de-vina-del-mar</v>
       </c>
@@ -5597,7 +5548,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="5" t="str">
+      <c r="A393" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-huachipato</v>
       </c>
@@ -5606,7 +5557,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="5" t="str">
+      <c r="A394" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-la-serena</v>
       </c>
@@ -5615,7 +5566,7 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="5" t="str">
+      <c r="A395" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-limache</v>
       </c>
@@ -5624,7 +5575,7 @@
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="5" t="str">
+      <c r="A396" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-nublense</v>
       </c>
@@ -5633,7 +5584,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="5" t="str">
+      <c r="A397" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>o-higgins-fc</v>
       </c>
@@ -5642,7 +5593,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="5" t="str">
+      <c r="A398" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-palestino</v>
       </c>
@@ -5651,7 +5602,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="5" t="str">
+      <c r="A399" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-la-calera</v>
       </c>
@@ -5660,7 +5611,7 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="5" t="str">
+      <c r="A400" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-universidad-catolica</v>
       </c>
@@ -5669,7 +5620,7 @@
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="5" t="str">
+      <c r="A401" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-universidad-de-chile</v>
       </c>
@@ -5678,7 +5629,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="5" t="str">
+      <c r="A402" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-espanola</v>
       </c>
@@ -5687,7 +5638,7 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="5" t="str">
+      <c r="A403" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>boston-river</v>
       </c>
@@ -5696,7 +5647,7 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="5" t="str">
+      <c r="A404" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-cerro</v>
       </c>
@@ -5705,7 +5656,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="5" t="str">
+      <c r="A405" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cerro-largo-fc</v>
       </c>
@@ -5714,7 +5665,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="5" t="str">
+      <c r="A406" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>danubio-fc</v>
       </c>
@@ -5723,7 +5674,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="5" t="str">
+      <c r="A407" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>defensor-sporting</v>
       </c>
@@ -5732,7 +5683,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="5" t="str">
+      <c r="A408" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>juventud-de-las-piedras</v>
       </c>
@@ -5741,7 +5692,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="5" t="str">
+      <c r="A409" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>liverpool-fc-montevideo</v>
       </c>
@@ -5750,7 +5701,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="5" t="str">
+      <c r="A410" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>miramar-misiones</v>
       </c>
@@ -5759,7 +5710,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="5" t="str">
+      <c r="A411" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>montevideo-city-torque</v>
       </c>
@@ -5768,7 +5719,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="5" t="str">
+      <c r="A412" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-nacional-de-football</v>
       </c>
@@ -5777,7 +5728,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="5" t="str">
+      <c r="A413" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>penarol</v>
       </c>
@@ -5786,7 +5737,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="5" t="str">
+      <c r="A414" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-plaza-colonia-de-deportes</v>
       </c>
@@ -5795,7 +5746,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="5" t="str">
+      <c r="A415" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-progreso</v>
       </c>
@@ -5804,7 +5755,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="5" t="str">
+      <c r="A416" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>racing-club-de-montevideo</v>
       </c>
@@ -5813,7 +5764,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="5" t="str">
+      <c r="A417" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-river-plate</v>
       </c>
@@ -5822,7 +5773,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="5" t="str">
+      <c r="A418" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>montevideo-wanderers-fc</v>
       </c>
@@ -5831,7 +5782,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="5" t="str">
+      <c r="A419" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atlanta-united-fc</v>
       </c>
@@ -5840,7 +5791,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="5" t="str">
+      <c r="A420" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>austin-fc</v>
       </c>
@@ -5849,7 +5800,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="5" t="str">
+      <c r="A421" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-de-foot-montreal</v>
       </c>
@@ -5858,7 +5809,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="5" t="str">
+      <c r="A422" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>charlotte-fc</v>
       </c>
@@ -5867,7 +5818,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="5" t="str">
+      <c r="A423" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>chicago-fire-fc</v>
       </c>
@@ -5876,7 +5827,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="5" t="str">
+      <c r="A424" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-cincinnati</v>
       </c>
@@ -5885,7 +5836,7 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="5" t="str">
+      <c r="A425" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>colorado-rapids</v>
       </c>
@@ -5894,7 +5845,7 @@
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="5" t="str">
+      <c r="A426" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>columbus-crew-sc</v>
       </c>
@@ -5903,7 +5854,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="5" t="str">
+      <c r="A427" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>dc-united</v>
       </c>
@@ -5912,7 +5863,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="5" t="str">
+      <c r="A428" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-dallas</v>
       </c>
@@ -5921,7 +5872,7 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="5" t="str">
+      <c r="A429" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>houston-dynamo</v>
       </c>
@@ -5930,7 +5881,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="5" t="str">
+      <c r="A430" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>inter-miami-cf</v>
       </c>
@@ -5939,7 +5890,7 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="5" t="str">
+      <c r="A431" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>los-angeles-fc</v>
       </c>
@@ -5948,7 +5899,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="5" t="str">
+      <c r="A432" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>los-angeles-galaxy</v>
       </c>
@@ -5957,7 +5908,7 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="5" t="str">
+      <c r="A433" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>minnesota-united-fc</v>
       </c>
@@ -5966,7 +5917,7 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="5" t="str">
+      <c r="A434" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>nashville-sc</v>
       </c>
@@ -5975,7 +5926,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="5" t="str">
+      <c r="A435" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>new-england-revolution</v>
       </c>
@@ -5984,7 +5935,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="5" t="str">
+      <c r="A436" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>new-york-city-fc</v>
       </c>
@@ -5993,7 +5944,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="5" t="str">
+      <c r="A437" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>new-york-red-bulls</v>
       </c>
@@ -6002,7 +5953,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="5" t="str">
+      <c r="A438" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>orlando-city-sc</v>
       </c>
@@ -6011,7 +5962,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="5" t="str">
+      <c r="A439" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>philadelphia-union</v>
       </c>
@@ -6020,7 +5971,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="5" t="str">
+      <c r="A440" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>portland-timbers</v>
       </c>
@@ -6029,7 +5980,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="5" t="str">
+      <c r="A441" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-salt-lake</v>
       </c>
@@ -6038,7 +5989,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="5" t="str">
+      <c r="A442" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-diego-fc</v>
       </c>
@@ -6047,7 +5998,7 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="5" t="str">
+      <c r="A443" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-jose-earthquakes</v>
       </c>
@@ -6056,7 +6007,7 @@
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="5" t="str">
+      <c r="A444" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>seattle-sounders-fc</v>
       </c>
@@ -6065,7 +6016,7 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="5" t="str">
+      <c r="A445" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sporting-kansas-city</v>
       </c>
@@ -6074,7 +6025,7 @@
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="5" t="str">
+      <c r="A446" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>st-louis-city-sc</v>
       </c>
@@ -6083,7 +6034,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="5" t="str">
+      <c r="A447" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>toronto-fc</v>
       </c>
@@ -6092,7 +6043,7 @@
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="5" t="str">
+      <c r="A448" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vancouver-whitecaps-fc</v>
       </c>
@@ -6101,7 +6052,7 @@
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="5" t="str">
+      <c r="A449" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bohemians-1905</v>
       </c>
@@ -6110,7 +6061,7 @@
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="5" t="str">
+      <c r="A450" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ceske-budejovice</v>
       </c>
@@ -6119,7 +6070,7 @@
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="5" t="str">
+      <c r="A451" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-dukla-prague</v>
       </c>
@@ -6128,7 +6079,7 @@
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="5" t="str">
+      <c r="A452" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-hradec-kralove</v>
       </c>
@@ -6137,7 +6088,7 @@
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="5" t="str">
+      <c r="A453" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-jablonec</v>
       </c>
@@ -6146,7 +6097,7 @@
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="5" t="str">
+      <c r="A454" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mfk-karvina</v>
       </c>
@@ -6155,7 +6106,7 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="5" t="str">
+      <c r="A455" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-slovan-liberec</v>
       </c>
@@ -6164,7 +6115,7 @@
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="5" t="str">
+      <c r="A456" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-mlada-boleslav</v>
       </c>
@@ -6173,7 +6124,7 @@
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="5" t="str">
+      <c r="A457" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-banik-ostrava</v>
       </c>
@@ -6182,7 +6133,7 @@
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="5" t="str">
+      <c r="A458" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-pardubice</v>
       </c>
@@ -6191,7 +6142,7 @@
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="5" t="str">
+      <c r="A459" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-viktoria-plzen</v>
       </c>
@@ -6200,7 +6151,7 @@
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="5" t="str">
+      <c r="A460" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sk-sigma-olomouc</v>
       </c>
@@ -6209,7 +6160,7 @@
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" s="5" t="str">
+      <c r="A461" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>slavia-prague</v>
       </c>
@@ -6218,7 +6169,7 @@
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="5" t="str">
+      <c r="A462" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-slovacko</v>
       </c>
@@ -6227,7 +6178,7 @@
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" s="5" t="str">
+      <c r="A463" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sparta-prague</v>
       </c>
@@ -6236,7 +6187,7 @@
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="5" t="str">
+      <c r="A464" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-teplice</v>
       </c>
@@ -6245,7 +6196,7 @@
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" s="5" t="str">
+      <c r="A465" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aek-athens-fc</v>
       </c>
@@ -6254,7 +6205,7 @@
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="5" t="str">
+      <c r="A466" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aris-thessaloniki-fc</v>
       </c>
@@ -6263,7 +6214,7 @@
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" s="5" t="str">
+      <c r="A467" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>asteras-tripolis-fc</v>
       </c>
@@ -6272,7 +6223,7 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="5" t="str">
+      <c r="A468" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>athens-kallithea-fc</v>
       </c>
@@ -6281,7 +6232,7 @@
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" s="5" t="str">
+      <c r="A469" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atromitos-fc</v>
       </c>
@@ -6290,7 +6241,7 @@
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="5" t="str">
+      <c r="A470" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lamia-fc</v>
       </c>
@@ -6299,7 +6250,7 @@
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="5" t="str">
+      <c r="A471" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>levadiakos-fc</v>
       </c>
@@ -6308,7 +6259,7 @@
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="5" t="str">
+      <c r="A472" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ofi-crete-fc</v>
       </c>
@@ -6317,7 +6268,7 @@
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="5" t="str">
+      <c r="A473" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>olympiacos-fc</v>
       </c>
@@ -6326,7 +6277,7 @@
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="5" t="str">
+      <c r="A474" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>panathinaikos-fc</v>
       </c>
@@ -6335,7 +6286,7 @@
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="5" t="str">
+      <c r="A475" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>panetolikos-fc</v>
       </c>
@@ -6344,7 +6295,7 @@
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="5" t="str">
+      <c r="A476" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>panserraikos-fc</v>
       </c>
@@ -6353,7 +6304,7 @@
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="5" t="str">
+      <c r="A477" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>paok-fc</v>
       </c>
@@ -6362,7 +6313,7 @@
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="5" t="str">
+      <c r="A478" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>volos-fc</v>
       </c>
@@ -6371,7 +6322,7 @@
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="5" t="str">
+      <c r="A479" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-basel</v>
       </c>
@@ -6380,7 +6331,7 @@
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="5" t="str">
+      <c r="A480" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>grasshopper-club-zurich</v>
       </c>
@@ -6389,7 +6340,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="5" t="str">
+      <c r="A481" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-lausanne-sport</v>
       </c>
@@ -6398,7 +6349,7 @@
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="5" t="str">
+      <c r="A482" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-lugano</v>
       </c>
@@ -6407,7 +6358,7 @@
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="5" t="str">
+      <c r="A483" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-luzern</v>
       </c>
@@ -6416,7 +6367,7 @@
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="5" t="str">
+      <c r="A484" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>servette-fc</v>
       </c>
@@ -6425,7 +6376,7 @@
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="5" t="str">
+      <c r="A485" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-sion</v>
       </c>
@@ -6434,7 +6385,7 @@
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="5" t="str">
+      <c r="A486" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-st-gallen</v>
       </c>
@@ -6443,7 +6394,7 @@
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="5" t="str">
+      <c r="A487" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-winterthur</v>
       </c>
@@ -6452,7 +6403,7 @@
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="5" t="str">
+      <c r="A488" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bsc-young-boys</v>
       </c>
@@ -6461,7 +6412,7 @@
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" s="5" t="str">
+      <c r="A489" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>yverdon-sport-fc</v>
       </c>
@@ -6470,7 +6421,7 @@
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" s="5" t="str">
+      <c r="A490" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-zurich</v>
       </c>
@@ -6479,7 +6430,7 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" s="5" t="str">
+      <c r="A491" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sk-austria-klagenfurt</v>
       </c>
@@ -6488,7 +6439,7 @@
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" s="5" t="str">
+      <c r="A492" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rheindorf-altach</v>
       </c>
@@ -6497,7 +6448,7 @@
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" s="5" t="str">
+      <c r="A493" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>austria-vienna</v>
       </c>
@@ -6506,7 +6457,7 @@
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" s="5" t="str">
+      <c r="A494" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bw-linz</v>
       </c>
@@ -6515,7 +6466,7 @@
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" s="5" t="str">
+      <c r="A495" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>grazer-ak</v>
       </c>
@@ -6524,7 +6475,7 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" s="5" t="str">
+      <c r="A496" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tsv-hartberg</v>
       </c>
@@ -6533,7 +6484,7 @@
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" s="5" t="str">
+      <c r="A497" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lask</v>
       </c>
@@ -6542,7 +6493,7 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" s="5" t="str">
+      <c r="A498" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rapid-vienna</v>
       </c>
@@ -6551,7 +6502,7 @@
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" s="5" t="str">
+      <c r="A499" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>red-bull-salzburg</v>
       </c>
@@ -6560,7 +6511,7 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" s="5" t="str">
+      <c r="A500" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sturm-graz</v>
       </c>
@@ -6569,7 +6520,7 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" s="5" t="str">
+      <c r="A501" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wsg-swarovski-tirol</v>
       </c>
@@ -6578,7 +6529,7 @@
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" s="5" t="str">
+      <c r="A502" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wolfsberger-ac</v>
       </c>
@@ -6587,255 +6538,111 @@
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-chornomorets-odessa</v>
+      <c r="A503" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>aberdeen-fc</v>
       </c>
       <c r="B503" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-dynamo-kyiv</v>
+      <c r="A504" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>celtic-fc</v>
       </c>
       <c r="B504" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-inhulets-petrove</v>
+      <c r="A505" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>dundee-fc</v>
       </c>
       <c r="B505" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-karpaty-lviv</v>
+      <c r="A506" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>dundee-united-fc</v>
       </c>
       <c r="B506" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-kolos-kovalivka</v>
+      <c r="A507" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>heart-of-midlothian-fc</v>
       </c>
       <c r="B507" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-kryvbas-kryvyi-rih</v>
+      <c r="A508" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>hibernian-fc</v>
       </c>
       <c r="B508" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-livyi-bereh-kyiv</v>
+      <c r="A509" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>kilmarnock-fc</v>
       </c>
       <c r="B509" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-lnz-cherkasy</v>
+      <c r="A510" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>motherwell-fc</v>
       </c>
       <c r="B510" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-obolon-kyiv</v>
+      <c r="A511" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>rangers-fc</v>
       </c>
       <c r="B511" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-oleksandriya</v>
+      <c r="A512" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ross-county-fc</v>
       </c>
       <c r="B512" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-polissya-zhytomyr</v>
+      <c r="A513" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>st-johnstone-fc</v>
       </c>
       <c r="B513" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-rukh-lviv</v>
+      <c r="A514" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>st-mirren-fc</v>
       </c>
       <c r="B514" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-shakhtar-donetsk</v>
-      </c>
-      <c r="B515" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>nk-veres-rivne</v>
-      </c>
-      <c r="B516" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-vorskla-poltava</v>
-      </c>
-      <c r="B517" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-zorya-luhansk</v>
-      </c>
-      <c r="B518" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>aberdeen-fc</v>
-      </c>
-      <c r="B519" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>celtic-fc</v>
-      </c>
-      <c r="B520" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>dundee-fc</v>
-      </c>
-      <c r="B521" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>dundee-united-fc</v>
-      </c>
-      <c r="B522" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A523" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>heart-of-midlothian-fc</v>
-      </c>
-      <c r="B523" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A524" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>hibernian-fc</v>
-      </c>
-      <c r="B524" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A525" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>kilmarnock-fc</v>
-      </c>
-      <c r="B525" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A526" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>motherwell-fc</v>
-      </c>
-      <c r="B526" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A527" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>rangers-fc</v>
-      </c>
-      <c r="B527" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A528" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>ross-county-fc</v>
-      </c>
-      <c r="B528" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A529" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>st-johnstone-fc</v>
-      </c>
-      <c r="B529" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A530" s="5" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>st-mirren-fc</v>
-      </c>
-      <c r="B530" t="s">
-        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/enlaces_equipos.xlsx
+++ b/enlaces_equipos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://v7hfx-my.sharepoint.com/personal/joseca20_v7hfx_onmicrosoft_com/Documents/web scraping/statsFutbol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FDE8115-4D3E-4162-95A8-E868BBBD26A1}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{741179FB-E93B-4373-B656-2248AB1A1A6F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474EBA83-D6A0-4565-BEB0-BC6B2AA992C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="516">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1581,6 +1581,9 @@
   </si>
   <si>
     <t>uk-ireland/scotland/st-mirren-fc</t>
+  </si>
+  <si>
+    <t>PAIS</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1660,11 +1663,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1690,21 +1698,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:B514" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:B514" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:C514" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:C514" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B210">
     <sortCondition ref="A1:A210"/>
   </sortState>
-  <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{94084D0E-9EB8-4AA2-8B8F-47973A2CEB88}" name="EQUIPO" dataDxfId="0">
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{94084D0E-9EB8-4AA2-8B8F-47973A2CEB88}" name="EQUIPO" dataDxfId="1">
       <calculatedColumnFormula>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{B01E1C82-362B-4BF7-BCB9-D64E8D4F9629}" name="ENLACE"/>
+    <tableColumn id="3" xr3:uid="{E3AB90A5-DEAD-4B94-A136-1E8126059E3B}" name="PAIS" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2007,28 +2014,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3E121-4DD2-4C5A-A60B-ED62DD98B116}">
-  <dimension ref="A1:B514"/>
+  <dimension ref="A1:C514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="C509" sqref="C509"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>arsenal-fc</v>
@@ -2036,8 +2047,12 @@
       <c r="B2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aston-villa-fc</v>
@@ -2045,8 +2060,12 @@
       <c r="B3" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>afc-bournemouth</v>
@@ -2054,8 +2073,12 @@
       <c r="B4" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>brentford-fc</v>
@@ -2063,8 +2086,12 @@
       <c r="B5" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>brighton-hove-albion-fc</v>
@@ -2072,8 +2099,12 @@
       <c r="B6" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>chelsea-fc</v>
@@ -2081,8 +2112,12 @@
       <c r="B7" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>crystal-palace-fc</v>
@@ -2090,8 +2125,12 @@
       <c r="B8" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>everton-fc</v>
@@ -2099,8 +2138,12 @@
       <c r="B9" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fulham-fc</v>
@@ -2108,8 +2151,12 @@
       <c r="B10" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ipswich-town-fc</v>
@@ -2117,8 +2164,12 @@
       <c r="B11" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>leicester-city-fc</v>
@@ -2126,8 +2177,12 @@
       <c r="B12" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>liverpool-fc</v>
@@ -2135,8 +2190,12 @@
       <c r="B13" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>manchester-city-fc</v>
@@ -2144,8 +2203,12 @@
       <c r="B14" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>manchester-united-fc</v>
@@ -2153,8 +2216,12 @@
       <c r="B15" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>newcastle-united-fc</v>
@@ -2162,8 +2229,12 @@
       <c r="B16" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>nottingham-forest-fc</v>
@@ -2171,8 +2242,12 @@
       <c r="B17" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>southampton-fc</v>
@@ -2180,8 +2255,12 @@
       <c r="B18" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tottenham-hotspur-fc</v>
@@ -2189,8 +2268,12 @@
       <c r="B19" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>west-ham-united-fc</v>
@@ -2198,8 +2281,12 @@
       <c r="B20" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wolverhampton-wanderers-fc</v>
@@ -2207,8 +2294,12 @@
       <c r="B21" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-alaves</v>
@@ -2216,8 +2307,12 @@
       <c r="B22" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>athletic-bilbao</v>
@@ -2225,8 +2320,12 @@
       <c r="B23" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-madrid</v>
@@ -2234,8 +2333,12 @@
       <c r="B24" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-barcelona</v>
@@ -2243,8 +2346,12 @@
       <c r="B25" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-betis-balompie</v>
@@ -2252,8 +2359,12 @@
       <c r="B26" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>celta-vigo</v>
@@ -2261,8 +2372,12 @@
       <c r="B27" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rcd-espanyol</v>
@@ -2270,8 +2385,12 @@
       <c r="B28" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>getafe-cf</v>
@@ -2279,8 +2398,12 @@
       <c r="B29" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>girona-fc</v>
@@ -2288,8 +2411,12 @@
       <c r="B30" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ud-las-palmas</v>
@@ -2297,8 +2424,12 @@
       <c r="B31" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-leganes</v>
@@ -2306,8 +2437,12 @@
       <c r="B32" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rcd-mallorca</v>
@@ -2315,8 +2450,12 @@
       <c r="B33" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ca-osasuna</v>
@@ -2324,8 +2463,12 @@
       <c r="B34" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rayo-vallecano</v>
@@ -2333,8 +2476,12 @@
       <c r="B35" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-madrid-cf</v>
@@ -2342,8 +2489,12 @@
       <c r="B36" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-sociedad</v>
@@ -2351,8 +2502,12 @@
       <c r="B37" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sevilla-fc</v>
@@ -2360,8 +2515,12 @@
       <c r="B38" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>valencia-cf</v>
@@ -2369,8 +2528,12 @@
       <c r="B39" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-valladolid</v>
@@ -2378,8 +2541,12 @@
       <c r="B40" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>villarreal-cf</v>
@@ -2387,8 +2554,12 @@
       <c r="B41" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-augsburg</v>
@@ -2396,8 +2567,12 @@
       <c r="B42" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bayern-munich</v>
@@ -2405,8 +2580,12 @@
       <c r="B43" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vfl-bochum</v>
@@ -2414,8 +2593,12 @@
       <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>werder-bremen</v>
@@ -2423,8 +2606,12 @@
       <c r="B45" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>borussia-dortmund</v>
@@ -2432,8 +2619,12 @@
       <c r="B46" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>eintracht-frankfurt</v>
@@ -2441,8 +2632,12 @@
       <c r="B47" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-freiburg</v>
@@ -2450,8 +2645,12 @@
       <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-heidenheim</v>
@@ -2459,8 +2658,12 @@
       <c r="B49" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hoffenheim</v>
@@ -2468,8 +2671,12 @@
       <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>holstein-kiel</v>
@@ -2477,8 +2684,12 @@
       <c r="B51" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bayer-leverkusen</v>
@@ -2486,8 +2697,12 @@
       <c r="B52" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mainz-05</v>
@@ -2495,8 +2710,12 @@
       <c r="B53" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>borussia-monchengladbach</v>
@@ -2504,8 +2723,12 @@
       <c r="B54" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rb-leipzig</v>
@@ -2513,8 +2736,12 @@
       <c r="B55" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-st-pauli</v>
@@ -2522,8 +2749,12 @@
       <c r="B56" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vfb-stuttgart</v>
@@ -2531,8 +2762,12 @@
       <c r="B57" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-berlin</v>
@@ -2540,8 +2775,12 @@
       <c r="B58" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vfl-wolfsburg</v>
@@ -2549,8 +2788,12 @@
       <c r="B59" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>angers-sco</v>
@@ -2558,8 +2801,12 @@
       <c r="B60" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aj-auxerre</v>
@@ -2567,8 +2814,12 @@
       <c r="B61" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stade-brestois-29</v>
@@ -2576,8 +2827,12 @@
       <c r="B62" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>le-havre-ac</v>
@@ -2585,8 +2840,12 @@
       <c r="B63" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rc-lens</v>
@@ -2594,8 +2853,12 @@
       <c r="B64" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lille-osc</v>
@@ -2603,8 +2866,12 @@
       <c r="B65" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>olympique-lyonnais</v>
@@ -2612,8 +2879,12 @@
       <c r="B66" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>olympique-de-marseille</v>
@@ -2621,8 +2892,12 @@
       <c r="B67" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>as-monaco-fc</v>
@@ -2630,8 +2905,12 @@
       <c r="B68" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>montpellier-hsc</v>
@@ -2639,8 +2918,12 @@
       <c r="B69" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-nantes</v>
@@ -2648,8 +2931,12 @@
       <c r="B70" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ogc-nice</v>
@@ -2657,8 +2944,12 @@
       <c r="B71" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>paris-saint-germain-fc</v>
@@ -2666,8 +2957,12 @@
       <c r="B72" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stade-de-reims</v>
@@ -2675,8 +2970,12 @@
       <c r="B73" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stade-rennais-fc</v>
@@ -2684,8 +2983,12 @@
       <c r="B74" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>as-saint-etienne</v>
@@ -2693,8 +2996,12 @@
       <c r="B75" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rc-strasbourg-alsace</v>
@@ -2702,8 +3009,12 @@
       <c r="B76" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>toulouse-fc</v>
@@ -2711,8 +3022,12 @@
       <c r="B77" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>france</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ac-milan</v>
@@ -2720,8 +3035,12 @@
       <c r="B78" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>as-roma</v>
@@ -2729,8 +3048,12 @@
       <c r="B79" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atalanta-bc</v>
@@ -2738,8 +3061,12 @@
       <c r="B80" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bologna-fc-1909</v>
@@ -2747,8 +3074,12 @@
       <c r="B81" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cagliari-calcio</v>
@@ -2756,8 +3087,12 @@
       <c r="B82" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>como-1907</v>
@@ -2765,8 +3100,12 @@
       <c r="B83" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>empoli-fc</v>
@@ -2774,8 +3113,12 @@
       <c r="B84" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>acf-fiorentina</v>
@@ -2783,8 +3126,12 @@
       <c r="B85" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>genoa-cfc</v>
@@ -2792,8 +3139,12 @@
       <c r="B86" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>inter-milan</v>
@@ -2801,8 +3152,12 @@
       <c r="B87" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>juventus-fc</v>
@@ -2810,8 +3165,12 @@
       <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ss-lazio</v>
@@ -2819,8 +3178,12 @@
       <c r="B89" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>us-lecce</v>
@@ -2828,8 +3191,12 @@
       <c r="B90" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ac-monza</v>
@@ -2837,8 +3204,12 @@
       <c r="B91" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ssc-napoli</v>
@@ -2846,8 +3217,12 @@
       <c r="B92" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>parma-calcio-1913</v>
@@ -2855,8 +3230,12 @@
       <c r="B93" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>torino-fc</v>
@@ -2864,8 +3243,12 @@
       <c r="B94" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>udinese-calcio</v>
@@ -2873,8 +3256,12 @@
       <c r="B95" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>venezia-fc</v>
@@ -2882,8 +3269,12 @@
       <c r="B96" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hellas-verona-fc</v>
@@ -2891,8 +3282,12 @@
       <c r="B97" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>italy</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>blackburn-rovers-fc</v>
@@ -2900,8 +3295,12 @@
       <c r="B98" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bristol-city-fc</v>
@@ -2909,8 +3308,12 @@
       <c r="B99" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>burnley-fc</v>
@@ -2918,8 +3321,12 @@
       <c r="B100" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cardiff-city-fc</v>
@@ -2927,8 +3334,12 @@
       <c r="B101" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>coventry-city-fc</v>
@@ -2936,8 +3347,12 @@
       <c r="B102" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>derby-county-fc</v>
@@ -2945,8 +3360,12 @@
       <c r="B103" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hull-city-fc</v>
@@ -2954,8 +3373,12 @@
       <c r="B104" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>leeds-united-fc</v>
@@ -2963,8 +3386,12 @@
       <c r="B105" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>luton-town-fc</v>
@@ -2972,8 +3399,12 @@
       <c r="B106" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>middlesbrough-fc</v>
@@ -2981,8 +3412,12 @@
       <c r="B107" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>millwall-fc</v>
@@ -2990,8 +3425,12 @@
       <c r="B108" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>norwich-city-fc</v>
@@ -2999,8 +3438,12 @@
       <c r="B109" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>oxford-united-fc</v>
@@ -3008,8 +3451,12 @@
       <c r="B110" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>plymouth-argyle-fc</v>
@@ -3017,8 +3464,12 @@
       <c r="B111" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>portsmouth-fc</v>
@@ -3026,8 +3477,12 @@
       <c r="B112" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>preston-north-end-fc</v>
@@ -3035,8 +3490,12 @@
       <c r="B113" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>queens-park-rangers-fc</v>
@@ -3044,8 +3503,12 @@
       <c r="B114" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sheffield-united-fc</v>
@@ -3053,8 +3516,12 @@
       <c r="B115" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sheffield-wednesday-fc</v>
@@ -3062,8 +3529,12 @@
       <c r="B116" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stoke-city-fc</v>
@@ -3071,8 +3542,12 @@
       <c r="B117" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sunderland-afc</v>
@@ -3080,8 +3555,12 @@
       <c r="B118" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>swansea-city-afc</v>
@@ -3089,8 +3568,12 @@
       <c r="B119" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>watford-fc</v>
@@ -3098,8 +3581,12 @@
       <c r="B120" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>west-bromwich-albion-fc</v>
@@ -3107,8 +3594,12 @@
       <c r="B121" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>england</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-aldosivi</v>
@@ -3116,8 +3607,12 @@
       <c r="B122" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>argentinos-juniors</v>
@@ -3125,8 +3620,12 @@
       <c r="B123" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-tucuman</v>
@@ -3134,8 +3633,12 @@
       <c r="B124" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-banfield</v>
@@ -3143,8 +3646,12 @@
       <c r="B125" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-barracas-central</v>
@@ -3152,8 +3659,12 @@
       <c r="B126" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-belgrano</v>
@@ -3161,8 +3672,12 @@
       <c r="B127" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-boca-juniors</v>
@@ -3170,8 +3685,12 @@
       <c r="B128" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-central-cordoba</v>
@@ -3179,8 +3698,12 @@
       <c r="B129" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>defensa-y-justicia</v>
@@ -3188,8 +3711,12 @@
       <c r="B130" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-riestra</v>
@@ -3197,8 +3724,12 @@
       <c r="B131" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-estudiantes-de-la-plata</v>
@@ -3206,8 +3737,12 @@
       <c r="B132" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-de-gimnasia-la-plata</v>
@@ -3215,8 +3750,12 @@
       <c r="B133" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>godoy-cruz</v>
@@ -3224,8 +3763,12 @@
       <c r="B134" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-huracan</v>
@@ -3233,8 +3776,12 @@
       <c r="B135" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-sportivo-independiente-rivadavia</v>
@@ -3242,8 +3789,12 @@
       <c r="B136" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-independiente</v>
@@ -3251,8 +3802,12 @@
       <c r="B137" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>instituto-atletico-central-cordoba</v>
@@ -3260,8 +3815,12 @@
       <c r="B138" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-lanus</v>
@@ -3269,8 +3828,12 @@
       <c r="B139" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-newells-old-boys</v>
@@ -3278,8 +3841,12 @@
       <c r="B140" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-platense</v>
@@ -3287,8 +3854,12 @@
       <c r="B141" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>racing-club-de-avellaneda</v>
@@ -3296,8 +3867,12 @@
       <c r="B142" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-river-plate</v>
@@ -3305,8 +3880,12 @@
       <c r="B143" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-rosario-central</v>
@@ -3314,8 +3893,12 @@
       <c r="B144" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-lorenzo-de-almagro</v>
@@ -3323,8 +3906,12 @@
       <c r="B145" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-martin-de-san-juan</v>
@@ -3332,8 +3919,12 @@
       <c r="B146" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-sarmiento-junin</v>
@@ -3341,8 +3932,12 @@
       <c r="B147" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-talleres</v>
@@ -3350,8 +3945,12 @@
       <c r="B148" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-tigre</v>
@@ -3359,8 +3958,12 @@
       <c r="B149" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-union-de-santa-fe</v>
@@ -3368,8 +3971,12 @@
       <c r="B150" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" s="6" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-velez-sarsfield</v>
@@ -3377,8 +3984,12 @@
       <c r="B151" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rionegro-aguilas</v>
@@ -3386,8 +3997,12 @@
       <c r="B152" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-fc</v>
@@ -3395,8 +4010,12 @@
       <c r="B153" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>america-de-cali</v>
@@ -3404,8 +4023,12 @@
       <c r="B154" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-nacional</v>
@@ -3413,8 +4036,12 @@
       <c r="B155" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-bucaramanga</v>
@@ -3422,8 +4049,12 @@
       <c r="B156" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>boyaca-chico-fc</v>
@@ -3431,8 +4062,12 @@
       <c r="B157" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-cali</v>
@@ -3440,8 +4075,12 @@
       <c r="B158" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>envigado-fc</v>
@@ -3449,8 +4088,12 @@
       <c r="B159" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortaleza-ceif</v>
@@ -3458,8 +4101,12 @@
       <c r="B160" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-independiente-medellin</v>
@@ -3467,8 +4114,12 @@
       <c r="B161" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-junior</v>
@@ -3476,8 +4127,12 @@
       <c r="B162" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-la-equidad</v>
@@ -3485,8 +4140,12 @@
       <c r="B163" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>llaneros-fc</v>
@@ -3494,8 +4153,12 @@
       <c r="B164" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>millonarios-fc</v>
@@ -3503,8 +4166,12 @@
       <c r="B165" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>once-caldas</v>
@@ -3512,8 +4179,12 @@
       <c r="B166" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-pasto</v>
@@ -3521,8 +4192,12 @@
       <c r="B167" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-pereira</v>
@@ -3530,8 +4205,12 @@
       <c r="B168" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>independiente-santa-fe</v>
@@ -3539,8 +4218,12 @@
       <c r="B169" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-tolima</v>
@@ -3548,8 +4231,12 @@
       <c r="B170" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-magdalena</v>
@@ -3557,8 +4244,12 @@
       <c r="B171" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>clube-atletico-mineiro</v>
@@ -3566,8 +4257,12 @@
       <c r="B172" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-bahia</v>
@@ -3575,8 +4270,12 @@
       <c r="B173" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>botafogo-de-futebol-e-regatas</v>
@@ -3584,8 +4283,12 @@
       <c r="B174" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>red-bull-bragantino</v>
@@ -3593,8 +4296,12 @@
       <c r="B175" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ceara-sporting-club</v>
@@ -3602,8 +4309,12 @@
       <c r="B176" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-corinthians-paulista</v>
@@ -3611,8 +4322,12 @@
       <c r="B177" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cruzeiro-esporte-clube</v>
@@ -3620,8 +4335,12 @@
       <c r="B178" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>clube-de-regatas-do-flamengo</v>
@@ -3629,8 +4348,12 @@
       <c r="B179" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fluminense-fc</v>
@@ -3638,8 +4361,12 @@
       <c r="B180" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortaleza-esporte-clube</v>
@@ -3647,8 +4374,12 @@
       <c r="B181" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gremio-football-porto-alagrense</v>
@@ -3656,8 +4387,12 @@
       <c r="B182" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-internacional</v>
@@ -3665,8 +4400,12 @@
       <c r="B183" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-juventude</v>
@@ -3674,8 +4413,12 @@
       <c r="B184" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mirassol-fc</v>
@@ -3683,8 +4426,12 @@
       <c r="B185" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sociedade-esportiva-palmeiras</v>
@@ -3692,8 +4439,12 @@
       <c r="B186" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>santos-fc</v>
@@ -3701,8 +4452,12 @@
       <c r="B187" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sao-paulo-fc</v>
@@ -3710,8 +4465,12 @@
       <c r="B188" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-do-recife</v>
@@ -3719,8 +4478,12 @@
       <c r="B189" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cr-vasco-da-gama</v>
@@ -3728,8 +4491,12 @@
       <c r="B190" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-vitoria</v>
@@ -3737,8 +4504,12 @@
       <c r="B191" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>brazil</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>adelaide-united-fc</v>
@@ -3746,8 +4517,12 @@
       <c r="B192" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>auckland-fc</v>
@@ -3755,8 +4530,12 @@
       <c r="B193" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>brisbane-roar-fc</v>
@@ -3764,8 +4543,12 @@
       <c r="B194" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>central-coast-mariners-fc</v>
@@ -3773,8 +4556,12 @@
       <c r="B195" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>macarthur-fc</v>
@@ -3782,8 +4569,12 @@
       <c r="B196" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>melbourne-city-fc</v>
@@ -3791,8 +4582,12 @@
       <c r="B197" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>melbourne-victory-fc</v>
@@ -3800,8 +4595,12 @@
       <c r="B198" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>newcastle-jets-fc</v>
@@ -3809,8 +4608,12 @@
       <c r="B199" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>perth-glory-fc</v>
@@ -3818,8 +4621,12 @@
       <c r="B200" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sydney-fc</v>
@@ -3827,8 +4634,12 @@
       <c r="B201" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wellington-phoenix-fc</v>
@@ -3836,8 +4647,12 @@
       <c r="B202" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>western-united-fc</v>
@@ -3845,8 +4660,12 @@
       <c r="B203" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>western-sydney-wanderers-fc</v>
@@ -3854,8 +4673,12 @@
       <c r="B204" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>eintracht-braunschweig</v>
@@ -3863,8 +4686,12 @@
       <c r="B205" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>darmstadt-98</v>
@@ -3872,8 +4699,12 @@
       <c r="B206" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortuna-dusseldorf</v>
@@ -3881,8 +4712,12 @@
       <c r="B207" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sv-elversberg</v>
@@ -3890,8 +4725,12 @@
       <c r="B208" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-koln</v>
@@ -3899,8 +4738,12 @@
       <c r="B209" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>greuther-furth</v>
@@ -3908,8 +4751,12 @@
       <c r="B210" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hamburger-sv</v>
@@ -3917,8 +4764,12 @@
       <c r="B211" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hannover-96</v>
@@ -3926,8 +4777,12 @@
       <c r="B212" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hertha-berlin</v>
@@ -3935,8 +4790,12 @@
       <c r="B213" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-kaiserslautern</v>
@@ -3944,8 +4803,12 @@
       <c r="B214" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>karlsruher-sc</v>
@@ -3953,8 +4816,12 @@
       <c r="B215" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-magdeburg</v>
@@ -3962,8 +4829,12 @@
       <c r="B216" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>preussen-munster</v>
@@ -3971,8 +4842,12 @@
       <c r="B217" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-nurnberg</v>
@@ -3980,8 +4855,12 @@
       <c r="B218" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-paderborn</v>
@@ -3989,8 +4868,12 @@
       <c r="B219" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>jahn-regensburg</v>
@@ -3998,8 +4881,12 @@
       <c r="B220" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>schalke-04</v>
@@ -4007,8 +4894,12 @@
       <c r="B221" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ssv-ulm-1846</v>
@@ -4016,8 +4907,12 @@
       <c r="B222" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-san-luis</v>
@@ -4025,8 +4920,12 @@
       <c r="B223" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atlas-fc</v>
@@ -4034,8 +4933,12 @@
       <c r="B224" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-america</v>
@@ -4043,8 +4946,12 @@
       <c r="B225" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cruz-azul</v>
@@ -4052,8 +4959,12 @@
       <c r="B226" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-guadalajara</v>
@@ -4061,8 +4972,12 @@
       <c r="B227" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-juarez</v>
@@ -4070,8 +4985,12 @@
       <c r="B228" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-leon</v>
@@ -4079,8 +4998,12 @@
       <c r="B229" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mazatlan-fc</v>
@@ -4088,8 +5011,12 @@
       <c r="B230" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cf-monterrey</v>
@@ -4097,8 +5024,12 @@
       <c r="B231" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-necaxa</v>
@@ -4106,8 +5037,12 @@
       <c r="B232" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cf-pachuca</v>
@@ -4115,8 +5050,12 @@
       <c r="B233" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-puebla</v>
@@ -4124,8 +5063,12 @@
       <c r="B234" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>queretaro-fc</v>
@@ -4133,8 +5076,12 @@
       <c r="B235" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>santos-laguna</v>
@@ -4142,8 +5089,12 @@
       <c r="B236" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tigres-uanl</v>
@@ -4151,8 +5102,12 @@
       <c r="B237" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-tijuana</v>
@@ -4160,8 +5115,12 @@
       <c r="B238" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-toluca-fc</v>
@@ -4169,8 +5128,12 @@
       <c r="B239" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C239" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>unam</v>
@@ -4178,8 +5141,12 @@
       <c r="B240" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C240" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>afc-ajax</v>
@@ -4187,8 +5154,12 @@
       <c r="B241" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C241" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>az-alkmaar</v>
@@ -4196,8 +5167,12 @@
       <c r="B242" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C242" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>almere-city-fc</v>
@@ -4205,8 +5180,12 @@
       <c r="B243" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C243" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>feyenoord-rotterdam</v>
@@ -4214,8 +5193,12 @@
       <c r="B244" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C244" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>go-ahead-eagles</v>
@@ -4223,8 +5206,12 @@
       <c r="B245" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C245" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-groningen</v>
@@ -4232,8 +5219,12 @@
       <c r="B246" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C246" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-heerenveen</v>
@@ -4241,8 +5232,12 @@
       <c r="B247" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C247" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>heracles-almelo</v>
@@ -4250,8 +5245,12 @@
       <c r="B248" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C248" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>nac-breda</v>
@@ -4259,8 +5258,12 @@
       <c r="B249" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C249" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>nec-nijmegen</v>
@@ -4268,8 +5271,12 @@
       <c r="B250" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C250" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>psv-eindhoven</v>
@@ -4277,8 +5284,12 @@
       <c r="B251" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C251" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortuna-sittard</v>
@@ -4286,8 +5297,12 @@
       <c r="B252" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C252" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sparta-rotterdam</v>
@@ -4295,8 +5310,12 @@
       <c r="B253" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C253" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-twente</v>
@@ -4304,8 +5323,12 @@
       <c r="B254" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C254" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-utrecht</v>
@@ -4313,8 +5336,12 @@
       <c r="B255" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C255" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rkc-waalwijk</v>
@@ -4322,8 +5349,12 @@
       <c r="B256" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C256" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>willem-ii</v>
@@ -4331,8 +5362,12 @@
       <c r="B257" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C257" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>pec-zwolle</v>
@@ -4340,8 +5375,12 @@
       <c r="B258" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C258" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>netherlands</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rsc-anderlecht</v>
@@ -4349,8 +5388,12 @@
       <c r="B259" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C259" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>royal-antwerp-fc</v>
@@ -4358,8 +5401,12 @@
       <c r="B260" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C260" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>k-beerschot-va</v>
@@ -4367,8 +5414,12 @@
       <c r="B261" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C261" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cercle-brugge-ksv</v>
@@ -4376,8 +5427,12 @@
       <c r="B262" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C262" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>royal-charleroi-sc</v>
@@ -4385,8 +5440,12 @@
       <c r="B263" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C263" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-brugge-kv</v>
@@ -4394,8 +5453,12 @@
       <c r="B264" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C264" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fcv-dender-eh</v>
@@ -4403,8 +5466,12 @@
       <c r="B265" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C265" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>krc-genk</v>
@@ -4412,8 +5479,12 @@
       <c r="B266" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C266" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kaa-gent</v>
@@ -4421,8 +5492,12 @@
       <c r="B267" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C267" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kv-kortrijk</v>
@@ -4430,8 +5505,12 @@
       <c r="B268" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C268" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kv-mechelen</v>
@@ -4439,8 +5518,12 @@
       <c r="B269" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C269" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>oh-leuven</v>
@@ -4448,8 +5531,12 @@
       <c r="B270" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C270" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>standard-liege</v>
@@ -4457,8 +5544,12 @@
       <c r="B271" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C271" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sint-truidense-vv</v>
@@ -4466,8 +5557,12 @@
       <c r="B272" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C272" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ru-saint-gilloise</v>
@@ -4475,8 +5570,12 @@
       <c r="B273" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C273" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kvc-westerlo</v>
@@ -4484,8 +5583,12 @@
       <c r="B274" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C274" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>belgium</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-bodo-glimt</v>
@@ -4493,8 +5596,12 @@
       <c r="B275" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C275" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sk-brann</v>
@@ -4502,8 +5609,12 @@
       <c r="B276" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C276" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bryne-fk</v>
@@ -4511,8 +5622,12 @@
       <c r="B277" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C277" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fredrikstad-fk</v>
@@ -4520,8 +5635,12 @@
       <c r="B278" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C278" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ham-kam</v>
@@ -4529,8 +5648,12 @@
       <c r="B279" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C279" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-haugesund</v>
@@ -4538,8 +5661,12 @@
       <c r="B280" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C280" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kfum-kameratene-oslo</v>
@@ -4547,8 +5674,12 @@
       <c r="B281" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C281" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kristiansund-bk</v>
@@ -4556,8 +5687,12 @@
       <c r="B282" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C282" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>molde-fk</v>
@@ -4565,8 +5700,12 @@
       <c r="B283" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C283" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rosenborg-bk</v>
@@ -4574,8 +5713,12 @@
       <c r="B284" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C284" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sandefjord-fotball</v>
@@ -4583,8 +5726,12 @@
       <c r="B285" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C285" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sarpsborg-08-ff</v>
@@ -4592,8 +5739,12 @@
       <c r="B286" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C286" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stromsgodset</v>
@@ -4601,8 +5752,12 @@
       <c r="B287" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C287" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tromso-il</v>
@@ -4610,8 +5765,12 @@
       <c r="B288" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C288" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>valerenga-fotball</v>
@@ -4619,8 +5778,12 @@
       <c r="B289" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C289" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>viking-fk</v>
@@ -4628,8 +5791,12 @@
       <c r="B290" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C290" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>norway</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-lima</v>
@@ -4637,8 +5804,12 @@
       <c r="B291" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C291" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>asociacion-deportiva-tarma</v>
@@ -4646,8 +5817,12 @@
       <c r="B292" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C292" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-atletico</v>
@@ -4655,8 +5830,12 @@
       <c r="B293" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C293" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-universidad-de-huanuco</v>
@@ -4664,8 +5843,12 @@
       <c r="B294" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C294" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ayacucho-fc</v>
@@ -4673,8 +5856,12 @@
       <c r="B295" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C295" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-binacional</v>
@@ -4682,8 +5869,12 @@
       <c r="B296" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C296" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>universidad-tecnica-de-cajamarca</v>
@@ -4691,8 +5882,12 @@
       <c r="B297" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C297" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-sportivo-cienciano</v>
@@ -4700,8 +5895,12 @@
       <c r="B298" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C298" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>comerciantes-unidos</v>
@@ -4709,8 +5908,12 @@
       <c r="B299" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C299" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cusco-fc</v>
@@ -4718,8 +5921,12 @@
       <c r="B300" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C300" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-garcilaso</v>
@@ -4727,8 +5934,12 @@
       <c r="B301" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C301" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-grau</v>
@@ -4736,8 +5947,12 @@
       <c r="B302" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C302" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-huancayo</v>
@@ -4745,8 +5960,12 @@
       <c r="B303" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C303" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>adc-juan-pablo-ii-college</v>
@@ -4754,8 +5973,12 @@
       <c r="B304" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C304" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>los-chankas-cyc</v>
@@ -4763,8 +5986,12 @@
       <c r="B305" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C305" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fbc-melgar</v>
@@ -4772,8 +5999,12 @@
       <c r="B306" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C306" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-boys</v>
@@ -4781,8 +6012,12 @@
       <c r="B307" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C307" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sporting-cristal</v>
@@ -4790,8 +6025,12 @@
       <c r="B308" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C308" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-universitario-de-deportes</v>
@@ -4799,8 +6038,12 @@
       <c r="B309" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C309" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>peru</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-arouca</v>
@@ -4808,8 +6051,12 @@
       <c r="B310" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C310" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>avs-futebol-sad</v>
@@ -4817,8 +6064,12 @@
       <c r="B311" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C311" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>benfica</v>
@@ -4826,8 +6077,12 @@
       <c r="B312" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C312" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>boavista-fc</v>
@@ -4835,8 +6090,12 @@
       <c r="B313" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C313" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>braga</v>
@@ -4844,8 +6103,12 @@
       <c r="B314" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C314" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>casa-pia-ac</v>
@@ -4853,8 +6116,12 @@
       <c r="B315" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C315" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gd-estoril-praia</v>
@@ -4862,8 +6129,12 @@
       <c r="B316" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C316" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cf-estrela-da-amadora</v>
@@ -4871,8 +6142,12 @@
       <c r="B317" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C317" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>famalicao</v>
@@ -4880,8 +6155,12 @@
       <c r="B318" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C318" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-farense</v>
@@ -4889,8 +6168,12 @@
       <c r="B319" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C319" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-porto</v>
@@ -4898,8 +6181,12 @@
       <c r="B320" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C320" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gil-vicente</v>
@@ -4907,8 +6194,12 @@
       <c r="B321" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C321" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vitoria-de-guimaraes</v>
@@ -4916,8 +6207,12 @@
       <c r="B322" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C322" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>moreirense-fc</v>
@@ -4925,8 +6220,12 @@
       <c r="B323" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C323" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-nacional</v>
@@ -4934,8 +6233,12 @@
       <c r="B324" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C324" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rio-ave-fc</v>
@@ -4943,8 +6246,12 @@
       <c r="B325" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C325" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>santa-clara</v>
@@ -4952,8 +6259,12 @@
       <c r="B326" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C326" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sporting-cp</v>
@@ -4961,8 +6272,12 @@
       <c r="B327" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C327" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>portugal</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-okhdood-club</v>
@@ -4970,8 +6285,12 @@
       <c r="B328" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C328" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-fateh-sc</v>
@@ -4979,8 +6298,12 @@
       <c r="B329" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C329" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-fayha-fc</v>
@@ -4988,8 +6311,12 @@
       <c r="B330" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C330" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>khaleej-fc</v>
@@ -4997,8 +6324,12 @@
       <c r="B331" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C331" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-kholood-club</v>
@@ -5006,8 +6337,12 @@
       <c r="B332" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C332" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-orobah-fc</v>
@@ -5015,8 +6350,12 @@
       <c r="B333" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C333" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-qadsiah-fc</v>
@@ -5024,8 +6363,12 @@
       <c r="B334" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C334" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-riyadh-sc</v>
@@ -5033,8 +6376,12 @@
       <c r="B335" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C335" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-ahli-saudi-fc</v>
@@ -5042,8 +6389,12 @@
       <c r="B336" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C336" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-ettifaq-fc</v>
@@ -5051,8 +6402,12 @@
       <c r="B337" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C337" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-hilal-fc</v>
@@ -5060,8 +6415,12 @@
       <c r="B338" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C338" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-ittihad-fc</v>
@@ -5069,8 +6428,12 @@
       <c r="B339" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C339" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-nassr-fc</v>
@@ -5078,8 +6441,12 @@
       <c r="B340" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C340" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-raed-fc</v>
@@ -5087,8 +6454,12 @@
       <c r="B341" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C341" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-shabab-fc</v>
@@ -5096,8 +6467,12 @@
       <c r="B342" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C342" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-taawoun-fc</v>
@@ -5105,8 +6480,12 @@
       <c r="B343" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C343" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-wehda</v>
@@ -5114,8 +6493,12 @@
       <c r="B344" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C344" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>damac-fc</v>
@@ -5123,8 +6506,12 @@
       <c r="B345" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C345" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>saudi-arabia</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>albacete-balompie</v>
@@ -5132,8 +6519,12 @@
       <c r="B346" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C346" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ud-almeria</v>
@@ -5141,8 +6532,12 @@
       <c r="B347" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C347" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>burgos-cf</v>
@@ -5150,8 +6545,12 @@
       <c r="B348" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C348" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cadiz-cf</v>
@@ -5159,8 +6558,12 @@
       <c r="B349" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C349" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-cartagena</v>
@@ -5168,8 +6571,12 @@
       <c r="B350" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C350" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-castellon</v>
@@ -5177,8 +6584,12 @@
       <c r="B351" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C351" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cordoba-cf</v>
@@ -5186,8 +6597,12 @@
       <c r="B352" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C352" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sd-eibar</v>
@@ -5195,8 +6610,12 @@
       <c r="B353" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C353" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>elche-cf</v>
@@ -5204,8 +6623,12 @@
       <c r="B354" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C354" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-eldense</v>
@@ -5213,8 +6636,12 @@
       <c r="B355" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C355" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>racing-de-ferrol</v>
@@ -5222,8 +6649,12 @@
       <c r="B356" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C356" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sporting-de-gijon</v>
@@ -5231,8 +6662,12 @@
       <c r="B357" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C357" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>granada-cf</v>
@@ -5240,8 +6675,12 @@
       <c r="B358" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C358" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sd-huesca</v>
@@ -5249,8 +6688,12 @@
       <c r="B359" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C359" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-de-la-coruna</v>
@@ -5258,8 +6701,12 @@
       <c r="B360" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C360" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>levante-ud</v>
@@ -5267,8 +6714,12 @@
       <c r="B361" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C361" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>malaga-cf</v>
@@ -5276,8 +6727,12 @@
       <c r="B362" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C362" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-mirandes</v>
@@ -5285,8 +6740,12 @@
       <c r="B363" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C363" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-oviedo</v>
@@ -5294,8 +6753,12 @@
       <c r="B364" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C364" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>racing-de-santander</v>
@@ -5303,8 +6766,12 @@
       <c r="B365" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C365" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-tenerife</v>
@@ -5312,8 +6779,12 @@
       <c r="B366" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C366" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-zaragoza</v>
@@ -5321,8 +6792,12 @@
       <c r="B367" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C367" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>adana-demirspor</v>
@@ -5330,8 +6805,12 @@
       <c r="B368" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C368" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alanyaspor</v>
@@ -5339,8 +6818,12 @@
       <c r="B369" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C369" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>antalyaspor</v>
@@ -5348,8 +6831,12 @@
       <c r="B370" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C370" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>istanbul-basaksehir-fk</v>
@@ -5357,8 +6844,12 @@
       <c r="B371" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C371" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>besiktas-jk</v>
@@ -5366,8 +6857,12 @@
       <c r="B372" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C372" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bodrumspor</v>
@@ -5375,8 +6870,12 @@
       <c r="B373" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C373" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>eyupspor</v>
@@ -5384,8 +6883,12 @@
       <c r="B374" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C374" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fenerbahce-sk</v>
@@ -5393,8 +6896,12 @@
       <c r="B375" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C375" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>galatasaray-sk</v>
@@ -5402,8 +6909,12 @@
       <c r="B376" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C376" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gaziantep-fk</v>
@@ -5411,8 +6922,12 @@
       <c r="B377" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C377" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>goztepe-sk</v>
@@ -5420,8 +6935,12 @@
       <c r="B378" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C378" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hatayspor</v>
@@ -5429,8 +6948,12 @@
       <c r="B379" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C379" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kasimpasa-sk</v>
@@ -5438,8 +6961,12 @@
       <c r="B380" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C380" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kayserispor</v>
@@ -5447,8 +6974,12 @@
       <c r="B381" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C381" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>konyaspor</v>
@@ -5456,8 +6987,12 @@
       <c r="B382" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C382" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>caykur-rizespor</v>
@@ -5465,8 +7000,12 @@
       <c r="B383" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C383" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>samsunspor</v>
@@ -5474,8 +7013,12 @@
       <c r="B384" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C384" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sivasspor</v>
@@ -5483,8 +7026,12 @@
       <c r="B385" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C385" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>trabzonspor</v>
@@ -5492,8 +7039,12 @@
       <c r="B386" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C386" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>audax-italiano</v>
@@ -5501,8 +7052,12 @@
       <c r="B387" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C387" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-cobresal</v>
@@ -5510,8 +7065,12 @@
       <c r="B388" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C388" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>colo-colo</v>
@@ -5519,8 +7078,12 @@
       <c r="B389" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C389" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>coquimbo-unido</v>
@@ -5528,8 +7091,12 @@
       <c r="B390" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C390" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-iquique</v>
@@ -5537,8 +7104,12 @@
       <c r="B391" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C391" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>everton-de-vina-del-mar</v>
@@ -5546,8 +7117,12 @@
       <c r="B392" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C392" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-huachipato</v>
@@ -5555,8 +7130,12 @@
       <c r="B393" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C393" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-la-serena</v>
@@ -5564,8 +7143,12 @@
       <c r="B394" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C394" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-limache</v>
@@ -5573,8 +7156,12 @@
       <c r="B395" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C395" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-nublense</v>
@@ -5582,8 +7169,12 @@
       <c r="B396" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C396" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>o-higgins-fc</v>
@@ -5591,8 +7182,12 @@
       <c r="B397" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C397" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-palestino</v>
@@ -5600,8 +7195,12 @@
       <c r="B398" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C398" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-la-calera</v>
@@ -5609,8 +7208,12 @@
       <c r="B399" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C399" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-universidad-catolica</v>
@@ -5618,8 +7221,12 @@
       <c r="B400" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C400" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-universidad-de-chile</v>
@@ -5627,8 +7234,12 @@
       <c r="B401" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C401" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-espanola</v>
@@ -5636,8 +7247,12 @@
       <c r="B402" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C402" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>boston-river</v>
@@ -5645,8 +7260,12 @@
       <c r="B403" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C403" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-cerro</v>
@@ -5654,8 +7273,12 @@
       <c r="B404" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C404" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cerro-largo-fc</v>
@@ -5663,8 +7286,12 @@
       <c r="B405" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C405" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>danubio-fc</v>
@@ -5672,8 +7299,12 @@
       <c r="B406" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C406" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>defensor-sporting</v>
@@ -5681,8 +7312,12 @@
       <c r="B407" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C407" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>juventud-de-las-piedras</v>
@@ -5690,8 +7325,12 @@
       <c r="B408" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C408" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>liverpool-fc-montevideo</v>
@@ -5699,8 +7338,12 @@
       <c r="B409" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C409" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>miramar-misiones</v>
@@ -5708,8 +7351,12 @@
       <c r="B410" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C410" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>montevideo-city-torque</v>
@@ -5717,8 +7364,12 @@
       <c r="B411" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C411" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-nacional-de-football</v>
@@ -5726,8 +7377,12 @@
       <c r="B412" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C412" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>penarol</v>
@@ -5735,8 +7390,12 @@
       <c r="B413" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C413" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-plaza-colonia-de-deportes</v>
@@ -5744,8 +7403,12 @@
       <c r="B414" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C414" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-progreso</v>
@@ -5753,8 +7416,12 @@
       <c r="B415" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C415" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>racing-club-de-montevideo</v>
@@ -5762,8 +7429,12 @@
       <c r="B416" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C416" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-river-plate</v>
@@ -5771,8 +7442,12 @@
       <c r="B417" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C417" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>montevideo-wanderers-fc</v>
@@ -5780,8 +7455,12 @@
       <c r="B418" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C418" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atlanta-united-fc</v>
@@ -5789,8 +7468,12 @@
       <c r="B419" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C419" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>austin-fc</v>
@@ -5798,8 +7481,12 @@
       <c r="B420" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C420" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-de-foot-montreal</v>
@@ -5807,8 +7494,12 @@
       <c r="B421" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C421" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>charlotte-fc</v>
@@ -5816,8 +7507,12 @@
       <c r="B422" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C422" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>chicago-fire-fc</v>
@@ -5825,8 +7520,12 @@
       <c r="B423" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C423" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-cincinnati</v>
@@ -5834,8 +7533,12 @@
       <c r="B424" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C424" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>colorado-rapids</v>
@@ -5843,8 +7546,12 @@
       <c r="B425" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C425" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>columbus-crew-sc</v>
@@ -5852,8 +7559,12 @@
       <c r="B426" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C426" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>dc-united</v>
@@ -5861,8 +7572,12 @@
       <c r="B427" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C427" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-dallas</v>
@@ -5870,8 +7585,12 @@
       <c r="B428" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C428" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>houston-dynamo</v>
@@ -5879,8 +7598,12 @@
       <c r="B429" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C429" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>inter-miami-cf</v>
@@ -5888,8 +7611,12 @@
       <c r="B430" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C430" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>los-angeles-fc</v>
@@ -5897,8 +7624,12 @@
       <c r="B431" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C431" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>los-angeles-galaxy</v>
@@ -5906,8 +7637,12 @@
       <c r="B432" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C432" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>minnesota-united-fc</v>
@@ -5915,8 +7650,12 @@
       <c r="B433" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C433" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>nashville-sc</v>
@@ -5924,8 +7663,12 @@
       <c r="B434" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C434" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>new-england-revolution</v>
@@ -5933,8 +7676,12 @@
       <c r="B435" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C435" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>new-york-city-fc</v>
@@ -5942,8 +7689,12 @@
       <c r="B436" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C436" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>new-york-red-bulls</v>
@@ -5951,8 +7702,12 @@
       <c r="B437" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C437" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>orlando-city-sc</v>
@@ -5960,8 +7715,12 @@
       <c r="B438" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C438" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>philadelphia-union</v>
@@ -5969,8 +7728,12 @@
       <c r="B439" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C439" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>portland-timbers</v>
@@ -5978,8 +7741,12 @@
       <c r="B440" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C440" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-salt-lake</v>
@@ -5987,8 +7754,12 @@
       <c r="B441" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C441" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-diego-fc</v>
@@ -5996,8 +7767,12 @@
       <c r="B442" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C442" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-jose-earthquakes</v>
@@ -6005,8 +7780,12 @@
       <c r="B443" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C443" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>seattle-sounders-fc</v>
@@ -6014,8 +7793,12 @@
       <c r="B444" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C444" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sporting-kansas-city</v>
@@ -6023,8 +7806,12 @@
       <c r="B445" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C445" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>st-louis-city-sc</v>
@@ -6032,8 +7819,12 @@
       <c r="B446" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C446" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>toronto-fc</v>
@@ -6041,8 +7832,12 @@
       <c r="B447" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C447" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vancouver-whitecaps-fc</v>
@@ -6050,8 +7845,12 @@
       <c r="B448" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C448" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bohemians-1905</v>
@@ -6059,8 +7858,12 @@
       <c r="B449" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C449" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ceske-budejovice</v>
@@ -6068,8 +7871,12 @@
       <c r="B450" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C450" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-dukla-prague</v>
@@ -6077,8 +7884,12 @@
       <c r="B451" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C451" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-hradec-kralove</v>
@@ -6086,8 +7897,12 @@
       <c r="B452" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C452" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-jablonec</v>
@@ -6095,8 +7910,12 @@
       <c r="B453" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C453" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mfk-karvina</v>
@@ -6104,8 +7923,12 @@
       <c r="B454" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C454" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-slovan-liberec</v>
@@ -6113,8 +7936,12 @@
       <c r="B455" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C455" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-mlada-boleslav</v>
@@ -6122,8 +7949,12 @@
       <c r="B456" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C456" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-banik-ostrava</v>
@@ -6131,8 +7962,12 @@
       <c r="B457" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C457" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-pardubice</v>
@@ -6140,8 +7975,12 @@
       <c r="B458" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C458" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-viktoria-plzen</v>
@@ -6149,8 +7988,12 @@
       <c r="B459" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C459" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sk-sigma-olomouc</v>
@@ -6158,8 +8001,12 @@
       <c r="B460" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C460" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>slavia-prague</v>
@@ -6167,8 +8014,12 @@
       <c r="B461" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C461" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-slovacko</v>
@@ -6176,8 +8027,12 @@
       <c r="B462" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C462" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sparta-prague</v>
@@ -6185,8 +8040,12 @@
       <c r="B463" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C463" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-teplice</v>
@@ -6194,8 +8053,12 @@
       <c r="B464" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C464" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>czech-republic</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aek-athens-fc</v>
@@ -6203,8 +8066,12 @@
       <c r="B465" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C465" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aris-thessaloniki-fc</v>
@@ -6212,8 +8079,12 @@
       <c r="B466" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C466" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>asteras-tripolis-fc</v>
@@ -6221,8 +8092,12 @@
       <c r="B467" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C467" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>athens-kallithea-fc</v>
@@ -6230,8 +8105,12 @@
       <c r="B468" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C468" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atromitos-fc</v>
@@ -6239,8 +8118,12 @@
       <c r="B469" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C469" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lamia-fc</v>
@@ -6248,8 +8131,12 @@
       <c r="B470" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C470" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>levadiakos-fc</v>
@@ -6257,8 +8144,12 @@
       <c r="B471" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C471" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ofi-crete-fc</v>
@@ -6266,8 +8157,12 @@
       <c r="B472" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C472" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>olympiacos-fc</v>
@@ -6275,8 +8170,12 @@
       <c r="B473" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C473" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>panathinaikos-fc</v>
@@ -6284,8 +8183,12 @@
       <c r="B474" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C474" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>panetolikos-fc</v>
@@ -6293,8 +8196,12 @@
       <c r="B475" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C475" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>panserraikos-fc</v>
@@ -6302,8 +8209,12 @@
       <c r="B476" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C476" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>paok-fc</v>
@@ -6311,8 +8222,12 @@
       <c r="B477" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C477" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>volos-fc</v>
@@ -6320,8 +8235,12 @@
       <c r="B478" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C478" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-basel</v>
@@ -6329,8 +8248,12 @@
       <c r="B479" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C479" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>grasshopper-club-zurich</v>
@@ -6338,8 +8261,12 @@
       <c r="B480" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C480" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-lausanne-sport</v>
@@ -6347,8 +8274,12 @@
       <c r="B481" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C481" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-lugano</v>
@@ -6356,8 +8287,12 @@
       <c r="B482" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C482" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-luzern</v>
@@ -6365,8 +8300,12 @@
       <c r="B483" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C483" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>servette-fc</v>
@@ -6374,8 +8313,12 @@
       <c r="B484" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C484" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-sion</v>
@@ -6383,8 +8326,12 @@
       <c r="B485" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C485" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-st-gallen</v>
@@ -6392,8 +8339,12 @@
       <c r="B486" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C486" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-winterthur</v>
@@ -6401,8 +8352,12 @@
       <c r="B487" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C487" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bsc-young-boys</v>
@@ -6410,8 +8365,12 @@
       <c r="B488" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C488" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>yverdon-sport-fc</v>
@@ -6419,8 +8378,12 @@
       <c r="B489" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C489" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-zurich</v>
@@ -6428,8 +8391,12 @@
       <c r="B490" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C490" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sk-austria-klagenfurt</v>
@@ -6437,8 +8404,12 @@
       <c r="B491" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C491" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rheindorf-altach</v>
@@ -6446,8 +8417,12 @@
       <c r="B492" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C492" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>austria-vienna</v>
@@ -6455,8 +8430,12 @@
       <c r="B493" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C493" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bw-linz</v>
@@ -6464,8 +8443,12 @@
       <c r="B494" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C494" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>grazer-ak</v>
@@ -6473,8 +8456,12 @@
       <c r="B495" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C495" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tsv-hartberg</v>
@@ -6482,8 +8469,12 @@
       <c r="B496" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C496" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lask</v>
@@ -6491,8 +8482,12 @@
       <c r="B497" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C497" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rapid-vienna</v>
@@ -6500,8 +8495,12 @@
       <c r="B498" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C498" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>red-bull-salzburg</v>
@@ -6509,8 +8508,12 @@
       <c r="B499" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C499" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sturm-graz</v>
@@ -6518,8 +8521,12 @@
       <c r="B500" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C500" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wsg-swarovski-tirol</v>
@@ -6527,8 +8534,12 @@
       <c r="B501" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C501" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wolfsberger-ac</v>
@@ -6536,8 +8547,12 @@
       <c r="B502" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C502" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aberdeen-fc</v>
@@ -6545,8 +8560,12 @@
       <c r="B503" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C503" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>celtic-fc</v>
@@ -6554,8 +8573,12 @@
       <c r="B504" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C504" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>dundee-fc</v>
@@ -6563,8 +8586,12 @@
       <c r="B505" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C505" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>dundee-united-fc</v>
@@ -6572,8 +8599,12 @@
       <c r="B506" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C506" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>heart-of-midlothian-fc</v>
@@ -6581,8 +8612,12 @@
       <c r="B507" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C507" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hibernian-fc</v>
@@ -6590,8 +8625,12 @@
       <c r="B508" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C508" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kilmarnock-fc</v>
@@ -6599,8 +8638,12 @@
       <c r="B509" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C509" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>motherwell-fc</v>
@@ -6608,8 +8651,12 @@
       <c r="B510" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C510" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rangers-fc</v>
@@ -6617,8 +8664,12 @@
       <c r="B511" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C511" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ross-county-fc</v>
@@ -6626,8 +8677,12 @@
       <c r="B512" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C512" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>st-johnstone-fc</v>
@@ -6635,14 +8690,22 @@
       <c r="B513" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C513" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>st-mirren-fc</v>
       </c>
       <c r="B514" t="s">
         <v>514</v>
+      </c>
+      <c r="C514" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>scotland</v>
       </c>
     </row>
   </sheetData>

--- a/enlaces_equipos.xlsx
+++ b/enlaces_equipos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://v7hfx-my.sharepoint.com/personal/joseca20_v7hfx_onmicrosoft_com/Documents/web scraping/statsFutbol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A50F3844-091D-4A1A-88A3-4988FE80A9FE}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7928AFC7-3A1C-465B-9C5E-74C5AEE6F34A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474EBA83-D6A0-4565-BEB0-BC6B2AA992C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="573">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1478,9 +1478,6 @@
     <t>europe/spain/cadiz-cf</t>
   </si>
   <si>
-    <t>europe/spain/fc-cartagena</t>
-  </si>
-  <si>
     <t>europe/spain/cd-castellon</t>
   </si>
   <si>
@@ -1490,15 +1487,6 @@
     <t>europe/spain/sd-eibar</t>
   </si>
   <si>
-    <t>europe/spain/elche-cf</t>
-  </si>
-  <si>
-    <t>europe/spain/cd-eldense</t>
-  </si>
-  <si>
-    <t>europe/spain/racing-de-ferrol</t>
-  </si>
-  <si>
     <t>europe/spain/sporting-de-gijon</t>
   </si>
   <si>
@@ -1511,24 +1499,15 @@
     <t>europe/spain/deportivo-de-la-coruna</t>
   </si>
   <si>
-    <t>europe/spain/levante-ud</t>
-  </si>
-  <si>
     <t>europe/spain/malaga-cf</t>
   </si>
   <si>
     <t>europe/spain/cd-mirandes</t>
   </si>
   <si>
-    <t>europe/spain/real-oviedo</t>
-  </si>
-  <si>
     <t>europe/spain/racing-de-santander</t>
   </si>
   <si>
-    <t>europe/spain/cd-tenerife</t>
-  </si>
-  <si>
     <t>europe/spain/real-zaragoza</t>
   </si>
   <si>
@@ -1758,6 +1737,24 @@
   </si>
   <si>
     <t>n-s-america/usa/vancouver-whitecaps-fc</t>
+  </si>
+  <si>
+    <t>europe/spain/fc-andorra</t>
+  </si>
+  <si>
+    <t>europe/spain/ad-ceuta-fc</t>
+  </si>
+  <si>
+    <t>europe/spain/cultural-y-deportiva-leonesa</t>
+  </si>
+  <si>
+    <t>europe/spain/real-sociedad-b</t>
+  </si>
+  <si>
+    <t>europe/germany/fc-koln</t>
+  </si>
+  <si>
+    <t>europe/germany/hamburger-sv</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1847,8 +1844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2202,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3E121-4DD2-4C5A-A60B-ED62DD98B116}">
   <dimension ref="A1:C592"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B592"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B304" sqref="B304:B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2486,7424 +2481,7424 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="str">
+      <c r="A22" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>arsenal-fc</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6" t="str">
+      <c r="C22" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="str">
+      <c r="A23" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aston-villa-fc</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C23" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="str">
+      <c r="A24" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>afc-bournemouth</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="str">
+      <c r="A25" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>brentford-fc</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="str">
+      <c r="A26" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>brighton-hove-albion-fc</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="str">
+      <c r="A27" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>burnley-fc</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6" t="str">
+      <c r="C27" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="str">
+      <c r="A28" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>chelsea-fc</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="6" t="str">
+      <c r="C28" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="str">
+      <c r="A29" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>crystal-palace-fc</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6" t="str">
+      <c r="C29" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="str">
+      <c r="A30" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>everton-fc</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="6" t="str">
+      <c r="C30" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="str">
+      <c r="A31" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fulham-fc</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6" t="str">
+      <c r="C31" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="str">
+      <c r="A32" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>leeds-united-fc</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="6" t="str">
+      <c r="C32" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="str">
+      <c r="A33" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>liverpool-fc</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6" t="str">
+      <c r="C33" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="str">
+      <c r="A34" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>manchester-city-fc</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="6" t="str">
+      <c r="C34" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="str">
+      <c r="A35" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>manchester-united-fc</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="6" t="str">
+      <c r="C35" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="str">
+      <c r="A36" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>newcastle-united-fc</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="6" t="str">
+      <c r="C36" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="str">
+      <c r="A37" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>nottingham-forest-fc</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="6" t="str">
+      <c r="C37" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="str">
+      <c r="A38" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sunderland-afc</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="6" t="str">
+      <c r="C38" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="str">
+      <c r="A39" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tottenham-hotspur-fc</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="6" t="str">
+      <c r="C39" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="str">
+      <c r="A40" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>west-ham-united-fc</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="6" t="str">
+      <c r="C40" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="str">
+      <c r="A41" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wolverhampton-wanderers-fc</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="6" t="str">
+      <c r="C41" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="str">
+      <c r="A42" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-alaves</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6" t="str">
+      <c r="C42" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="str">
+      <c r="A43" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>athletic-bilbao</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="6" t="str">
+      <c r="C43" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="str">
+      <c r="A44" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-madrid</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="6" t="str">
+      <c r="C44" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="str">
+      <c r="A45" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-barcelona</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="6" t="str">
+      <c r="C45" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="str">
+      <c r="A46" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-betis-balompie</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="6" t="str">
+      <c r="C46" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="str">
+      <c r="A47" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>celta-vigo</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="6" t="str">
+      <c r="C47" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="str">
+      <c r="A48" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rcd-espanyol</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="6" t="str">
+      <c r="C48" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="str">
+      <c r="A49" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>getafe-cf</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="6" t="str">
+      <c r="C49" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="str">
+      <c r="A50" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>girona-fc</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="6" t="str">
+      <c r="C50" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="str">
+      <c r="A51" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ud-las-palmas</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="6" t="str">
+      <c r="C51" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="str">
+      <c r="A52" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-leganes</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6" t="str">
+      <c r="C52" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="str">
+      <c r="A53" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rcd-mallorca</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="6" t="str">
+      <c r="C53" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="str">
+      <c r="A54" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ca-osasuna</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="6" t="str">
+      <c r="C54" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="str">
+      <c r="A55" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rayo-vallecano</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="6" t="str">
+      <c r="C55" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="str">
+      <c r="A56" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-madrid-cf</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="6" t="str">
+      <c r="C56" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="str">
+      <c r="A57" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-sociedad</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="6" t="str">
+      <c r="C57" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="str">
+      <c r="A58" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sevilla-fc</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="6" t="str">
+      <c r="C58" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="str">
+      <c r="A59" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>valencia-cf</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="6" t="str">
+      <c r="C59" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="str">
+      <c r="A60" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>real-valladolid</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="6" t="str">
+      <c r="C60" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="str">
+      <c r="A61" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>villarreal-cf</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="6" t="str">
+      <c r="C61" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="str">
+      <c r="A62" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-augsburg</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="6" t="str">
+      <c r="C62" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="str">
+      <c r="A63" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bayern-munich</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="6" t="str">
+      <c r="C63" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="str">
+      <c r="A64" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vfl-bochum</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="6" t="str">
+      <c r="C64" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="str">
+      <c r="A65" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>werder-bremen</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="6" t="str">
+      <c r="C65" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="str">
+      <c r="A66" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>borussia-dortmund</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="6" t="str">
+      <c r="C66" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="str">
+      <c r="A67" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>eintracht-frankfurt</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="6" t="str">
+      <c r="C67" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="str">
+      <c r="A68" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-freiburg</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="6" t="str">
+      <c r="C68" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="str">
+      <c r="A69" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-heidenheim</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="6" t="str">
+      <c r="C69" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="str">
+      <c r="A70" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hoffenheim</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="6" t="str">
+      <c r="C70" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="str">
+      <c r="A71" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>holstein-kiel</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="6" t="str">
+      <c r="C71" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="str">
+      <c r="A72" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bayer-leverkusen</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="6" t="str">
+      <c r="C72" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="str">
+      <c r="A73" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mainz-05</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="6" t="str">
+      <c r="C73" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="str">
+      <c r="A74" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>borussia-monchengladbach</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="6" t="str">
+      <c r="C74" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="str">
+      <c r="A75" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rb-leipzig</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="6" t="str">
+      <c r="C75" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="str">
+      <c r="A76" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-st-pauli</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="6" t="str">
+      <c r="C76" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="str">
+      <c r="A77" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vfb-stuttgart</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="6" t="str">
+      <c r="C77" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="str">
+      <c r="A78" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-berlin</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="6" t="str">
+      <c r="C78" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="str">
+      <c r="A79" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vfl-wolfsburg</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="6" t="str">
+      <c r="C79" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="str">
+      <c r="A80" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rheindorf-altach</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="6" t="str">
+      <c r="C80" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="str">
+      <c r="A81" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>austria-vienna</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="6" t="str">
+      <c r="C81" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="str">
+      <c r="A82" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bw-linz</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="6" t="str">
+      <c r="C82" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="str">
+      <c r="A83" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>grazer-ak</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="6" t="str">
+      <c r="C83" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="str">
+      <c r="A84" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tsv-hartberg</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="6" t="str">
+      <c r="C84" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="str">
+      <c r="A85" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lask</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="6" t="str">
+      <c r="C85" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="str">
+      <c r="A86" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sv-ried</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="6" t="str">
+      <c r="C86" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="str">
+      <c r="A87" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>red-bull-salzburg</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="6" t="str">
+      <c r="C87" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="str">
+      <c r="A88" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rapid-vienna</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="6" t="str">
+      <c r="C88" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="str">
+      <c r="A89" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sturm-graz</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="6" t="str">
+      <c r="C89" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="str">
+      <c r="A90" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wsg-swarovski-tirol</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="6" t="str">
+      <c r="C90" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="str">
+      <c r="A91" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wolfsberger-ac</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="6" t="str">
+      <c r="C91" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="str">
+      <c r="A92" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rsc-anderlecht</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="6" t="str">
+      <c r="C92" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="str">
+      <c r="A93" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>royal-antwerp-fc</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="6" t="str">
+      <c r="C93" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="str">
+      <c r="A94" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cercle-brugge-ksv</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="6" t="str">
+      <c r="C94" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="str">
+      <c r="A95" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>royal-charleroi-sc</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="6" t="str">
+      <c r="C95" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="str">
+      <c r="A96" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-brugge-kv</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="6" t="str">
+      <c r="C96" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="str">
+      <c r="A97" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fcv-dender-eh</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="6" t="str">
+      <c r="C97" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="str">
+      <c r="A98" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>krc-genk</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="6" t="str">
+      <c r="C98" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="str">
+      <c r="A99" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kaa-gent</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="6" t="str">
+      <c r="C99" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="str">
+      <c r="A100" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kv-mechelen</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="6" t="str">
+      <c r="C100" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="str">
+      <c r="A101" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>oh-leuven</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="6" t="str">
+      <c r="C101" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="str">
+      <c r="A102" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>raal-la-louviere</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="6" t="str">
+      <c r="C102" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="str">
+      <c r="A103" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>standard-liege</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="6" t="str">
+      <c r="C103" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="str">
+      <c r="A104" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sint-truidense-vv</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="6" t="str">
+      <c r="C104" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="str">
+      <c r="A105" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ru-saint-gilloise</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="6" t="str">
+      <c r="C105" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="str">
+      <c r="A106" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sv-zulte-waregem</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="6" t="str">
+      <c r="C106" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="str">
+      <c r="A107" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kvc-westerlo</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="6" t="str">
+      <c r="C107" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>belgium</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="str">
+      <c r="A108" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>academia-del-balompie-boliviano</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="6" t="str">
+      <c r="C108" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="str">
+      <c r="A109" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-always-ready</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="6" t="str">
+      <c r="C109" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="str">
+      <c r="A110" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-aurora</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="6" t="str">
+      <c r="C110" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="str">
+      <c r="A111" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-blooming</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="6" t="str">
+      <c r="C111" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="str">
+      <c r="A112" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-bolivar</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="6" t="str">
+      <c r="C112" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="str">
+      <c r="A113" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-guabira</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="6" t="str">
+      <c r="C113" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="str">
+      <c r="A114" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-gv-san-jose</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="6" t="str">
+      <c r="C114" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="str">
+      <c r="A115" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-independiente-petrolero</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="6" t="str">
+      <c r="C115" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="str">
+      <c r="A116" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-nacional-potosi</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C116" s="6" t="str">
+      <c r="C116" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="str">
+      <c r="A117" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-oriente-petrolero</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C117" s="6" t="str">
+      <c r="C117" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="str">
+      <c r="A118" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cdt-real-oruro</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="6" t="str">
+      <c r="C118" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="str">
+      <c r="A119" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-san-antonio-bulo-bulo</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="6" t="str">
+      <c r="C119" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="str">
+      <c r="A120" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-the-strongest</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="6" t="str">
+      <c r="C120" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="str">
+      <c r="A121" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-real-tomayapo</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="6" t="str">
+      <c r="C121" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="str">
+      <c r="A122" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-universitario-de-vinto</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="6" t="str">
+      <c r="C122" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="str">
+      <c r="A123" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-jorge-wilstermann</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="6" t="str">
+      <c r="C123" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bolivia</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="str">
+      <c r="A124" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>clube-atletico-mineiro</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="6" t="str">
+      <c r="C124" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="str">
+      <c r="A125" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-bahia</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C125" s="6" t="str">
+      <c r="C125" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="str">
+      <c r="A126" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>botafogo-de-futebol-e-regatas</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="6" t="str">
+      <c r="C126" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="str">
+      <c r="A127" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>red-bull-bragantino</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C127" s="6" t="str">
+      <c r="C127" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="str">
+      <c r="A128" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ceara-sporting-club</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C128" s="6" t="str">
+      <c r="C128" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="str">
+      <c r="A129" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-corinthians-paulista</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="6" t="str">
+      <c r="C129" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="str">
+      <c r="A130" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cruzeiro-esporte-clube</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C130" s="6" t="str">
+      <c r="C130" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="str">
+      <c r="A131" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>clube-de-regatas-do-flamengo</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C131" s="6" t="str">
+      <c r="C131" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="str">
+      <c r="A132" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fluminense-fc</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="6" t="str">
+      <c r="C132" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="str">
+      <c r="A133" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortaleza-esporte-clube</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C133" s="6" t="str">
+      <c r="C133" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="str">
+      <c r="A134" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gremio-football-porto-alagrense</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="6" t="str">
+      <c r="C134" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="str">
+      <c r="A135" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-internacional</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="6" t="str">
+      <c r="C135" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="str">
+      <c r="A136" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-juventude</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C136" s="6" t="str">
+      <c r="C136" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="str">
+      <c r="A137" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mirassol-fc</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C137" s="6" t="str">
+      <c r="C137" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="str">
+      <c r="A138" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sociedade-esportiva-palmeiras</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C138" s="6" t="str">
+      <c r="C138" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="str">
+      <c r="A139" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>santos-fc</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="6" t="str">
+      <c r="C139" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="str">
+      <c r="A140" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sao-paulo-fc</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C140" s="6" t="str">
+      <c r="C140" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="str">
+      <c r="A141" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-do-recife</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="6" t="str">
+      <c r="C141" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="str">
+      <c r="A142" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cr-vasco-da-gama</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="6" t="str">
+      <c r="C142" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="str">
+      <c r="A143" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-vitoria</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C143" s="6" t="str">
+      <c r="C143" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>brazil</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="str">
+      <c r="A144" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>arda-kardzhali</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C144" s="6" t="str">
+      <c r="C144" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="str">
+      <c r="A145" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>beroe</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C145" s="6" t="str">
+      <c r="C145" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="str">
+      <c r="A146" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>botev-plovdiv</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C146" s="6" t="str">
+      <c r="C146" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="str">
+      <c r="A147" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>botev-vratsa</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C147" s="6" t="str">
+      <c r="C147" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="str">
+      <c r="A148" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cherno-more</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C148" s="6" t="str">
+      <c r="C148" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="str">
+      <c r="A149" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-cska-1948-sofia</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C149" s="6" t="str">
+      <c r="C149" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="str">
+      <c r="A150" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cska-sofia</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C150" s="6" t="str">
+      <c r="C150" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="str">
+      <c r="A151" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-dobrudzha-dobrich</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C151" s="6" t="str">
+      <c r="C151" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="str">
+      <c r="A152" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>levski-sofia</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C152" s="6" t="str">
+      <c r="C152" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="str">
+      <c r="A153" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lokomotiv-plovdiv</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C153" s="6" t="str">
+      <c r="C153" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="str">
+      <c r="A154" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-lokomotiv-1929-sofia</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C154" s="6" t="str">
+      <c r="C154" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="str">
+      <c r="A155" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ludogorets</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C155" s="6" t="str">
+      <c r="C155" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="str">
+      <c r="A156" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-montana</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C156" s="6" t="str">
+      <c r="C156" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="str">
+      <c r="A157" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>pfc-septemvri-sofia</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C157" s="6" t="str">
+      <c r="C157" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="6" t="str">
+      <c r="A158" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>slavia-sofia</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C158" s="6" t="str">
+      <c r="C158" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="str">
+      <c r="A159" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-spartak-varna</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C159" s="6" t="str">
+      <c r="C159" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>bulgaria</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="str">
+      <c r="A160" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-aldosivi</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C160" s="6" t="str">
+      <c r="C160" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="str">
+      <c r="A161" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>argentinos-juniors</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C161" s="6" t="str">
+      <c r="C161" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="str">
+      <c r="A162" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-tucuman</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C162" s="6" t="str">
+      <c r="C162" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="str">
+      <c r="A163" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-banfield</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C163" s="6" t="str">
+      <c r="C163" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="str">
+      <c r="A164" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-barracas-central</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C164" s="6" t="str">
+      <c r="C164" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="str">
+      <c r="A165" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-belgrano</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C165" s="6" t="str">
+      <c r="C165" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="str">
+      <c r="A166" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-boca-juniors</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C166" s="6" t="str">
+      <c r="C166" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="str">
+      <c r="A167" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-central-cordoba</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C167" s="6" t="str">
+      <c r="C167" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="str">
+      <c r="A168" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>defensa-y-justicia</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C168" s="6" t="str">
+      <c r="C168" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="str">
+      <c r="A169" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-riestra</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C169" s="6" t="str">
+      <c r="C169" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="str">
+      <c r="A170" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-estudiantes-de-la-plata</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C170" s="6" t="str">
+      <c r="C170" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="str">
+      <c r="A171" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-de-gimnasia-la-plata</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C171" s="6" t="str">
+      <c r="C171" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="str">
+      <c r="A172" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>godoy-cruz</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C172" s="6" t="str">
+      <c r="C172" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="6" t="str">
+      <c r="A173" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-huracan</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C173" s="6" t="str">
+      <c r="C173" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="6" t="str">
+      <c r="A174" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-sportivo-independiente-rivadavia</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C174" s="6" t="str">
+      <c r="C174" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="str">
+      <c r="A175" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-independiente</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C175" s="6" t="str">
+      <c r="C175" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="str">
+      <c r="A176" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>instituto-atletico-central-cordoba</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C176" s="6" t="str">
+      <c r="C176" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="str">
+      <c r="A177" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-lanus</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C177" s="6" t="str">
+      <c r="C177" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="str">
+      <c r="A178" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-newells-old-boys</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C178" s="6" t="str">
+      <c r="C178" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="str">
+      <c r="A179" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-platense</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C179" s="6" t="str">
+      <c r="C179" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="str">
+      <c r="A180" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>racing-club-de-avellaneda</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C180" s="6" t="str">
+      <c r="C180" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="str">
+      <c r="A181" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-river-plate</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C181" s="6" t="str">
+      <c r="C181" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="str">
+      <c r="A182" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-rosario-central</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C182" s="6" t="str">
+      <c r="C182" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="str">
+      <c r="A183" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-lorenzo-de-almagro</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C183" s="6" t="str">
+      <c r="C183" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="str">
+      <c r="A184" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-martin-de-san-juan</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C184" s="6" t="str">
+      <c r="C184" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="str">
+      <c r="A185" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-sarmiento-junin</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C185" s="6" t="str">
+      <c r="C185" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="str">
+      <c r="A186" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-talleres</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C186" s="6" t="str">
+      <c r="C186" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="str">
+      <c r="A187" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-tigre</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C187" s="6" t="str">
+      <c r="C187" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="str">
+      <c r="A188" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-union-de-santa-fe</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C188" s="6" t="str">
+      <c r="C188" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="str">
+      <c r="A189" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-velez-sarsfield</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C189" s="6" t="str">
+      <c r="C189" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>argentina</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="6" t="str">
+      <c r="A190" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>dinamo-zagreb</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C190" s="6" t="str">
+      <c r="C190" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>croatia</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="str">
+      <c r="A191" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gorica</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C191" s="6" t="str">
+      <c r="C191" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>croatia</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="str">
+      <c r="A192" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hajduk-split</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C192" s="6" t="str">
+      <c r="C192" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>croatia</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="6" t="str">
+      <c r="A193" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>istra-1961</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C193" s="6" t="str">
+      <c r="C193" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>croatia</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="6" t="str">
+      <c r="A194" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lokomotiva-zagreb</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C194" s="6" t="str">
+      <c r="C194" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>croatia</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="6" t="str">
+      <c r="A195" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>osijek</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C195" s="6" t="str">
+      <c r="C195" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>croatia</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="6" t="str">
+      <c r="A196" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rijeka</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C196" s="6" t="str">
+      <c r="C196" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>croatia</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="str">
+      <c r="A197" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>slaven-belupo</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C197" s="6" t="str">
+      <c r="C197" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>croatia</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="str">
+      <c r="A198" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>varazdin</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C198" s="6" t="str">
+      <c r="C198" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>croatia</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="6" t="str">
+      <c r="A199" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hnk-vukovar-1991</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C199" s="6" t="str">
+      <c r="C199" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>croatia</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="6" t="str">
+      <c r="A200" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>audax-italiano</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C200" s="6" t="str">
+      <c r="C200" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="6" t="str">
+      <c r="A201" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-cobresal</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C201" s="6" t="str">
+      <c r="C201" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="6" t="str">
+      <c r="A202" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>colo-colo</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C202" s="6" t="str">
+      <c r="C202" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="6" t="str">
+      <c r="A203" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>coquimbo-unido</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C203" s="6" t="str">
+      <c r="C203" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="6" t="str">
+      <c r="A204" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-iquique</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C204" s="6" t="str">
+      <c r="C204" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="6" t="str">
+      <c r="A205" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>everton-de-vina-del-mar</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C205" s="6" t="str">
+      <c r="C205" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="6" t="str">
+      <c r="A206" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-huachipato</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C206" s="6" t="str">
+      <c r="C206" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="6" t="str">
+      <c r="A207" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-la-serena</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C207" s="6" t="str">
+      <c r="C207" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="6" t="str">
+      <c r="A208" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-limache</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C208" s="6" t="str">
+      <c r="C208" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="6" t="str">
+      <c r="A209" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-nublense</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C209" s="6" t="str">
+      <c r="C209" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="6" t="str">
+      <c r="A210" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>o-higgins-fc</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C210" s="6" t="str">
+      <c r="C210" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="6" t="str">
+      <c r="A211" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-palestino</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C211" s="6" t="str">
+      <c r="C211" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="6" t="str">
+      <c r="A212" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-la-calera</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C212" s="6" t="str">
+      <c r="C212" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="6" t="str">
+      <c r="A213" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-universidad-catolica</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C213" s="6" t="str">
+      <c r="C213" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="6" t="str">
+      <c r="A214" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-universidad-de-chile</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C214" s="6" t="str">
+      <c r="C214" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="6" t="str">
+      <c r="A215" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-espanola</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C215" s="6" t="str">
+      <c r="C215" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>chile</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="6" t="str">
+      <c r="A216" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bohemians-1905</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C216" s="6" t="str">
+      <c r="C216" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="6" t="str">
+      <c r="A217" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-dukla-prague</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C217" s="6" t="str">
+      <c r="C217" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="6" t="str">
+      <c r="A218" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-hradec-kralove</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C218" s="6" t="str">
+      <c r="C218" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="6" t="str">
+      <c r="A219" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-jablonec</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C219" s="6" t="str">
+      <c r="C219" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="6" t="str">
+      <c r="A220" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mfk-karvina</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C220" s="6" t="str">
+      <c r="C220" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="str">
+      <c r="A221" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-slovan-liberec</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C221" s="6" t="str">
+      <c r="C221" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="6" t="str">
+      <c r="A222" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-mlada-boleslav</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C222" s="6" t="str">
+      <c r="C222" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="6" t="str">
+      <c r="A223" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-banik-ostrava</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C223" s="6" t="str">
+      <c r="C223" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="6" t="str">
+      <c r="A224" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-pardubice</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C224" s="6" t="str">
+      <c r="C224" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="6" t="str">
+      <c r="A225" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-viktoria-plzen</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C225" s="6" t="str">
+      <c r="C225" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="str">
+      <c r="A226" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sk-sigma-olomouc</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C226" s="6" t="str">
+      <c r="C226" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="6" t="str">
+      <c r="A227" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>slavia-prague</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C227" s="6" t="str">
+      <c r="C227" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="6" t="str">
+      <c r="A228" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-slovacko</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C228" s="6" t="str">
+      <c r="C228" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="6" t="str">
+      <c r="A229" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sparta-prague</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C229" s="6" t="str">
+      <c r="C229" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="6" t="str">
+      <c r="A230" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-teplice</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C230" s="6" t="str">
+      <c r="C230" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="str">
+      <c r="A231" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-fastav-zlin</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C231" s="6" t="str">
+      <c r="C231" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>czech-republic</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="6" t="str">
+      <c r="A232" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aarhus</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C232" s="6" t="str">
+      <c r="C232" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="6" t="str">
+      <c r="A233" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>brondby</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C233" s="6" t="str">
+      <c r="C233" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="6" t="str">
+      <c r="A234" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-copenhagen</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C234" s="6" t="str">
+      <c r="C234" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="6" t="str">
+      <c r="A235" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-fredericia</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C235" s="6" t="str">
+      <c r="C235" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="6" t="str">
+      <c r="A236" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-midtjylland</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C236" s="6" t="str">
+      <c r="C236" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="6" t="str">
+      <c r="A237" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-nordsjaelland</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C237" s="6" t="str">
+      <c r="C237" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="6" t="str">
+      <c r="A238" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>odense-boldklub</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C238" s="6" t="str">
+      <c r="C238" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="6" t="str">
+      <c r="A239" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>randers-fc</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C239" s="6" t="str">
+      <c r="C239" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="6" t="str">
+      <c r="A240" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>silkeborg-if</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C240" s="6" t="str">
+      <c r="C240" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="6" t="str">
+      <c r="A241" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sonderjyske</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C241" s="6" t="str">
+      <c r="C241" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="str">
+      <c r="A242" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vejle-bk</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C242" s="6" t="str">
+      <c r="C242" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="6" t="str">
+      <c r="A243" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>viborg-ff</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C243" s="6" t="str">
+      <c r="C243" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>denmark</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="6" t="str">
+      <c r="A244" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>birmingham-city-fc</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C244" s="6" t="str">
+      <c r="C244" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="6" t="str">
+      <c r="A245" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>blackburn-rovers-fc</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C245" s="6" t="str">
+      <c r="C245" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="6" t="str">
+      <c r="A246" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bristol-city-fc</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C246" s="6" t="str">
+      <c r="C246" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="6" t="str">
+      <c r="A247" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>charlton-athletic-fc</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C247" s="6" t="str">
+      <c r="C247" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="6" t="str">
+      <c r="A248" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>coventry-city-fc</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C248" s="6" t="str">
+      <c r="C248" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="6" t="str">
+      <c r="A249" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>derby-county-fc</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C249" s="6" t="str">
+      <c r="C249" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="6" t="str">
+      <c r="A250" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hull-city-fc</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C250" s="6" t="str">
+      <c r="C250" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="6" t="str">
+      <c r="A251" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ipswich-town-fc</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C251" s="6" t="str">
+      <c r="C251" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="6" t="str">
+      <c r="A252" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>leicester-city-fc</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C252" s="6" t="str">
+      <c r="C252" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="6" t="str">
+      <c r="A253" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>middlesbrough-fc</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C253" s="6" t="str">
+      <c r="C253" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="6" t="str">
+      <c r="A254" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>millwall-fc</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C254" s="6" t="str">
+      <c r="C254" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="6" t="str">
+      <c r="A255" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>norwich-city-fc</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C255" s="6" t="str">
+      <c r="C255" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="6" t="str">
+      <c r="A256" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>oxford-united-fc</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C256" s="6" t="str">
+      <c r="C256" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="6" t="str">
+      <c r="A257" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>portsmouth-fc</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C257" s="6" t="str">
+      <c r="C257" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="6" t="str">
+      <c r="A258" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>preston-north-end-fc</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C258" s="6" t="str">
+      <c r="C258" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="6" t="str">
+      <c r="A259" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>queens-park-rangers-fc</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C259" s="6" t="str">
+      <c r="C259" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="6" t="str">
+      <c r="A260" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sheffield-united-fc</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C260" s="6" t="str">
+      <c r="C260" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="6" t="str">
+      <c r="A261" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sheffield-wednesday-fc</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C261" s="6" t="str">
+      <c r="C261" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="6" t="str">
+      <c r="A262" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>southampton-fc</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C262" s="6" t="str">
+      <c r="C262" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="6" t="str">
+      <c r="A263" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stoke-city-fc</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C263" s="6" t="str">
+      <c r="C263" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="6" t="str">
+      <c r="A264" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>swansea-city-afc</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C264" s="6" t="str">
+      <c r="C264" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="6" t="str">
+      <c r="A265" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>watford-fc</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C265" s="6" t="str">
+      <c r="C265" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="6" t="str">
+      <c r="A266" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>west-bromwich-albion-fc</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C266" s="6" t="str">
+      <c r="C266" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="6" t="str">
+      <c r="A267" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wrexham-afc</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C267" s="6" t="str">
+      <c r="C267" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>england</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="6" t="str">
+      <c r="A268" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>angers-sco</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C268" s="6" t="str">
+      <c r="C268" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="6" t="str">
+      <c r="A269" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aj-auxerre</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C269" s="6" t="str">
+      <c r="C269" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="6" t="str">
+      <c r="A270" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stade-brestois-29</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C270" s="6" t="str">
+      <c r="C270" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="6" t="str">
+      <c r="A271" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>le-havre-ac</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C271" s="6" t="str">
+      <c r="C271" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="6" t="str">
+      <c r="A272" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rc-lens</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C272" s="6" t="str">
+      <c r="C272" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="6" t="str">
+      <c r="A273" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lille-osc</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C273" s="6" t="str">
+      <c r="C273" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="6" t="str">
+      <c r="A274" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>olympique-lyonnais</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C274" s="6" t="str">
+      <c r="C274" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="6" t="str">
+      <c r="A275" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>olympique-de-marseille</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C275" s="6" t="str">
+      <c r="C275" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="6" t="str">
+      <c r="A276" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>as-monaco-fc</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C276" s="6" t="str">
+      <c r="C276" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="6" t="str">
+      <c r="A277" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>montpellier-hsc</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C277" s="6" t="str">
+      <c r="C277" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="6" t="str">
+      <c r="A278" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-nantes</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C278" s="6" t="str">
+      <c r="C278" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="6" t="str">
+      <c r="A279" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ogc-nice</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C279" s="6" t="str">
+      <c r="C279" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="6" t="str">
+      <c r="A280" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>paris-saint-germain-fc</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C280" s="6" t="str">
+      <c r="C280" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="6" t="str">
+      <c r="A281" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stade-de-reims</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C281" s="6" t="str">
+      <c r="C281" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="6" t="str">
+      <c r="A282" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stade-rennais-fc</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C282" s="6" t="str">
+      <c r="C282" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="6" t="str">
+      <c r="A283" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>as-saint-etienne</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C283" s="6" t="str">
+      <c r="C283" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="6" t="str">
+      <c r="A284" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rc-strasbourg-alsace</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C284" s="6" t="str">
+      <c r="C284" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="6" t="str">
+      <c r="A285" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>toulouse-fc</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C285" s="6" t="str">
+      <c r="C285" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>france</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="6" t="str">
+      <c r="A286" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-augsburg</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C286" s="6" t="str">
+      <c r="C286" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="6" t="str">
+      <c r="A287" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bayern-munich</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C287" s="6" t="str">
+      <c r="C287" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>vfl-bochum</v>
+      <c r="A288" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>werder-bremen</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C288" s="6" t="str">
+        <v>66</v>
+      </c>
+      <c r="C288" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>werder-bremen</v>
+      <c r="A289" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>borussia-dortmund</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C289" s="6" t="str">
+        <v>67</v>
+      </c>
+      <c r="C289" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>borussia-dortmund</v>
+      <c r="A290" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-koln</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C290" s="6" t="str">
+        <v>571</v>
+      </c>
+      <c r="C290" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="6" t="str">
+      <c r="A291" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>eintracht-frankfurt</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C291" s="6" t="str">
+      <c r="C291" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="6" t="str">
+      <c r="A292" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-freiburg</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C292" s="6" t="str">
+      <c r="C292" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="6" t="str">
+      <c r="A293" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>hamburger-sv</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C293" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>germany</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-heidenheim</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B294" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C293" s="6" t="str">
+      <c r="C294" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="6" t="str">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hoffenheim</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B295" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C294" s="6" t="str">
+      <c r="C295" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>holstein-kiel</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C295" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>germany</v>
-      </c>
-    </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="6" t="str">
+      <c r="A296" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bayer-leverkusen</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C296" s="6" t="str">
+      <c r="C296" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="6" t="str">
+      <c r="A297" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mainz-05</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C297" s="6" t="str">
+      <c r="C297" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="6" t="str">
+      <c r="A298" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>borussia-monchengladbach</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C298" s="6" t="str">
+      <c r="C298" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="6" t="str">
+      <c r="A299" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rb-leipzig</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C299" s="6" t="str">
+      <c r="C299" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="6" t="str">
+      <c r="A300" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-st-pauli</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C300" s="6" t="str">
+      <c r="C300" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="6" t="str">
+      <c r="A301" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vfb-stuttgart</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C301" s="6" t="str">
+      <c r="C301" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="6" t="str">
+      <c r="A302" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-berlin</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C302" s="6" t="str">
+      <c r="C302" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="6" t="str">
+      <c r="A303" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vfl-wolfsburg</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C303" s="6" t="str">
+      <c r="C303" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="6" t="str">
+      <c r="A304" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>arminia-bielefeld</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C304" s="6" t="str">
+      <c r="C304" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="6" t="str">
+      <c r="A305" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vfl-bochum</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C305" s="6" t="str">
+      <c r="C305" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="6" t="str">
+      <c r="A306" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>eintracht-braunschweig</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C306" s="6" t="str">
+      <c r="C306" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="6" t="str">
+      <c r="A307" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>darmstadt-98</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C307" s="6" t="str">
+      <c r="C307" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="6" t="str">
+      <c r="A308" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>dynamo-dresden</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C308" s="6" t="str">
+      <c r="C308" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="6" t="str">
+      <c r="A309" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortuna-dusseldorf</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C309" s="6" t="str">
+      <c r="C309" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="6" t="str">
+      <c r="A310" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sv-elversberg</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C310" s="6" t="str">
+      <c r="C310" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="6" t="str">
+      <c r="A311" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>greuther-furth</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C311" s="6" t="str">
+      <c r="C311" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="6" t="str">
+      <c r="A312" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hannover-96</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C312" s="6" t="str">
+      <c r="C312" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="6" t="str">
+      <c r="A313" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hertha-berlin</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C313" s="6" t="str">
+      <c r="C313" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="6" t="str">
+      <c r="A314" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-kaiserslautern</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C314" s="6" t="str">
+      <c r="C314" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="6" t="str">
+      <c r="A315" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>karlsruher-sc</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C315" s="6" t="str">
+      <c r="C315" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="6" t="str">
+      <c r="A316" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>holstein-kiel</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C316" s="6" t="str">
+      <c r="C316" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="6" t="str">
+      <c r="A317" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-magdeburg</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C317" s="6" t="str">
+      <c r="C317" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="6" t="str">
+      <c r="A318" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>preussen-munster</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C318" s="6" t="str">
+      <c r="C318" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="6" t="str">
+      <c r="A319" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-nurnberg</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C319" s="6" t="str">
+      <c r="C319" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="6" t="str">
+      <c r="A320" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-paderborn</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C320" s="6" t="str">
+      <c r="C320" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="6" t="str">
+      <c r="A321" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>schalke-04</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C321" s="6" t="str">
+      <c r="C321" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>germany</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="6" t="str">
+      <c r="A322" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ac-milan</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C322" s="6" t="str">
+      <c r="C322" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="6" t="str">
+      <c r="A323" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>as-roma</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C323" s="6" t="str">
+      <c r="C323" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="6" t="str">
+      <c r="A324" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atalanta-bc</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C324" s="6" t="str">
+      <c r="C324" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="6" t="str">
+      <c r="A325" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bologna-fc-1909</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C325" s="6" t="str">
+      <c r="C325" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="6" t="str">
+      <c r="A326" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cagliari-calcio</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C326" s="6" t="str">
+      <c r="C326" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="6" t="str">
+      <c r="A327" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>como-1907</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C327" s="6" t="str">
+      <c r="C327" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="6" t="str">
+      <c r="A328" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>empoli-fc</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C328" s="6" t="str">
+      <c r="C328" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="6" t="str">
+      <c r="A329" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>acf-fiorentina</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C329" s="6" t="str">
+      <c r="C329" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="6" t="str">
+      <c r="A330" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>genoa-cfc</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C330" s="6" t="str">
+      <c r="C330" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="6" t="str">
+      <c r="A331" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>inter-milan</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C331" s="6" t="str">
+      <c r="C331" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="6" t="str">
+      <c r="A332" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>juventus-fc</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C332" s="6" t="str">
+      <c r="C332" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="6" t="str">
+      <c r="A333" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ss-lazio</v>
       </c>
       <c r="B333" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C333" s="6" t="str">
+      <c r="C333" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="6" t="str">
+      <c r="A334" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>us-lecce</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C334" s="6" t="str">
+      <c r="C334" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="6" t="str">
+      <c r="A335" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ac-monza</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C335" s="6" t="str">
+      <c r="C335" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="6" t="str">
+      <c r="A336" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ssc-napoli</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C336" s="6" t="str">
+      <c r="C336" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="6" t="str">
+      <c r="A337" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>parma-calcio-1913</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C337" s="6" t="str">
+      <c r="C337" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="6" t="str">
+      <c r="A338" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>torino-fc</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C338" s="6" t="str">
+      <c r="C338" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="6" t="str">
+      <c r="A339" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>udinese-calcio</v>
       </c>
       <c r="B339" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C339" s="6" t="str">
+      <c r="C339" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="6" t="str">
+      <c r="A340" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>venezia-fc</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C340" s="6" t="str">
+      <c r="C340" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="6" t="str">
+      <c r="A341" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hellas-verona-fc</v>
       </c>
       <c r="B341" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C341" s="6" t="str">
+      <c r="C341" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>italy</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="6" t="str">
+      <c r="A342" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-san-luis</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C342" s="6" t="str">
+      <c r="C342" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="6" t="str">
+      <c r="A343" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atlas-fc</v>
       </c>
       <c r="B343" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C343" s="6" t="str">
+      <c r="C343" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="6" t="str">
+      <c r="A344" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-america</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C344" s="6" t="str">
+      <c r="C344" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="6" t="str">
+      <c r="A345" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cruz-azul</v>
       </c>
       <c r="B345" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C345" s="6" t="str">
+      <c r="C345" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="6" t="str">
+      <c r="A346" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-guadalajara</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C346" s="6" t="str">
+      <c r="C346" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="6" t="str">
+      <c r="A347" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-juarez</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C347" s="6" t="str">
+      <c r="C347" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="6" t="str">
+      <c r="A348" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-leon</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C348" s="6" t="str">
+      <c r="C348" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="6" t="str">
+      <c r="A349" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mazatlan-fc</v>
       </c>
       <c r="B349" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C349" s="6" t="str">
+      <c r="C349" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="6" t="str">
+      <c r="A350" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cf-monterrey</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C350" s="6" t="str">
+      <c r="C350" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="6" t="str">
+      <c r="A351" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-necaxa</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C351" s="6" t="str">
+      <c r="C351" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="6" t="str">
+      <c r="A352" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cf-pachuca</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C352" s="6" t="str">
+      <c r="C352" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="6" t="str">
+      <c r="A353" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-puebla</v>
       </c>
       <c r="B353" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C353" s="6" t="str">
+      <c r="C353" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="6" t="str">
+      <c r="A354" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>queretaro-fc</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C354" s="6" t="str">
+      <c r="C354" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="6" t="str">
+      <c r="A355" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>santos-laguna</v>
       </c>
       <c r="B355" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C355" s="6" t="str">
+      <c r="C355" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="6" t="str">
+      <c r="A356" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tigres-uanl</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C356" s="6" t="str">
+      <c r="C356" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="6" t="str">
+      <c r="A357" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-tijuana</v>
       </c>
       <c r="B357" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C357" s="6" t="str">
+      <c r="C357" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="6" t="str">
+      <c r="A358" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-toluca-fc</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C358" s="6" t="str">
+      <c r="C358" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="6" t="str">
+      <c r="A359" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>unam</v>
       </c>
       <c r="B359" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C359" s="6" t="str">
+      <c r="C359" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>mexico</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="6" t="str">
+      <c r="A360" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>afc-ajax</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C360" s="6" t="str">
+      <c r="C360" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="6" t="str">
+      <c r="A361" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>az-alkmaar</v>
       </c>
       <c r="B361" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C361" s="6" t="str">
+      <c r="C361" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="6" t="str">
+      <c r="A362" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sbv-excelsior</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C362" s="6" t="str">
+      <c r="C362" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="6" t="str">
+      <c r="A363" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-volendam</v>
       </c>
       <c r="B363" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C363" s="6" t="str">
+      <c r="C363" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="6" t="str">
+      <c r="A364" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>feyenoord-rotterdam</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C364" s="6" t="str">
+      <c r="C364" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="6" t="str">
+      <c r="A365" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>go-ahead-eagles</v>
       </c>
       <c r="B365" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C365" s="6" t="str">
+      <c r="C365" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="6" t="str">
+      <c r="A366" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-groningen</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C366" s="6" t="str">
+      <c r="C366" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="6" t="str">
+      <c r="A367" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-heerenveen</v>
       </c>
       <c r="B367" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C367" s="6" t="str">
+      <c r="C367" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="6" t="str">
+      <c r="A368" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>heracles-almelo</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C368" s="6" t="str">
+      <c r="C368" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="6" t="str">
+      <c r="A369" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>nac-breda</v>
       </c>
       <c r="B369" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C369" s="6" t="str">
+      <c r="C369" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="6" t="str">
+      <c r="A370" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>nec-nijmegen</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C370" s="6" t="str">
+      <c r="C370" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="6" t="str">
+      <c r="A371" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>psv-eindhoven</v>
       </c>
       <c r="B371" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C371" s="6" t="str">
+      <c r="C371" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="6" t="str">
+      <c r="A372" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortuna-sittard</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C372" s="6" t="str">
+      <c r="C372" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="6" t="str">
+      <c r="A373" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sparta-rotterdam</v>
       </c>
       <c r="B373" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C373" s="6" t="str">
+      <c r="C373" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="6" t="str">
+      <c r="A374" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sc-telstar</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C374" s="6" t="str">
+      <c r="C374" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="6" t="str">
+      <c r="A375" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-twente</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C375" s="6" t="str">
+      <c r="C375" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="6" t="str">
+      <c r="A376" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-utrecht</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C376" s="6" t="str">
+      <c r="C376" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="6" t="str">
+      <c r="A377" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>pec-zwolle</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C377" s="6" t="str">
+      <c r="C377" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>netherlands</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="6" t="str">
+      <c r="A378" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-bodo-glimt</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C378" s="6" t="str">
+      <c r="C378" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="6" t="str">
+      <c r="A379" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sk-brann</v>
       </c>
       <c r="B379" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C379" s="6" t="str">
+      <c r="C379" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="6" t="str">
+      <c r="A380" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bryne-fk</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C380" s="6" t="str">
+      <c r="C380" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="6" t="str">
+      <c r="A381" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fredrikstad-fk</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C381" s="6" t="str">
+      <c r="C381" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="6" t="str">
+      <c r="A382" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ham-kam</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C382" s="6" t="str">
+      <c r="C382" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="6" t="str">
+      <c r="A383" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-haugesund</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C383" s="6" t="str">
+      <c r="C383" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="6" t="str">
+      <c r="A384" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kfum-kameratene-oslo</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C384" s="6" t="str">
+      <c r="C384" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="6" t="str">
+      <c r="A385" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kristiansund-bk</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C385" s="6" t="str">
+      <c r="C385" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="6" t="str">
+      <c r="A386" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>molde-fk</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C386" s="6" t="str">
+      <c r="C386" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="6" t="str">
+      <c r="A387" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rosenborg-bk</v>
       </c>
       <c r="B387" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C387" s="6" t="str">
+      <c r="C387" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="6" t="str">
+      <c r="A388" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sandefjord-fotball</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C388" s="6" t="str">
+      <c r="C388" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="6" t="str">
+      <c r="A389" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sarpsborg-08-ff</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C389" s="6" t="str">
+      <c r="C389" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="6" t="str">
+      <c r="A390" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>stromsgodset</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C390" s="6" t="str">
+      <c r="C390" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="6" t="str">
+      <c r="A391" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tromso-il</v>
       </c>
       <c r="B391" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C391" s="6" t="str">
+      <c r="C391" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="6" t="str">
+      <c r="A392" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>valerenga-fotball</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C392" s="6" t="str">
+      <c r="C392" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="6" t="str">
+      <c r="A393" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>viking-fk</v>
       </c>
       <c r="B393" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C393" s="6" t="str">
+      <c r="C393" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>norway</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="6" t="str">
+      <c r="A394" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-lima</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C394" s="6" t="str">
+      <c r="C394" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="6" t="str">
+      <c r="A395" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>asociacion-deportiva-tarma</v>
       </c>
       <c r="B395" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C395" s="6" t="str">
+      <c r="C395" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="6" t="str">
+      <c r="A396" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-atletico</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C396" s="6" t="str">
+      <c r="C396" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="6" t="str">
+      <c r="A397" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-universidad-de-huanuco</v>
       </c>
       <c r="B397" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C397" s="6" t="str">
+      <c r="C397" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="6" t="str">
+      <c r="A398" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ayacucho-fc</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C398" s="6" t="str">
+      <c r="C398" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="6" t="str">
+      <c r="A399" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-binacional</v>
       </c>
       <c r="B399" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C399" s="6" t="str">
+      <c r="C399" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="6" t="str">
+      <c r="A400" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>universidad-tecnica-de-cajamarca</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C400" s="6" t="str">
+      <c r="C400" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="6" t="str">
+      <c r="A401" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-sportivo-cienciano</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C401" s="6" t="str">
+      <c r="C401" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="6" t="str">
+      <c r="A402" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>comerciantes-unidos</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C402" s="6" t="str">
+      <c r="C402" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="6" t="str">
+      <c r="A403" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cusco-fc</v>
       </c>
       <c r="B403" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C403" s="6" t="str">
+      <c r="C403" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="6" t="str">
+      <c r="A404" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-garcilaso</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C404" s="6" t="str">
+      <c r="C404" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="6" t="str">
+      <c r="A405" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-grau</v>
       </c>
       <c r="B405" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C405" s="6" t="str">
+      <c r="C405" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="6" t="str">
+      <c r="A406" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-huancayo</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C406" s="6" t="str">
+      <c r="C406" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="6" t="str">
+      <c r="A407" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>adc-juan-pablo-ii-college</v>
       </c>
       <c r="B407" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C407" s="6" t="str">
+      <c r="C407" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="6" t="str">
+      <c r="A408" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>los-chankas-cyc</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C408" s="6" t="str">
+      <c r="C408" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="6" t="str">
+      <c r="A409" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fbc-melgar</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C409" s="6" t="str">
+      <c r="C409" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="6" t="str">
+      <c r="A410" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-boys</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C410" s="6" t="str">
+      <c r="C410" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="6" t="str">
+      <c r="A411" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sporting-cristal</v>
       </c>
       <c r="B411" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C411" s="6" t="str">
+      <c r="C411" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="6" t="str">
+      <c r="A412" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-universitario-de-deportes</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C412" s="6" t="str">
+      <c r="C412" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>peru</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="6" t="str">
+      <c r="A413" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>arka-gdynia</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C413" s="6" t="str">
+      <c r="C413" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="6" t="str">
+      <c r="A414" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cracovia</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C414" s="6" t="str">
+      <c r="C414" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="6" t="str">
+      <c r="A415" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gornik-zabrze</v>
       </c>
       <c r="B415" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C415" s="6" t="str">
+      <c r="C415" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="6" t="str">
+      <c r="A416" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>jagiellona-bialystok</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C416" s="6" t="str">
+      <c r="C416" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="6" t="str">
+      <c r="A417" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gks-katowice</v>
       </c>
       <c r="B417" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C417" s="6" t="str">
+      <c r="C417" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="6" t="str">
+      <c r="A418" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>korona-kielce</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C418" s="6" t="str">
+      <c r="C418" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="6" t="str">
+      <c r="A419" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lech-poznan</v>
       </c>
       <c r="B419" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C419" s="6" t="str">
+      <c r="C419" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="6" t="str">
+      <c r="A420" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>lechia-gdansk</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C420" s="6" t="str">
+      <c r="C420" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="6" t="str">
+      <c r="A421" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>legia-warsaw</v>
       </c>
       <c r="B421" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C421" s="6" t="str">
+      <c r="C421" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="6" t="str">
+      <c r="A422" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>motor-lublin</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C422" s="6" t="str">
+      <c r="C422" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="6" t="str">
+      <c r="A423" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>piast-gliwice</v>
       </c>
       <c r="B423" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C423" s="6" t="str">
+      <c r="C423" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="6" t="str">
+      <c r="A424" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mks-pogon-szczecin</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C424" s="6" t="str">
+      <c r="C424" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="6" t="str">
+      <c r="A425" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>radomiak-radom</v>
       </c>
       <c r="B425" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C425" s="6" t="str">
+      <c r="C425" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="6" t="str">
+      <c r="A426" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rakow-czestochowa</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C426" s="6" t="str">
+      <c r="C426" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="6" t="str">
+      <c r="A427" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bruk-bet-termalica-nieciecza</v>
       </c>
       <c r="B427" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C427" s="6" t="str">
+      <c r="C427" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="6" t="str">
+      <c r="A428" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rts-widzew-lodz</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C428" s="6" t="str">
+      <c r="C428" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="6" t="str">
+      <c r="A429" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>wisla-plock</v>
       </c>
       <c r="B429" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C429" s="6" t="str">
+      <c r="C429" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="6" t="str">
+      <c r="A430" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>zaglebie-lubin</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C430" s="6" t="str">
+      <c r="C430" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>poland</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="6" t="str">
+      <c r="A431" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>avs-futebol-sad</v>
       </c>
       <c r="B431" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C431" s="6" t="str">
+      <c r="C431" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="6" t="str">
+      <c r="A432" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-alverca</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C432" s="6" t="str">
+      <c r="C432" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="6" t="str">
+      <c r="A433" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-arouca</v>
       </c>
       <c r="B433" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C433" s="6" t="str">
+      <c r="C433" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" s="6" t="str">
+      <c r="A434" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>benfica</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C434" s="6" t="str">
+      <c r="C434" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="6" t="str">
+      <c r="A435" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>braga</v>
       </c>
       <c r="B435" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C435" s="6" t="str">
+      <c r="C435" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="6" t="str">
+      <c r="A436" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>casa-pia-ac</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C436" s="6" t="str">
+      <c r="C436" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="6" t="str">
+      <c r="A437" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gd-estoril-praia</v>
       </c>
       <c r="B437" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C437" s="6" t="str">
+      <c r="C437" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="6" t="str">
+      <c r="A438" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cf-estrela-da-amadora</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C438" s="6" t="str">
+      <c r="C438" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="6" t="str">
+      <c r="A439" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>famalicao</v>
       </c>
       <c r="B439" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C439" s="6" t="str">
+      <c r="C439" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="6" t="str">
+      <c r="A440" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-porto</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C440" s="6" t="str">
+      <c r="C440" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="6" t="str">
+      <c r="A441" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gil-vicente</v>
       </c>
       <c r="B441" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C441" s="6" t="str">
+      <c r="C441" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="6" t="str">
+      <c r="A442" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vitoria-de-guimaraes</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C442" s="6" t="str">
+      <c r="C442" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="6" t="str">
+      <c r="A443" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>moreirense-fc</v>
       </c>
       <c r="B443" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C443" s="6" t="str">
+      <c r="C443" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="6" t="str">
+      <c r="A444" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-nacional</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C444" s="6" t="str">
+      <c r="C444" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" s="6" t="str">
+      <c r="A445" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rio-ave-fc</v>
       </c>
       <c r="B445" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C445" s="6" t="str">
+      <c r="C445" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="6" t="str">
+      <c r="A446" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>santa-clara</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C446" s="6" t="str">
+      <c r="C446" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="6" t="str">
+      <c r="A447" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sporting-cp</v>
       </c>
       <c r="B447" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C447" s="6" t="str">
+      <c r="C447" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="6" t="str">
+      <c r="A448" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-tondela</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C448" s="6" t="str">
+      <c r="C448" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>portugal</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="6" t="str">
+      <c r="A449" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-botosani</v>
       </c>
       <c r="B449" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C449" s="6" t="str">
+      <c r="C449" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="6" t="str">
+      <c r="A450" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cfr-cluj</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C450" s="6" t="str">
+      <c r="C450" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="6" t="str">
+      <c r="A451" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fk-miercurea-ciuc</v>
       </c>
       <c r="B451" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C451" s="6" t="str">
+      <c r="C451" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" s="6" t="str">
+      <c r="A452" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-dinamo-bucuresti</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C452" s="6" t="str">
+      <c r="C452" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="6" t="str">
+      <c r="A453" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-farul-constanta</v>
       </c>
       <c r="B453" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C453" s="6" t="str">
+      <c r="C453" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="6" t="str">
+      <c r="A454" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-arges-pitesti</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C454" s="6" t="str">
+      <c r="C454" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455" s="6" t="str">
+      <c r="A455" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-hermannstadt</v>
       </c>
       <c r="B455" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C455" s="6" t="str">
+      <c r="C455" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="6" t="str">
+      <c r="A456" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-rapid-bucuresti</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C456" s="6" t="str">
+      <c r="C456" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="6" t="str">
+      <c r="A457" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fcsb</v>
       </c>
       <c r="B457" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C457" s="6" t="str">
+      <c r="C457" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="6" t="str">
+      <c r="A458" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-metaloglobus-bucuresti</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C458" s="6" t="str">
+      <c r="C458" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" s="6" t="str">
+      <c r="A459" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>asc-otelul-galati</v>
       </c>
       <c r="B459" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C459" s="6" t="str">
+      <c r="C459" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" s="6" t="str">
+      <c r="A460" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-petrolul-ploiesti</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C460" s="6" t="str">
+      <c r="C460" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" s="6" t="str">
+      <c r="A461" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-universitatea-cluj</v>
       </c>
       <c r="B461" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C461" s="6" t="str">
+      <c r="C461" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="6" t="str">
+      <c r="A462" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>afc-unirea-slobozia</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C462" s="6" t="str">
+      <c r="C462" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="6" t="str">
+      <c r="A463" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cs-universitatea-craiova</v>
       </c>
       <c r="B463" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C463" s="6" t="str">
+      <c r="C463" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" s="6" t="str">
+      <c r="A464" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-uta-arad</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C464" s="6" t="str">
+      <c r="C464" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>romania</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" s="6" t="str">
+      <c r="A465" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-okhdood-club</v>
       </c>
       <c r="B465" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C465" s="6" t="str">
+      <c r="C465" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="6" t="str">
+      <c r="A466" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-fateh-sc</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C466" s="6" t="str">
+      <c r="C466" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" s="6" t="str">
+      <c r="A467" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-fayha-fc</v>
       </c>
       <c r="B467" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C467" s="6" t="str">
+      <c r="C467" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="6" t="str">
+      <c r="A468" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>khaleej-fc</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C468" s="6" t="str">
+      <c r="C468" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" s="6" t="str">
+      <c r="A469" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-kholood-club</v>
       </c>
       <c r="B469" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C469" s="6" t="str">
+      <c r="C469" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" s="6" t="str">
+      <c r="A470" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-orobah-fc</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C470" s="6" t="str">
+      <c r="C470" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="6" t="str">
+      <c r="A471" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-qadsiah-fc</v>
       </c>
       <c r="B471" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C471" s="6" t="str">
+      <c r="C471" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="6" t="str">
+      <c r="A472" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-riyadh-sc</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C472" s="6" t="str">
+      <c r="C472" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" s="6" t="str">
+      <c r="A473" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-ahli-saudi-fc</v>
       </c>
       <c r="B473" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C473" s="6" t="str">
+      <c r="C473" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="6" t="str">
+      <c r="A474" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-ettifaq-fc</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C474" s="6" t="str">
+      <c r="C474" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" s="6" t="str">
+      <c r="A475" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-hilal-fc</v>
       </c>
       <c r="B475" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C475" s="6" t="str">
+      <c r="C475" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" s="6" t="str">
+      <c r="A476" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-ittihad-fc</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C476" s="6" t="str">
+      <c r="C476" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="6" t="str">
+      <c r="A477" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-nassr-fc</v>
       </c>
       <c r="B477" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C477" s="6" t="str">
+      <c r="C477" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" s="6" t="str">
+      <c r="A478" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-raed-fc</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C478" s="6" t="str">
+      <c r="C478" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="6" t="str">
+      <c r="A479" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-shabab-fc</v>
       </c>
       <c r="B479" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C479" s="6" t="str">
+      <c r="C479" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="6" t="str">
+      <c r="A480" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-taawoun-fc</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C480" s="6" t="str">
+      <c r="C480" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" s="6" t="str">
+      <c r="A481" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>al-wehda</v>
       </c>
       <c r="B481" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C481" s="6" t="str">
+      <c r="C481" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="6" t="str">
+      <c r="A482" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>damac-fc</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C482" s="6" t="str">
+      <c r="C482" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>saudi-arabia</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" s="6" t="str">
+      <c r="A483" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aberdeen-fc</v>
       </c>
       <c r="B483" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C483" s="6" t="str">
+      <c r="C483" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" s="6" t="str">
+      <c r="A484" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>celtic-fc</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C484" s="6" t="str">
+      <c r="C484" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" s="6" t="str">
+      <c r="A485" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>dundee-fc</v>
       </c>
       <c r="B485" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C485" s="6" t="str">
+      <c r="C485" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="6" t="str">
+      <c r="A486" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>dundee-united-fc</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C486" s="6" t="str">
+      <c r="C486" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" s="6" t="str">
+      <c r="A487" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>falkirk-fc</v>
       </c>
       <c r="B487" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C487" s="6" t="str">
+      <c r="C487" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="6" t="str">
+      <c r="A488" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>heart-of-midlothian-fc</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C488" s="6" t="str">
+      <c r="C488" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="6" t="str">
+      <c r="A489" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>hibernian-fc</v>
       </c>
       <c r="B489" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C489" s="6" t="str">
+      <c r="C489" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" s="6" t="str">
+      <c r="A490" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kilmarnock-fc</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C490" s="6" t="str">
+      <c r="C490" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" s="6" t="str">
+      <c r="A491" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>livingston-fc</v>
       </c>
       <c r="B491" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C491" s="6" t="str">
+      <c r="C491" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" s="6" t="str">
+      <c r="A492" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>motherwell-fc</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C492" s="6" t="str">
+      <c r="C492" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" s="6" t="str">
+      <c r="A493" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rangers-fc</v>
       </c>
       <c r="B493" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C493" s="6" t="str">
+      <c r="C493" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" s="6" t="str">
+      <c r="A494" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>st-mirren-fc</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C494" s="6" t="str">
+      <c r="C494" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>scotland</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495" s="6" t="str">
+      <c r="A495" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>albacete-balompie</v>
       </c>
       <c r="B495" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C495" s="6" t="str">
+      <c r="C495" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A496" s="6" t="str">
+      <c r="A496" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ud-almeria</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C496" s="6" t="str">
+      <c r="C496" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" s="6" t="str">
+      <c r="A497" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-andorra</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C497" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>burgos-cf</v>
       </c>
-      <c r="B497" s="5" t="s">
+      <c r="B498" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C497" s="6" t="str">
+      <c r="C498" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498" s="6" t="str">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cadiz-cf</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B499" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C498" s="6" t="str">
+      <c r="C499" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-cartagena</v>
-      </c>
-      <c r="B499" s="5" t="s">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cd-castellon</v>
+      </c>
+      <c r="B500" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C499" s="6" t="str">
+      <c r="C500" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>cd-castellon</v>
-      </c>
-      <c r="B500" s="2" t="s">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ad-ceuta-fc</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C501" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cordoba-cf</v>
+      </c>
+      <c r="B502" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C500" s="6" t="str">
+      <c r="C502" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>cordoba-cf</v>
-      </c>
-      <c r="B501" s="5" t="s">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cultural-y-deportiva-leonesa</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C503" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sd-eibar</v>
+      </c>
+      <c r="B504" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C501" s="6" t="str">
+      <c r="C504" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>sd-eibar</v>
-      </c>
-      <c r="B502" s="2" t="s">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sporting-de-gijon</v>
+      </c>
+      <c r="B505" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C502" s="6" t="str">
+      <c r="C505" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>elche-cf</v>
-      </c>
-      <c r="B503" s="5" t="s">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>granada-cf</v>
+      </c>
+      <c r="B506" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C503" s="6" t="str">
+      <c r="C506" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>cd-eldense</v>
-      </c>
-      <c r="B504" s="2" t="s">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sd-huesca</v>
+      </c>
+      <c r="B507" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C504" s="6" t="str">
+      <c r="C507" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>racing-de-ferrol</v>
-      </c>
-      <c r="B505" s="5" t="s">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>deportivo-de-la-coruna</v>
+      </c>
+      <c r="B508" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C505" s="6" t="str">
+      <c r="C508" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>sporting-de-gijon</v>
-      </c>
-      <c r="B506" s="2" t="s">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ud-las-palmas</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C509" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cd-leganes</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C510" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>malaga-cf</v>
+      </c>
+      <c r="B511" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C506" s="6" t="str">
+      <c r="C511" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>granada-cf</v>
-      </c>
-      <c r="B507" s="5" t="s">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cd-mirandes</v>
+      </c>
+      <c r="B512" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C507" s="6" t="str">
+      <c r="C512" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>sd-huesca</v>
-      </c>
-      <c r="B508" s="2" t="s">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>racing-de-santander</v>
+      </c>
+      <c r="B513" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C508" s="6" t="str">
+      <c r="C513" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>deportivo-de-la-coruna</v>
-      </c>
-      <c r="B509" s="5" t="s">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>real-sociedad-b</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C514" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>real-valladolid</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C515" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>spain</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>real-zaragoza</v>
+      </c>
+      <c r="B516" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C509" s="6" t="str">
+      <c r="C516" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>spain</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>levante-ud</v>
-      </c>
-      <c r="B510" s="2" t="s">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>aik</v>
+      </c>
+      <c r="B517" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C510" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>spain</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>malaga-cf</v>
-      </c>
-      <c r="B511" s="5" t="s">
+      <c r="C517" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>if-brommapojkarna</v>
+      </c>
+      <c r="B518" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C511" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>spain</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>cd-mirandes</v>
-      </c>
-      <c r="B512" s="2" t="s">
+      <c r="C518" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>degerfors-if</v>
+      </c>
+      <c r="B519" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C512" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>spain</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>real-oviedo</v>
-      </c>
-      <c r="B513" s="5" t="s">
+      <c r="C519" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>djurgardens-if</v>
+      </c>
+      <c r="B520" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C513" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>spain</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>racing-de-santander</v>
-      </c>
-      <c r="B514" s="2" t="s">
+      <c r="C520" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>if-elfsborg</v>
+      </c>
+      <c r="B521" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C514" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>spain</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A515" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>cd-tenerife</v>
-      </c>
-      <c r="B515" s="5" t="s">
+      <c r="C521" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>gais</v>
+      </c>
+      <c r="B522" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C515" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>spain</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A516" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>real-zaragoza</v>
-      </c>
-      <c r="B516" s="2" t="s">
+      <c r="C522" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ifk-goteborg</v>
+      </c>
+      <c r="B523" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C516" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>spain</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A517" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>aik</v>
-      </c>
-      <c r="B517" s="5" t="s">
+      <c r="C523" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>sweden</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>bk-hacken</v>
+      </c>
+      <c r="B524" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C517" s="6" t="str">
+      <c r="C524" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>sweden</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A518" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>if-brommapojkarna</v>
-      </c>
-      <c r="B518" s="2" t="s">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>halmstads-bk</v>
+      </c>
+      <c r="B525" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C518" s="6" t="str">
+      <c r="C525" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>sweden</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A519" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>degerfors-if</v>
-      </c>
-      <c r="B519" s="5" t="s">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>hammarby-if</v>
+      </c>
+      <c r="B526" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C519" s="6" t="str">
+      <c r="C526" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>sweden</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A520" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>djurgardens-if</v>
-      </c>
-      <c r="B520" s="2" t="s">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>malmo-ff</v>
+      </c>
+      <c r="B527" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C520" s="6" t="str">
+      <c r="C527" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>sweden</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A521" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>if-elfsborg</v>
-      </c>
-      <c r="B521" s="5" t="s">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>mjallby-aif</v>
+      </c>
+      <c r="B528" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C521" s="6" t="str">
+      <c r="C528" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>sweden</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A522" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>gais</v>
-      </c>
-      <c r="B522" s="2" t="s">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ifk-norrkoping</v>
+      </c>
+      <c r="B529" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C522" s="6" t="str">
+      <c r="C529" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>sweden</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A523" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>ifk-goteborg</v>
-      </c>
-      <c r="B523" s="5" t="s">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>osters-if</v>
+      </c>
+      <c r="B530" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C523" s="6" t="str">
+      <c r="C530" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>sweden</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A524" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>bk-hacken</v>
-      </c>
-      <c r="B524" s="2" t="s">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ik-sirius</v>
+      </c>
+      <c r="B531" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C524" s="6" t="str">
+      <c r="C531" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>sweden</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A525" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>halmstads-bk</v>
-      </c>
-      <c r="B525" s="5" t="s">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ifk-varnamo</v>
+      </c>
+      <c r="B532" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C525" s="6" t="str">
+      <c r="C532" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>sweden</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A526" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>hammarby-if</v>
-      </c>
-      <c r="B526" s="2" t="s">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-basel</v>
+      </c>
+      <c r="B533" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="C526" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>sweden</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A527" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>malmo-ff</v>
-      </c>
-      <c r="B527" s="5" t="s">
+      <c r="C533" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>grasshopper-club-zurich</v>
+      </c>
+      <c r="B534" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C527" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>sweden</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A528" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>mjallby-aif</v>
-      </c>
-      <c r="B528" s="2" t="s">
+      <c r="C534" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-lausanne-sport</v>
+      </c>
+      <c r="B535" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C528" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>sweden</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A529" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>ifk-norrkoping</v>
-      </c>
-      <c r="B529" s="5" t="s">
+      <c r="C535" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-lugano</v>
+      </c>
+      <c r="B536" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C529" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>sweden</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A530" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>osters-if</v>
-      </c>
-      <c r="B530" s="2" t="s">
+      <c r="C536" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-luzern</v>
+      </c>
+      <c r="B537" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C530" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>sweden</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>ik-sirius</v>
-      </c>
-      <c r="B531" s="5" t="s">
+      <c r="C537" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>servette-fc</v>
+      </c>
+      <c r="B538" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C531" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>sweden</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A532" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>ifk-varnamo</v>
-      </c>
-      <c r="B532" s="2" t="s">
+      <c r="C538" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-sion</v>
+      </c>
+      <c r="B539" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C532" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>sweden</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A533" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-basel</v>
-      </c>
-      <c r="B533" s="5" t="s">
+      <c r="C539" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>switzerland</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-st-gallen</v>
+      </c>
+      <c r="B540" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C533" s="6" t="str">
+      <c r="C540" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>switzerland</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A534" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>grasshopper-club-zurich</v>
-      </c>
-      <c r="B534" s="2" t="s">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-thun</v>
+      </c>
+      <c r="B541" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C534" s="6" t="str">
+      <c r="C541" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>switzerland</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A535" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-lausanne-sport</v>
-      </c>
-      <c r="B535" s="5" t="s">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-winterthur</v>
+      </c>
+      <c r="B542" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C535" s="6" t="str">
+      <c r="C542" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>switzerland</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-lugano</v>
-      </c>
-      <c r="B536" s="2" t="s">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>bsc-young-boys</v>
+      </c>
+      <c r="B543" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C536" s="6" t="str">
+      <c r="C543" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>switzerland</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-luzern</v>
-      </c>
-      <c r="B537" s="5" t="s">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-zurich</v>
+      </c>
+      <c r="B544" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C537" s="6" t="str">
+      <c r="C544" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>switzerland</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>servette-fc</v>
-      </c>
-      <c r="B538" s="2" t="s">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>alanyaspor</v>
+      </c>
+      <c r="B545" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C538" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>switzerland</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-sion</v>
-      </c>
-      <c r="B539" s="5" t="s">
+      <c r="C545" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>antalyaspor</v>
+      </c>
+      <c r="B546" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C539" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>switzerland</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-st-gallen</v>
-      </c>
-      <c r="B540" s="2" t="s">
+      <c r="C546" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>istanbul-basaksehir-fk</v>
+      </c>
+      <c r="B547" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C540" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>switzerland</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-thun</v>
-      </c>
-      <c r="B541" s="5" t="s">
+      <c r="C547" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>besiktas-jk</v>
+      </c>
+      <c r="B548" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C541" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>switzerland</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A542" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-winterthur</v>
-      </c>
-      <c r="B542" s="2" t="s">
+      <c r="C548" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>eyupspor</v>
+      </c>
+      <c r="B549" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C542" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>switzerland</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A543" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>bsc-young-boys</v>
-      </c>
-      <c r="B543" s="5" t="s">
+      <c r="C549" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fenerbahce-sk</v>
+      </c>
+      <c r="B550" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C543" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>switzerland</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-zurich</v>
-      </c>
-      <c r="B544" s="2" t="s">
+      <c r="C550" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>galatasaray-sk</v>
+      </c>
+      <c r="B551" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C544" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>switzerland</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>alanyaspor</v>
-      </c>
-      <c r="B545" s="5" t="s">
+      <c r="C551" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>turkey</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>gaziantep-fk</v>
+      </c>
+      <c r="B552" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C545" s="6" t="str">
+      <c r="C552" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>antalyaspor</v>
-      </c>
-      <c r="B546" s="2" t="s">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>genclerbirligi-sk</v>
+      </c>
+      <c r="B553" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C546" s="6" t="str">
+      <c r="C553" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A547" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>istanbul-basaksehir-fk</v>
-      </c>
-      <c r="B547" s="5" t="s">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>goztepe-sk</v>
+      </c>
+      <c r="B554" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C547" s="6" t="str">
+      <c r="C554" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>besiktas-jk</v>
-      </c>
-      <c r="B548" s="2" t="s">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fatih-karagumruk-sk</v>
+      </c>
+      <c r="B555" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C548" s="6" t="str">
+      <c r="C555" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A549" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>eyupspor</v>
-      </c>
-      <c r="B549" s="5" t="s">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>kasimpasa-sk</v>
+      </c>
+      <c r="B556" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C549" s="6" t="str">
+      <c r="C556" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A550" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fenerbahce-sk</v>
-      </c>
-      <c r="B550" s="2" t="s">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>kayserispor</v>
+      </c>
+      <c r="B557" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C550" s="6" t="str">
+      <c r="C557" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A551" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>galatasaray-sk</v>
-      </c>
-      <c r="B551" s="5" t="s">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>kocaelispor</v>
+      </c>
+      <c r="B558" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C551" s="6" t="str">
+      <c r="C558" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A552" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>gaziantep-fk</v>
-      </c>
-      <c r="B552" s="2" t="s">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>konyaspor</v>
+      </c>
+      <c r="B559" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C552" s="6" t="str">
+      <c r="C559" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A553" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>genclerbirligi-sk</v>
-      </c>
-      <c r="B553" s="5" t="s">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>caykur-rizespor</v>
+      </c>
+      <c r="B560" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C553" s="6" t="str">
+      <c r="C560" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A554" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>goztepe-sk</v>
-      </c>
-      <c r="B554" s="2" t="s">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>samsunspor</v>
+      </c>
+      <c r="B561" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C554" s="6" t="str">
+      <c r="C561" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A555" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fatih-karagumruk-sk</v>
-      </c>
-      <c r="B555" s="5" t="s">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>trabzonspor</v>
+      </c>
+      <c r="B562" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C555" s="6" t="str">
+      <c r="C562" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>turkey</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A556" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>kasimpasa-sk</v>
-      </c>
-      <c r="B556" s="2" t="s">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>atlanta-united-fc</v>
+      </c>
+      <c r="B563" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C556" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>turkey</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A557" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>kayserispor</v>
-      </c>
-      <c r="B557" s="5" t="s">
+      <c r="C563" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>austin-fc</v>
+      </c>
+      <c r="B564" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C557" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>turkey</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A558" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>kocaelispor</v>
-      </c>
-      <c r="B558" s="2" t="s">
+      <c r="C564" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>club-de-foot-montreal</v>
+      </c>
+      <c r="B565" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C558" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>turkey</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A559" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>konyaspor</v>
-      </c>
-      <c r="B559" s="5" t="s">
+      <c r="C565" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>charlotte-fc</v>
+      </c>
+      <c r="B566" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C559" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>turkey</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A560" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>caykur-rizespor</v>
-      </c>
-      <c r="B560" s="2" t="s">
+      <c r="C566" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>chicago-fire-fc</v>
+      </c>
+      <c r="B567" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="C560" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>turkey</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A561" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>samsunspor</v>
-      </c>
-      <c r="B561" s="5" t="s">
+      <c r="C567" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-cincinnati</v>
+      </c>
+      <c r="B568" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C561" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>turkey</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A562" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>trabzonspor</v>
-      </c>
-      <c r="B562" s="2" t="s">
+      <c r="C568" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>colorado-rapids</v>
+      </c>
+      <c r="B569" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C562" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>turkey</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A563" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>atlanta-united-fc</v>
-      </c>
-      <c r="B563" s="5" t="s">
+      <c r="C569" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>columbus-crew-sc</v>
+      </c>
+      <c r="B570" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C563" s="6" t="str">
+      <c r="C570" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A564" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>austin-fc</v>
-      </c>
-      <c r="B564" s="2" t="s">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>dc-united</v>
+      </c>
+      <c r="B571" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C564" s="6" t="str">
+      <c r="C571" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A565" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>club-de-foot-montreal</v>
-      </c>
-      <c r="B565" s="5" t="s">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>fc-dallas</v>
+      </c>
+      <c r="B572" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C565" s="6" t="str">
+      <c r="C572" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A566" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>charlotte-fc</v>
-      </c>
-      <c r="B566" s="2" t="s">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>houston-dynamo</v>
+      </c>
+      <c r="B573" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C566" s="6" t="str">
+      <c r="C573" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A567" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>chicago-fire-fc</v>
-      </c>
-      <c r="B567" s="5" t="s">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>inter-miami-cf</v>
+      </c>
+      <c r="B574" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C567" s="6" t="str">
+      <c r="C574" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A568" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-cincinnati</v>
-      </c>
-      <c r="B568" s="2" t="s">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>los-angeles-fc</v>
+      </c>
+      <c r="B575" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="C568" s="6" t="str">
+      <c r="C575" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A569" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>colorado-rapids</v>
-      </c>
-      <c r="B569" s="5" t="s">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>los-angeles-galaxy</v>
+      </c>
+      <c r="B576" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C569" s="6" t="str">
+      <c r="C576" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A570" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>columbus-crew-sc</v>
-      </c>
-      <c r="B570" s="2" t="s">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>minnesota-united-fc</v>
+      </c>
+      <c r="B577" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C570" s="6" t="str">
+      <c r="C577" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A571" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>dc-united</v>
-      </c>
-      <c r="B571" s="5" t="s">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>nashville-sc</v>
+      </c>
+      <c r="B578" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C571" s="6" t="str">
+      <c r="C578" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A572" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-dallas</v>
-      </c>
-      <c r="B572" s="2" t="s">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>new-england-revolution</v>
+      </c>
+      <c r="B579" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="C572" s="6" t="str">
+      <c r="C579" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A573" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>houston-dynamo</v>
-      </c>
-      <c r="B573" s="5" t="s">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>new-york-city-fc</v>
+      </c>
+      <c r="B580" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C573" s="6" t="str">
+      <c r="C580" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A574" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>inter-miami-cf</v>
-      </c>
-      <c r="B574" s="2" t="s">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>new-york-red-bulls</v>
+      </c>
+      <c r="B581" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C574" s="6" t="str">
+      <c r="C581" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A575" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>los-angeles-fc</v>
-      </c>
-      <c r="B575" s="5" t="s">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>orlando-city-sc</v>
+      </c>
+      <c r="B582" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C575" s="6" t="str">
+      <c r="C582" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A576" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>los-angeles-galaxy</v>
-      </c>
-      <c r="B576" s="2" t="s">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>philadelphia-union</v>
+      </c>
+      <c r="B583" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C576" s="6" t="str">
+      <c r="C583" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A577" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>minnesota-united-fc</v>
-      </c>
-      <c r="B577" s="5" t="s">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>portland-timbers</v>
+      </c>
+      <c r="B584" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C577" s="6" t="str">
+      <c r="C584" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A578" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>nashville-sc</v>
-      </c>
-      <c r="B578" s="2" t="s">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>real-salt-lake</v>
+      </c>
+      <c r="B585" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C578" s="6" t="str">
+      <c r="C585" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A579" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>new-england-revolution</v>
-      </c>
-      <c r="B579" s="5" t="s">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>san-diego-fc</v>
+      </c>
+      <c r="B586" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C579" s="6" t="str">
+      <c r="C586" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A580" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>new-york-city-fc</v>
-      </c>
-      <c r="B580" s="2" t="s">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>san-jose-earthquakes</v>
+      </c>
+      <c r="B587" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C580" s="6" t="str">
+      <c r="C587" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A581" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>new-york-red-bulls</v>
-      </c>
-      <c r="B581" s="5" t="s">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>seattle-sounders-fc</v>
+      </c>
+      <c r="B588" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C581" s="6" t="str">
+      <c r="C588" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A582" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>orlando-city-sc</v>
-      </c>
-      <c r="B582" s="2" t="s">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sporting-kansas-city</v>
+      </c>
+      <c r="B589" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C582" s="6" t="str">
+      <c r="C589" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A583" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>philadelphia-union</v>
-      </c>
-      <c r="B583" s="5" t="s">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>st-louis-city-sc</v>
+      </c>
+      <c r="B590" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C583" s="6" t="str">
+      <c r="C590" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A584" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>portland-timbers</v>
-      </c>
-      <c r="B584" s="2" t="s">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>toronto-fc</v>
+      </c>
+      <c r="B591" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="C584" s="6" t="str">
+      <c r="C591" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A585" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>real-salt-lake</v>
-      </c>
-      <c r="B585" s="5" t="s">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>vancouver-whitecaps-fc</v>
+      </c>
+      <c r="B592" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C585" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A586" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>san-diego-fc</v>
-      </c>
-      <c r="B586" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C586" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A587" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>san-jose-earthquakes</v>
-      </c>
-      <c r="B587" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="C587" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A588" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>seattle-sounders-fc</v>
-      </c>
-      <c r="B588" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C588" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A589" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>sporting-kansas-city</v>
-      </c>
-      <c r="B589" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="C589" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A590" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>st-louis-city-sc</v>
-      </c>
-      <c r="B590" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C590" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A591" s="6" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>toronto-fc</v>
-      </c>
-      <c r="B591" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="C591" s="6" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A592" s="7" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>vancouver-whitecaps-fc</v>
-      </c>
-      <c r="B592" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C592" s="7" t="str">
+      <c r="C592" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
       </c>

--- a/enlaces_equipos.xlsx
+++ b/enlaces_equipos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://v7hfx-my.sharepoint.com/personal/joseca20_v7hfx_onmicrosoft_com/Documents/web scraping/statsFutbol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7928AFC7-3A1C-465B-9C5E-74C5AEE6F34A}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF8EAACA-B3FF-4F1C-B4B8-A549D35BCBA5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474EBA83-D6A0-4565-BEB0-BC6B2AA992C1}"/>
   </bookViews>
@@ -872,9 +872,6 @@
     <t>europe/france/as-monaco-fc</t>
   </si>
   <si>
-    <t>europe/france/montpellier-hsc</t>
-  </si>
-  <si>
     <t>europe/france/fc-nantes</t>
   </si>
   <si>
@@ -884,15 +881,9 @@
     <t>europe/france/paris-saint-germain-fc</t>
   </si>
   <si>
-    <t>europe/france/stade-de-reims</t>
-  </si>
-  <si>
     <t>europe/france/stade-rennais-fc</t>
   </si>
   <si>
-    <t>europe/france/as-saint-etienne</t>
-  </si>
-  <si>
     <t>europe/france/rc-strasbourg-alsace</t>
   </si>
   <si>
@@ -965,9 +956,6 @@
     <t>europe/italy/como-1907</t>
   </si>
   <si>
-    <t>europe/italy/empoli-fc</t>
-  </si>
-  <si>
     <t>europe/italy/acf-fiorentina</t>
   </si>
   <si>
@@ -986,9 +974,6 @@
     <t>europe/italy/us-lecce</t>
   </si>
   <si>
-    <t>europe/italy/ac-monza</t>
-  </si>
-  <si>
     <t>europe/italy/ssc-napoli</t>
   </si>
   <si>
@@ -1001,9 +986,6 @@
     <t>europe/italy/udinese-calcio</t>
   </si>
   <si>
-    <t>europe/italy/venezia-fc</t>
-  </si>
-  <si>
     <t>europe/italy/hellas-verona-fc</t>
   </si>
   <si>
@@ -1755,6 +1737,24 @@
   </si>
   <si>
     <t>europe/germany/hamburger-sv</t>
+  </si>
+  <si>
+    <t>europe/italy/us-cremonese</t>
+  </si>
+  <si>
+    <t>europe/italy/ac-pisa-1909</t>
+  </si>
+  <si>
+    <t>europe/italy/us-sassuolo-calcio</t>
+  </si>
+  <si>
+    <t>europe/france/fc-lorient</t>
+  </si>
+  <si>
+    <t>europe/france/fc-metz</t>
+  </si>
+  <si>
+    <t>europe/france/paris-fc</t>
   </si>
 </sst>
 </file>
@@ -1876,10 +1876,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2197,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3E121-4DD2-4C5A-A60B-ED62DD98B116}">
   <dimension ref="A1:C592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="B304" sqref="B304:B321"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268:B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5759,10 +5755,10 @@
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>olympique-lyonnais</v>
+        <v>fc-lorient</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>275</v>
+        <v>570</v>
       </c>
       <c r="C274" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5772,10 +5768,10 @@
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>olympique-de-marseille</v>
+        <v>olympique-lyonnais</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C275" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5785,10 +5781,10 @@
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>as-monaco-fc</v>
+        <v>olympique-de-marseille</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C276" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5798,10 +5794,10 @@
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>montpellier-hsc</v>
+        <v>fc-metz</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>278</v>
+        <v>571</v>
       </c>
       <c r="C277" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5811,10 +5807,10 @@
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>fc-nantes</v>
+        <v>as-monaco-fc</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C278" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5824,10 +5820,10 @@
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>ogc-nice</v>
+        <v>fc-nantes</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C279" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5837,10 +5833,10 @@
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>paris-saint-germain-fc</v>
+        <v>ogc-nice</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C280" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5850,10 +5846,10 @@
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>stade-de-reims</v>
+        <v>paris-fc</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>282</v>
+        <v>572</v>
       </c>
       <c r="C281" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5863,10 +5859,10 @@
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>stade-rennais-fc</v>
+        <v>paris-saint-germain-fc</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C282" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5876,10 +5872,10 @@
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>as-saint-etienne</v>
+        <v>stade-rennais-fc</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C283" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5892,7 +5888,7 @@
         <v>rc-strasbourg-alsace</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C284" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5905,7 +5901,7 @@
         <v>toulouse-fc</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C285" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5970,7 +5966,7 @@
         <v>fc-koln</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C290" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6009,7 +6005,7 @@
         <v>hamburger-sv</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C293" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6152,7 +6148,7 @@
         <v>arminia-bielefeld</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C304" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6178,7 +6174,7 @@
         <v>eintracht-braunschweig</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C306" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6191,7 +6187,7 @@
         <v>darmstadt-98</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C307" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6204,7 +6200,7 @@
         <v>dynamo-dresden</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C308" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6217,7 +6213,7 @@
         <v>fortuna-dusseldorf</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C309" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6230,7 +6226,7 @@
         <v>sv-elversberg</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C310" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6243,7 +6239,7 @@
         <v>greuther-furth</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C311" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6256,7 +6252,7 @@
         <v>hannover-96</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C312" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6269,7 +6265,7 @@
         <v>hertha-berlin</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C313" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6282,7 +6278,7 @@
         <v>fc-kaiserslautern</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C314" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6295,7 +6291,7 @@
         <v>karlsruher-sc</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C315" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6321,7 +6317,7 @@
         <v>fc-magdeburg</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C317" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6334,7 +6330,7 @@
         <v>preussen-munster</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C318" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6347,7 +6343,7 @@
         <v>fc-nurnberg</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C319" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6360,7 +6356,7 @@
         <v>sc-paderborn</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C320" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6373,7 +6369,7 @@
         <v>schalke-04</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C321" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6386,7 +6382,7 @@
         <v>ac-milan</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C322" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6399,7 +6395,7 @@
         <v>as-roma</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C323" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6412,7 +6408,7 @@
         <v>atalanta-bc</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C324" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6425,7 +6421,7 @@
         <v>bologna-fc-1909</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C325" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6438,7 +6434,7 @@
         <v>cagliari-calcio</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C326" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6451,7 +6447,7 @@
         <v>como-1907</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C327" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6461,10 +6457,10 @@
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>empoli-fc</v>
+        <v>us-cremonese</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>309</v>
+        <v>567</v>
       </c>
       <c r="C328" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6477,7 +6473,7 @@
         <v>acf-fiorentina</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C329" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6490,7 +6486,7 @@
         <v>genoa-cfc</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C330" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6503,7 +6499,7 @@
         <v>inter-milan</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C331" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6516,7 +6512,7 @@
         <v>juventus-fc</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C332" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6529,7 +6525,7 @@
         <v>ss-lazio</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C333" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6542,7 +6538,7 @@
         <v>us-lecce</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C334" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6552,10 +6548,10 @@
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>ac-monza</v>
+        <v>ssc-napoli</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C335" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6565,10 +6561,10 @@
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>ssc-napoli</v>
+        <v>parma-calcio-1913</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C336" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6578,10 +6574,10 @@
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>parma-calcio-1913</v>
+        <v>ac-pisa-1909</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>318</v>
+        <v>568</v>
       </c>
       <c r="C337" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6591,10 +6587,10 @@
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>torino-fc</v>
+        <v>us-sassuolo-calcio</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>319</v>
+        <v>569</v>
       </c>
       <c r="C338" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6604,10 +6600,10 @@
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>udinese-calcio</v>
+        <v>torino-fc</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C339" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6617,10 +6613,10 @@
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>venezia-fc</v>
+        <v>udinese-calcio</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C340" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6633,7 +6629,7 @@
         <v>hellas-verona-fc</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C341" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6646,7 +6642,7 @@
         <v>atletico-san-luis</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C342" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6659,7 +6655,7 @@
         <v>atlas-fc</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C343" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6672,7 +6668,7 @@
         <v>club-america</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C344" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6685,7 +6681,7 @@
         <v>cruz-azul</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C345" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6698,7 +6694,7 @@
         <v>cd-guadalajara</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C346" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6711,7 +6707,7 @@
         <v>fc-juarez</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C347" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6724,7 +6720,7 @@
         <v>club-leon</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C348" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6737,7 +6733,7 @@
         <v>mazatlan-fc</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C349" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6750,7 +6746,7 @@
         <v>cf-monterrey</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C350" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6763,7 +6759,7 @@
         <v>club-necaxa</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C351" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6776,7 +6772,7 @@
         <v>cf-pachuca</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C352" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6789,7 +6785,7 @@
         <v>club-puebla</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C353" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6802,7 +6798,7 @@
         <v>queretaro-fc</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C354" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6815,7 +6811,7 @@
         <v>santos-laguna</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C355" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6828,7 +6824,7 @@
         <v>tigres-uanl</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C356" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6841,7 +6837,7 @@
         <v>club-tijuana</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C357" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6854,7 +6850,7 @@
         <v>deportivo-toluca-fc</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C358" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6867,7 +6863,7 @@
         <v>unam</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C359" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6880,7 +6876,7 @@
         <v>afc-ajax</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C360" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6893,7 +6889,7 @@
         <v>az-alkmaar</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C361" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6906,7 +6902,7 @@
         <v>sbv-excelsior</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C362" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6919,7 +6915,7 @@
         <v>fc-volendam</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C363" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6932,7 +6928,7 @@
         <v>feyenoord-rotterdam</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C364" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6945,7 +6941,7 @@
         <v>go-ahead-eagles</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C365" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6958,7 +6954,7 @@
         <v>fc-groningen</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C366" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6971,7 +6967,7 @@
         <v>sc-heerenveen</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C367" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6984,7 +6980,7 @@
         <v>heracles-almelo</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C368" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6997,7 +6993,7 @@
         <v>nac-breda</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C369" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7010,7 +7006,7 @@
         <v>nec-nijmegen</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C370" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7023,7 +7019,7 @@
         <v>psv-eindhoven</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C371" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7036,7 +7032,7 @@
         <v>fortuna-sittard</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C372" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7049,7 +7045,7 @@
         <v>sparta-rotterdam</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C373" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7062,7 +7058,7 @@
         <v>sc-telstar</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C374" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7075,7 +7071,7 @@
         <v>fc-twente</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C375" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7088,7 +7084,7 @@
         <v>fc-utrecht</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C376" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7101,7 +7097,7 @@
         <v>pec-zwolle</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C377" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7114,7 +7110,7 @@
         <v>fk-bodo-glimt</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C378" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7127,7 +7123,7 @@
         <v>sk-brann</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C379" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7140,7 +7136,7 @@
         <v>bryne-fk</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C380" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7153,7 +7149,7 @@
         <v>fredrikstad-fk</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C381" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7166,7 +7162,7 @@
         <v>ham-kam</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C382" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7179,7 +7175,7 @@
         <v>fk-haugesund</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C383" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7192,7 +7188,7 @@
         <v>kfum-kameratene-oslo</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C384" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7205,7 +7201,7 @@
         <v>kristiansund-bk</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C385" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7218,7 +7214,7 @@
         <v>molde-fk</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C386" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7231,7 +7227,7 @@
         <v>rosenborg-bk</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C387" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7244,7 +7240,7 @@
         <v>sandefjord-fotball</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C388" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7257,7 +7253,7 @@
         <v>sarpsborg-08-ff</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C389" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7270,7 +7266,7 @@
         <v>stromsgodset</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C390" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7283,7 +7279,7 @@
         <v>tromso-il</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C391" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7296,7 +7292,7 @@
         <v>valerenga-fotball</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C392" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7309,7 +7305,7 @@
         <v>viking-fk</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C393" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7322,7 +7318,7 @@
         <v>alianza-lima</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C394" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7335,7 +7331,7 @@
         <v>asociacion-deportiva-tarma</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C395" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7348,7 +7344,7 @@
         <v>alianza-atletico</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C396" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7361,7 +7357,7 @@
         <v>alianza-universidad-de-huanuco</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C397" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7374,7 +7370,7 @@
         <v>ayacucho-fc</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C398" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7387,7 +7383,7 @@
         <v>deportivo-binacional</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C399" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7400,7 +7396,7 @@
         <v>universidad-tecnica-de-cajamarca</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C400" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7413,7 +7409,7 @@
         <v>club-sportivo-cienciano</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C401" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7426,7 +7422,7 @@
         <v>comerciantes-unidos</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C402" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7439,7 +7435,7 @@
         <v>cusco-fc</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C403" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7452,7 +7448,7 @@
         <v>deportivo-garcilaso</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C404" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7465,7 +7461,7 @@
         <v>atletico-grau</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C405" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7478,7 +7474,7 @@
         <v>sport-huancayo</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C406" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7491,7 +7487,7 @@
         <v>adc-juan-pablo-ii-college</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C407" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7504,7 +7500,7 @@
         <v>los-chankas-cyc</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C408" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7517,7 +7513,7 @@
         <v>fbc-melgar</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C409" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7530,7 +7526,7 @@
         <v>sport-boys</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C410" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7543,7 +7539,7 @@
         <v>sporting-cristal</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C411" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7556,7 +7552,7 @@
         <v>club-universitario-de-deportes</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C412" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7569,7 +7565,7 @@
         <v>arka-gdynia</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C413" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7582,7 +7578,7 @@
         <v>cracovia</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C414" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7595,7 +7591,7 @@
         <v>gornik-zabrze</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C415" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7608,7 +7604,7 @@
         <v>jagiellona-bialystok</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C416" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7621,7 +7617,7 @@
         <v>gks-katowice</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C417" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7634,7 +7630,7 @@
         <v>korona-kielce</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C418" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7647,7 +7643,7 @@
         <v>lech-poznan</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C419" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7660,7 +7656,7 @@
         <v>lechia-gdansk</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C420" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7673,7 +7669,7 @@
         <v>legia-warsaw</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C421" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7686,7 +7682,7 @@
         <v>motor-lublin</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C422" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7699,7 +7695,7 @@
         <v>piast-gliwice</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C423" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7712,7 +7708,7 @@
         <v>mks-pogon-szczecin</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C424" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7725,7 +7721,7 @@
         <v>radomiak-radom</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C425" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7738,7 +7734,7 @@
         <v>rakow-czestochowa</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C426" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7751,7 +7747,7 @@
         <v>bruk-bet-termalica-nieciecza</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C427" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7764,7 +7760,7 @@
         <v>rts-widzew-lodz</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C428" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7777,7 +7773,7 @@
         <v>wisla-plock</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C429" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7790,7 +7786,7 @@
         <v>zaglebie-lubin</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C430" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7803,7 +7799,7 @@
         <v>avs-futebol-sad</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C431" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7816,7 +7812,7 @@
         <v>fc-alverca</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C432" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7829,7 +7825,7 @@
         <v>fc-arouca</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C433" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7842,7 +7838,7 @@
         <v>benfica</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C434" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7855,7 +7851,7 @@
         <v>braga</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C435" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7868,7 +7864,7 @@
         <v>casa-pia-ac</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C436" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7881,7 +7877,7 @@
         <v>gd-estoril-praia</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C437" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7894,7 +7890,7 @@
         <v>cf-estrela-da-amadora</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C438" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7907,7 +7903,7 @@
         <v>famalicao</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C439" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7920,7 +7916,7 @@
         <v>fc-porto</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C440" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7933,7 +7929,7 @@
         <v>gil-vicente</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C441" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7946,7 +7942,7 @@
         <v>vitoria-de-guimaraes</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C442" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7959,7 +7955,7 @@
         <v>moreirense-fc</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C443" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7972,7 +7968,7 @@
         <v>cd-nacional</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C444" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7985,7 +7981,7 @@
         <v>rio-ave-fc</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C445" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7998,7 +7994,7 @@
         <v>santa-clara</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C446" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8011,7 +8007,7 @@
         <v>sporting-cp</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C447" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8024,7 +8020,7 @@
         <v>cd-tondela</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C448" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8037,7 +8033,7 @@
         <v>fc-botosani</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C449" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8050,7 +8046,7 @@
         <v>cfr-cluj</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C450" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8063,7 +8059,7 @@
         <v>fk-miercurea-ciuc</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C451" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8076,7 +8072,7 @@
         <v>fc-dinamo-bucuresti</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C452" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8089,7 +8085,7 @@
         <v>fc-farul-constanta</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C453" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8102,7 +8098,7 @@
         <v>fc-arges-pitesti</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C454" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8115,7 +8111,7 @@
         <v>fc-hermannstadt</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C455" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8128,7 +8124,7 @@
         <v>fc-rapid-bucuresti</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C456" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8141,7 +8137,7 @@
         <v>fcsb</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C457" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8154,7 +8150,7 @@
         <v>fc-metaloglobus-bucuresti</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C458" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8167,7 +8163,7 @@
         <v>asc-otelul-galati</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C459" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8180,7 +8176,7 @@
         <v>fc-petrolul-ploiesti</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C460" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8193,7 +8189,7 @@
         <v>fc-universitatea-cluj</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C461" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8206,7 +8202,7 @@
         <v>afc-unirea-slobozia</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C462" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8219,7 +8215,7 @@
         <v>cs-universitatea-craiova</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C463" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8232,7 +8228,7 @@
         <v>fc-uta-arad</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C464" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8245,7 +8241,7 @@
         <v>al-okhdood-club</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C465" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8258,7 +8254,7 @@
         <v>al-fateh-sc</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C466" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8271,7 +8267,7 @@
         <v>al-fayha-fc</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C467" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8284,7 +8280,7 @@
         <v>khaleej-fc</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C468" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8297,7 +8293,7 @@
         <v>al-kholood-club</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C469" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8310,7 +8306,7 @@
         <v>al-orobah-fc</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C470" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8323,7 +8319,7 @@
         <v>al-qadsiah-fc</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C471" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8336,7 +8332,7 @@
         <v>al-riyadh-sc</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C472" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8349,7 +8345,7 @@
         <v>al-ahli-saudi-fc</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C473" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8362,7 +8358,7 @@
         <v>al-ettifaq-fc</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C474" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8375,7 +8371,7 @@
         <v>al-hilal-fc</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C475" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8388,7 +8384,7 @@
         <v>al-ittihad-fc</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C476" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8401,7 +8397,7 @@
         <v>al-nassr-fc</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C477" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8414,7 +8410,7 @@
         <v>al-raed-fc</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C478" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8427,7 +8423,7 @@
         <v>al-shabab-fc</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C479" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8440,7 +8436,7 @@
         <v>al-taawoun-fc</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C480" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8453,7 +8449,7 @@
         <v>al-wehda</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C481" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8466,7 +8462,7 @@
         <v>damac-fc</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C482" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8479,7 +8475,7 @@
         <v>aberdeen-fc</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C483" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8492,7 +8488,7 @@
         <v>celtic-fc</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C484" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8505,7 +8501,7 @@
         <v>dundee-fc</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C485" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8518,7 +8514,7 @@
         <v>dundee-united-fc</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C486" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8531,7 +8527,7 @@
         <v>falkirk-fc</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C487" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8544,7 +8540,7 @@
         <v>heart-of-midlothian-fc</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C488" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8557,7 +8553,7 @@
         <v>hibernian-fc</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C489" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8570,7 +8566,7 @@
         <v>kilmarnock-fc</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C490" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8583,7 +8579,7 @@
         <v>livingston-fc</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C491" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8596,7 +8592,7 @@
         <v>motherwell-fc</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C492" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8609,7 +8605,7 @@
         <v>rangers-fc</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C493" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8622,7 +8618,7 @@
         <v>st-mirren-fc</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C494" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8635,7 +8631,7 @@
         <v>albacete-balompie</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C495" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8648,7 +8644,7 @@
         <v>ud-almeria</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C496" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8661,7 +8657,7 @@
         <v>fc-andorra</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C497" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8674,7 +8670,7 @@
         <v>burgos-cf</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C498" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8687,7 +8683,7 @@
         <v>cadiz-cf</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C499" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8700,7 +8696,7 @@
         <v>cd-castellon</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C500" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8713,7 +8709,7 @@
         <v>ad-ceuta-fc</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C501" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8726,7 +8722,7 @@
         <v>cordoba-cf</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C502" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8739,7 +8735,7 @@
         <v>cultural-y-deportiva-leonesa</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C503" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8752,7 +8748,7 @@
         <v>sd-eibar</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C504" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8765,7 +8761,7 @@
         <v>sporting-de-gijon</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C505" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8778,7 +8774,7 @@
         <v>granada-cf</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C506" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8791,7 +8787,7 @@
         <v>sd-huesca</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C507" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8804,7 +8800,7 @@
         <v>deportivo-de-la-coruna</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C508" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8843,7 +8839,7 @@
         <v>malaga-cf</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C511" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8856,7 +8852,7 @@
         <v>cd-mirandes</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C512" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8869,7 +8865,7 @@
         <v>racing-de-santander</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C513" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8882,7 +8878,7 @@
         <v>real-sociedad-b</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C514" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8908,7 +8904,7 @@
         <v>real-zaragoza</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C516" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8921,7 +8917,7 @@
         <v>aik</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C517" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8934,7 +8930,7 @@
         <v>if-brommapojkarna</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C518" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8947,7 +8943,7 @@
         <v>degerfors-if</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C519" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8960,7 +8956,7 @@
         <v>djurgardens-if</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C520" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8973,7 +8969,7 @@
         <v>if-elfsborg</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C521" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8986,7 +8982,7 @@
         <v>gais</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C522" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8999,7 +8995,7 @@
         <v>ifk-goteborg</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C523" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9012,7 +9008,7 @@
         <v>bk-hacken</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C524" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9025,7 +9021,7 @@
         <v>halmstads-bk</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C525" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9038,7 +9034,7 @@
         <v>hammarby-if</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C526" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9051,7 +9047,7 @@
         <v>malmo-ff</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C527" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9064,7 +9060,7 @@
         <v>mjallby-aif</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C528" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9077,7 +9073,7 @@
         <v>ifk-norrkoping</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C529" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9090,7 +9086,7 @@
         <v>osters-if</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C530" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9103,7 +9099,7 @@
         <v>ik-sirius</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C531" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9116,7 +9112,7 @@
         <v>ifk-varnamo</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C532" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9129,7 +9125,7 @@
         <v>fc-basel</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C533" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9142,7 +9138,7 @@
         <v>grasshopper-club-zurich</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C534" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9155,7 +9151,7 @@
         <v>fc-lausanne-sport</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C535" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9168,7 +9164,7 @@
         <v>fc-lugano</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C536" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9181,7 +9177,7 @@
         <v>fc-luzern</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C537" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9194,7 +9190,7 @@
         <v>servette-fc</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C538" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9207,7 +9203,7 @@
         <v>fc-sion</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C539" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9220,7 +9216,7 @@
         <v>fc-st-gallen</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C540" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9233,7 +9229,7 @@
         <v>fc-thun</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C541" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9246,7 +9242,7 @@
         <v>fc-winterthur</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C542" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9259,7 +9255,7 @@
         <v>bsc-young-boys</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C543" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9272,7 +9268,7 @@
         <v>fc-zurich</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C544" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9285,7 +9281,7 @@
         <v>alanyaspor</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C545" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9298,7 +9294,7 @@
         <v>antalyaspor</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C546" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9311,7 +9307,7 @@
         <v>istanbul-basaksehir-fk</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C547" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9324,7 +9320,7 @@
         <v>besiktas-jk</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C548" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9337,7 +9333,7 @@
         <v>eyupspor</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C549" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9350,7 +9346,7 @@
         <v>fenerbahce-sk</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C550" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9363,7 +9359,7 @@
         <v>galatasaray-sk</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C551" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9376,7 +9372,7 @@
         <v>gaziantep-fk</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C552" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9389,7 +9385,7 @@
         <v>genclerbirligi-sk</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C553" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9402,7 +9398,7 @@
         <v>goztepe-sk</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C554" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9415,7 +9411,7 @@
         <v>fatih-karagumruk-sk</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C555" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9428,7 +9424,7 @@
         <v>kasimpasa-sk</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C556" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9441,7 +9437,7 @@
         <v>kayserispor</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C557" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9454,7 +9450,7 @@
         <v>kocaelispor</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C558" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9467,7 +9463,7 @@
         <v>konyaspor</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C559" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9480,7 +9476,7 @@
         <v>caykur-rizespor</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C560" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9493,7 +9489,7 @@
         <v>samsunspor</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C561" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9506,7 +9502,7 @@
         <v>trabzonspor</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C562" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9519,7 +9515,7 @@
         <v>atlanta-united-fc</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C563" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9532,7 +9528,7 @@
         <v>austin-fc</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C564" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9545,7 +9541,7 @@
         <v>club-de-foot-montreal</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C565" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9558,7 +9554,7 @@
         <v>charlotte-fc</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C566" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9571,7 +9567,7 @@
         <v>chicago-fire-fc</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C567" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9584,7 +9580,7 @@
         <v>fc-cincinnati</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C568" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9597,7 +9593,7 @@
         <v>colorado-rapids</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C569" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9610,7 +9606,7 @@
         <v>columbus-crew-sc</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C570" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9623,7 +9619,7 @@
         <v>dc-united</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C571" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9636,7 +9632,7 @@
         <v>fc-dallas</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C572" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9649,7 +9645,7 @@
         <v>houston-dynamo</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C573" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9662,7 +9658,7 @@
         <v>inter-miami-cf</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C574" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9675,7 +9671,7 @@
         <v>los-angeles-fc</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C575" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9688,7 +9684,7 @@
         <v>los-angeles-galaxy</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C576" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9701,7 +9697,7 @@
         <v>minnesota-united-fc</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C577" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9714,7 +9710,7 @@
         <v>nashville-sc</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C578" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9727,7 +9723,7 @@
         <v>new-england-revolution</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C579" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9740,7 +9736,7 @@
         <v>new-york-city-fc</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C580" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9753,7 +9749,7 @@
         <v>new-york-red-bulls</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C581" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9766,7 +9762,7 @@
         <v>orlando-city-sc</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C582" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9779,7 +9775,7 @@
         <v>philadelphia-union</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C583" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9792,7 +9788,7 @@
         <v>portland-timbers</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C584" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9805,7 +9801,7 @@
         <v>real-salt-lake</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C585" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9818,7 +9814,7 @@
         <v>san-diego-fc</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C586" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9831,7 +9827,7 @@
         <v>san-jose-earthquakes</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C587" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9844,7 +9840,7 @@
         <v>seattle-sounders-fc</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C588" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9857,7 +9853,7 @@
         <v>sporting-kansas-city</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C589" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9870,7 +9866,7 @@
         <v>st-louis-city-sc</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C590" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9883,7 +9879,7 @@
         <v>toronto-fc</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C591" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9896,7 +9892,7 @@
         <v>vancouver-whitecaps-fc</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C592" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>

--- a/enlaces_equipos.xlsx
+++ b/enlaces_equipos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://v7hfx-my.sharepoint.com/personal/joseca20_v7hfx_onmicrosoft_com/Documents/web scraping/statsFutbol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF8EAACA-B3FF-4F1C-B4B8-A549D35BCBA5}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FC6BA93-0AB7-42F4-B5A3-0D99AA31BE5C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474EBA83-D6A0-4565-BEB0-BC6B2AA992C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="620">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1755,6 +1755,147 @@
   </si>
   <si>
     <t>europe/france/paris-fc</t>
+  </si>
+  <si>
+    <t>europe/spain/elche-cf</t>
+  </si>
+  <si>
+    <t>europe/spain/levante-ud</t>
+  </si>
+  <si>
+    <t>europe/spain/real-oviedo</t>
+  </si>
+  <si>
+    <t>europe/greece/aek-athens-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/ael-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/aris-thessaloniki-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/asteras-tripolis-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/atromitos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/ae-kifisia-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/levadiakos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/ofi-crete-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/olympiacos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/panathinaikos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/panetolikos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/panserraikos-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/paok-fc</t>
+  </si>
+  <si>
+    <t>europe/greece/volos-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/sd-aucas</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/barcelona-sc</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/delfin-sc</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/cd-cuenca</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/cd-el-nacional</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/cs-emelec</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/csd-independiente-del-valle</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/ldu-quito</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/libertad-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/csd-macara</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/manta-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/mushuc-runa-sc</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/orense-sc</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/tecnico-universitario</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/cd-universidad-catolica</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/vinotinto-fc-ecuador</t>
+  </si>
+  <si>
+    <t>europe/cyprus/ethnikos-achna-fc</t>
+  </si>
+  <si>
+    <t>europe/cyprus/aek-larnaca-fc</t>
+  </si>
+  <si>
+    <t>europe/cyprus/ael-limassol</t>
+  </si>
+  <si>
+    <t>europe/cyprus/anorthosis-famagusta-fc</t>
+  </si>
+  <si>
+    <t>europe/cyprus/apoel-fc</t>
+  </si>
+  <si>
+    <t>europe/cyprus/apollon-limassol</t>
+  </si>
+  <si>
+    <t>europe/cyprus/aris-limassol-fc</t>
+  </si>
+  <si>
+    <t>europe/cyprus/akritas-chlorakas</t>
+  </si>
+  <si>
+    <t>europe/cyprus/olympiakos-nicosia</t>
+  </si>
+  <si>
+    <t>europe/cyprus/ac-omonia</t>
+  </si>
+  <si>
+    <t>europe/cyprus/omonia-aradippou</t>
+  </si>
+  <si>
+    <t>europe/cyprus/pafos-fc</t>
+  </si>
+  <si>
+    <t>europe/cyprus/enosis-neon-paralimni-fc</t>
+  </si>
+  <si>
+    <t>europe/cyprus/krasava-eny-ypsonas-fc</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1845,6 +1986,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1879,8 +2021,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:C592" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:C592" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:C636" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:C636" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{94084D0E-9EB8-4AA2-8B8F-47973A2CEB88}" name="EQUIPO" dataDxfId="1">
       <calculatedColumnFormula>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</calculatedColumnFormula>
@@ -2191,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3E121-4DD2-4C5A-A60B-ED62DD98B116}">
-  <dimension ref="A1:C592"/>
+  <dimension ref="A1:C636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="B268" sqref="B268:B285"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="B623" sqref="B623:B636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2817,10 +2959,10 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>rcd-espanyol</v>
+        <v>elche-cf</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>49</v>
+        <v>573</v>
       </c>
       <c r="C48" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2830,10 +2972,10 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>getafe-cf</v>
+        <v>rcd-espanyol</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2843,10 +2985,10 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>girona-fc</v>
+        <v>getafe-cf</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2856,10 +2998,10 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>ud-las-palmas</v>
+        <v>girona-fc</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2869,10 +3011,10 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>cd-leganes</v>
+        <v>levante-ud</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>53</v>
+        <v>574</v>
       </c>
       <c r="C52" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2908,10 +3050,10 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>rayo-vallecano</v>
+        <v>real-oviedo</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
+        <v>575</v>
       </c>
       <c r="C55" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2921,10 +3063,10 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>real-madrid-cf</v>
+        <v>rayo-vallecano</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2934,10 +3076,10 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>real-sociedad</v>
+        <v>real-madrid-cf</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2947,10 +3089,10 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>sevilla-fc</v>
+        <v>real-sociedad</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2960,10 +3102,10 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>valencia-cf</v>
+        <v>sevilla-fc</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2973,10 +3115,10 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>real-valladolid</v>
+        <v>valencia-cf</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9897,6 +10039,578 @@
       <c r="C592" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>usa</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>aek-athens-fc</v>
+      </c>
+      <c r="B593" t="s">
+        <v>576</v>
+      </c>
+      <c r="C593" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ael-fc</v>
+      </c>
+      <c r="B594" t="s">
+        <v>577</v>
+      </c>
+      <c r="C594" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>aris-thessaloniki-fc</v>
+      </c>
+      <c r="B595" t="s">
+        <v>578</v>
+      </c>
+      <c r="C595" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>asteras-tripolis-fc</v>
+      </c>
+      <c r="B596" t="s">
+        <v>579</v>
+      </c>
+      <c r="C596" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>atromitos-fc</v>
+      </c>
+      <c r="B597" t="s">
+        <v>580</v>
+      </c>
+      <c r="C597" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ae-kifisia-fc</v>
+      </c>
+      <c r="B598" t="s">
+        <v>581</v>
+      </c>
+      <c r="C598" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>levadiakos-fc</v>
+      </c>
+      <c r="B599" t="s">
+        <v>582</v>
+      </c>
+      <c r="C599" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ofi-crete-fc</v>
+      </c>
+      <c r="B600" t="s">
+        <v>583</v>
+      </c>
+      <c r="C600" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>olympiacos-fc</v>
+      </c>
+      <c r="B601" t="s">
+        <v>584</v>
+      </c>
+      <c r="C601" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>panathinaikos-fc</v>
+      </c>
+      <c r="B602" t="s">
+        <v>585</v>
+      </c>
+      <c r="C602" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>panetolikos-fc</v>
+      </c>
+      <c r="B603" t="s">
+        <v>586</v>
+      </c>
+      <c r="C603" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>panserraikos-fc</v>
+      </c>
+      <c r="B604" t="s">
+        <v>587</v>
+      </c>
+      <c r="C604" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>paok-fc</v>
+      </c>
+      <c r="B605" t="s">
+        <v>588</v>
+      </c>
+      <c r="C605" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>volos-fc</v>
+      </c>
+      <c r="B606" t="s">
+        <v>589</v>
+      </c>
+      <c r="C606" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>greece</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sd-aucas</v>
+      </c>
+      <c r="B607" t="s">
+        <v>590</v>
+      </c>
+      <c r="C607" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>barcelona-sc</v>
+      </c>
+      <c r="B608" t="s">
+        <v>591</v>
+      </c>
+      <c r="C608" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A609" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>delfin-sc</v>
+      </c>
+      <c r="B609" t="s">
+        <v>592</v>
+      </c>
+      <c r="C609" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A610" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cd-cuenca</v>
+      </c>
+      <c r="B610" t="s">
+        <v>593</v>
+      </c>
+      <c r="C610" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cd-el-nacional</v>
+      </c>
+      <c r="B611" t="s">
+        <v>594</v>
+      </c>
+      <c r="C611" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cs-emelec</v>
+      </c>
+      <c r="B612" t="s">
+        <v>595</v>
+      </c>
+      <c r="C612" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A613" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>csd-independiente-del-valle</v>
+      </c>
+      <c r="B613" t="s">
+        <v>596</v>
+      </c>
+      <c r="C613" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A614" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ldu-quito</v>
+      </c>
+      <c r="B614" t="s">
+        <v>597</v>
+      </c>
+      <c r="C614" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A615" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>libertad-fc</v>
+      </c>
+      <c r="B615" t="s">
+        <v>598</v>
+      </c>
+      <c r="C615" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A616" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>csd-macara</v>
+      </c>
+      <c r="B616" t="s">
+        <v>599</v>
+      </c>
+      <c r="C616" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A617" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>manta-fc</v>
+      </c>
+      <c r="B617" t="s">
+        <v>600</v>
+      </c>
+      <c r="C617" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A618" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>mushuc-runa-sc</v>
+      </c>
+      <c r="B618" t="s">
+        <v>601</v>
+      </c>
+      <c r="C618" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A619" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>orense-sc</v>
+      </c>
+      <c r="B619" t="s">
+        <v>602</v>
+      </c>
+      <c r="C619" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A620" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>tecnico-universitario</v>
+      </c>
+      <c r="B620" t="s">
+        <v>603</v>
+      </c>
+      <c r="C620" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A621" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>cd-universidad-catolica</v>
+      </c>
+      <c r="B621" t="s">
+        <v>604</v>
+      </c>
+      <c r="C621" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A622" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>vinotinto-fc-ecuador</v>
+      </c>
+      <c r="B622" t="s">
+        <v>605</v>
+      </c>
+      <c r="C622" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>ecuador</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A623" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ethnikos-achna-fc</v>
+      </c>
+      <c r="B623" t="s">
+        <v>606</v>
+      </c>
+      <c r="C623" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A624" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>aek-larnaca-fc</v>
+      </c>
+      <c r="B624" t="s">
+        <v>607</v>
+      </c>
+      <c r="C624" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ael-limassol</v>
+      </c>
+      <c r="B625" t="s">
+        <v>608</v>
+      </c>
+      <c r="C625" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A626" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>anorthosis-famagusta-fc</v>
+      </c>
+      <c r="B626" t="s">
+        <v>609</v>
+      </c>
+      <c r="C626" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A627" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>apoel-fc</v>
+      </c>
+      <c r="B627" t="s">
+        <v>610</v>
+      </c>
+      <c r="C627" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A628" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>apollon-limassol</v>
+      </c>
+      <c r="B628" t="s">
+        <v>611</v>
+      </c>
+      <c r="C628" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A629" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>aris-limassol-fc</v>
+      </c>
+      <c r="B629" t="s">
+        <v>612</v>
+      </c>
+      <c r="C629" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A630" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>akritas-chlorakas</v>
+      </c>
+      <c r="B630" t="s">
+        <v>613</v>
+      </c>
+      <c r="C630" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A631" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>olympiakos-nicosia</v>
+      </c>
+      <c r="B631" t="s">
+        <v>614</v>
+      </c>
+      <c r="C631" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A632" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>ac-omonia</v>
+      </c>
+      <c r="B632" t="s">
+        <v>615</v>
+      </c>
+      <c r="C632" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A633" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>omonia-aradippou</v>
+      </c>
+      <c r="B633" t="s">
+        <v>616</v>
+      </c>
+      <c r="C633" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A634" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>pafos-fc</v>
+      </c>
+      <c r="B634" t="s">
+        <v>617</v>
+      </c>
+      <c r="C634" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A635" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>enosis-neon-paralimni-fc</v>
+      </c>
+      <c r="B635" t="s">
+        <v>618</v>
+      </c>
+      <c r="C635" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A636" s="7" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>krasava-eny-ypsonas-fc</v>
+      </c>
+      <c r="B636" t="s">
+        <v>619</v>
+      </c>
+      <c r="C636" s="7" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>cyprus</v>
       </c>
     </row>
   </sheetData>

--- a/enlaces_equipos.xlsx
+++ b/enlaces_equipos.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://v7hfx-my.sharepoint.com/personal/joseca20_v7hfx_onmicrosoft_com/Documents/web scraping/statsFutbol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FC6BA93-0AB7-42F4-B5A3-0D99AA31BE5C}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC8931C5-EE95-442D-BFC1-1EAA2AC0FBA5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474EBA83-D6A0-4565-BEB0-BC6B2AA992C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaciónDeDatos_PAIS">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId2"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -1976,7 +1987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1986,7 +1997,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2020,9 +2030,142 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>178620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="PAIS">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B651F89B-2A41-6E6E-3FAE-8D9624023AFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="PAIS"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9570720" y="53340"/>
+              <a:ext cx="4392000" cy="3600000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_PAIS" xr10:uid="{B5291A88-B89C-4128-8EC8-D9359B024A49}" sourceName="PAIS">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="PAIS" xr10:uid="{A9588CC2-7F04-41B6-91B0-AF177A9500E1}" cache="SegmentaciónDeDatos_PAIS" caption="PAIS" columnCount="3" style="SlicerStyleDark6" rowHeight="252000"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:C636" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:C636" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}"/>
+  <autoFilter ref="A1:C636" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="austria"/>
+        <filter val="bulgaria"/>
+        <filter val="chile"/>
+        <filter val="croatia"/>
+        <filter val="cyprus"/>
+        <filter val="czech-republic"/>
+        <filter val="denmark"/>
+        <filter val="england"/>
+        <filter val="france"/>
+        <filter val="germany"/>
+        <filter val="greece"/>
+        <filter val="italy"/>
+        <filter val="mexico"/>
+        <filter val="netherlands"/>
+        <filter val="norway"/>
+        <filter val="peru"/>
+        <filter val="poland"/>
+        <filter val="portugal"/>
+        <filter val="romania"/>
+        <filter val="saudi-arabia"/>
+        <filter val="scotland"/>
+        <filter val="spain"/>
+        <filter val="sweden"/>
+        <filter val="turkey"/>
+        <filter val="usa"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{94084D0E-9EB8-4AA2-8B8F-47973A2CEB88}" name="EQUIPO" dataDxfId="1">
       <calculatedColumnFormula>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</calculatedColumnFormula>
@@ -2335,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3E121-4DD2-4C5A-A60B-ED62DD98B116}">
   <dimension ref="A1:C636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="B623" sqref="B623:B636"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2358,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rionegro-aguilas</v>
@@ -2371,7 +2514,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>alianza-fc</v>
@@ -2384,7 +2527,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>america-de-cali</v>
@@ -2397,7 +2540,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-nacional</v>
@@ -2410,7 +2553,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-bucaramanga</v>
@@ -2423,7 +2566,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>boyaca-chico-fc</v>
@@ -2436,7 +2579,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-cali</v>
@@ -2449,7 +2592,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>envigado-fc</v>
@@ -2462,7 +2605,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortaleza-ceif</v>
@@ -2475,7 +2618,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-independiente-medellin</v>
@@ -2488,7 +2631,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atletico-junior</v>
@@ -2501,7 +2644,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-la-equidad</v>
@@ -2514,7 +2657,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>llaneros-fc</v>
@@ -2527,7 +2670,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>millonarios-fc</v>
@@ -2540,7 +2683,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>once-caldas</v>
@@ -2553,7 +2696,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-pasto</v>
@@ -2566,7 +2709,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-pereira</v>
@@ -2579,7 +2722,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>independiente-santa-fe</v>
@@ -2592,7 +2735,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportes-tolima</v>
@@ -2605,7 +2748,7 @@
         <v>colombia</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>union-magdalena</v>
@@ -3528,7 +3671,7 @@
         <v>austria</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rsc-anderlecht</v>
@@ -3541,7 +3684,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>royal-antwerp-fc</v>
@@ -3554,7 +3697,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cercle-brugge-ksv</v>
@@ -3567,7 +3710,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>royal-charleroi-sc</v>
@@ -3580,7 +3723,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-brugge-kv</v>
@@ -3593,7 +3736,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fcv-dender-eh</v>
@@ -3606,7 +3749,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>krc-genk</v>
@@ -3619,7 +3762,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kaa-gent</v>
@@ -3632,7 +3775,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kv-mechelen</v>
@@ -3645,7 +3788,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>oh-leuven</v>
@@ -3658,7 +3801,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>raal-la-louviere</v>
@@ -3671,7 +3814,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>standard-liege</v>
@@ -3684,7 +3827,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sint-truidense-vv</v>
@@ -3697,7 +3840,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ru-saint-gilloise</v>
@@ -3710,7 +3853,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sv-zulte-waregem</v>
@@ -3723,7 +3866,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>kvc-westerlo</v>
@@ -3736,7 +3879,7 @@
         <v>belgium</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>academia-del-balompie-boliviano</v>
@@ -3749,7 +3892,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-always-ready</v>
@@ -3762,7 +3905,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-aurora</v>
@@ -3775,7 +3918,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-blooming</v>
@@ -3788,7 +3931,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-bolivar</v>
@@ -3801,7 +3944,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-guabira</v>
@@ -3814,7 +3957,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-gv-san-jose</v>
@@ -3827,7 +3970,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-independiente-petrolero</v>
@@ -3840,7 +3983,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-nacional-potosi</v>
@@ -3853,7 +3996,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-oriente-petrolero</v>
@@ -3866,7 +4009,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cdt-real-oruro</v>
@@ -3879,7 +4022,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-san-antonio-bulo-bulo</v>
@@ -3892,7 +4035,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-the-strongest</v>
@@ -3905,7 +4048,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-real-tomayapo</v>
@@ -3918,7 +4061,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-universitario-de-vinto</v>
@@ -3931,7 +4074,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-deportivo-jorge-wilstermann</v>
@@ -3944,7 +4087,7 @@
         <v>bolivia</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>clube-atletico-mineiro</v>
@@ -3957,7 +4100,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-bahia</v>
@@ -3970,7 +4113,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>botafogo-de-futebol-e-regatas</v>
@@ -3983,7 +4126,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>red-bull-bragantino</v>
@@ -3996,7 +4139,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ceara-sporting-club</v>
@@ -4009,7 +4152,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-corinthians-paulista</v>
@@ -4022,7 +4165,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cruzeiro-esporte-clube</v>
@@ -4035,7 +4178,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>clube-de-regatas-do-flamengo</v>
@@ -4048,7 +4191,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fluminense-fc</v>
@@ -4061,7 +4204,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fortaleza-esporte-clube</v>
@@ -4074,7 +4217,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>gremio-football-porto-alagrense</v>
@@ -4087,7 +4230,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-internacional</v>
@@ -4100,7 +4243,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-juventude</v>
@@ -4113,7 +4256,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mirassol-fc</v>
@@ -4126,7 +4269,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sociedade-esportiva-palmeiras</v>
@@ -4139,7 +4282,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>santos-fc</v>
@@ -4152,7 +4295,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sao-paulo-fc</v>
@@ -4165,7 +4308,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sport-club-do-recife</v>
@@ -4178,7 +4321,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cr-vasco-da-gama</v>
@@ -4191,7 +4334,7 @@
         <v>brazil</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>esporte-clube-vitoria</v>
@@ -4412,7 +4555,7 @@
         <v>bulgaria</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-aldosivi</v>
@@ -4425,7 +4568,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>argentinos-juniors</v>
@@ -4438,7 +4581,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-tucuman</v>
@@ -4451,7 +4594,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-banfield</v>
@@ -4464,7 +4607,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-barracas-central</v>
@@ -4477,7 +4620,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-belgrano</v>
@@ -4490,7 +4633,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-boca-juniors</v>
@@ -4503,7 +4646,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-central-cordoba</v>
@@ -4516,7 +4659,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>defensa-y-justicia</v>
@@ -4529,7 +4672,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-riestra</v>
@@ -4542,7 +4685,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-estudiantes-de-la-plata</v>
@@ -4555,7 +4698,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-de-gimnasia-la-plata</v>
@@ -4568,7 +4711,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>godoy-cruz</v>
@@ -4581,7 +4724,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-huracan</v>
@@ -4594,7 +4737,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-sportivo-independiente-rivadavia</v>
@@ -4607,7 +4750,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-independiente</v>
@@ -4620,7 +4763,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>instituto-atletico-central-cordoba</v>
@@ -4633,7 +4776,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-lanus</v>
@@ -4646,7 +4789,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-newells-old-boys</v>
@@ -4659,7 +4802,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-platense</v>
@@ -4672,7 +4815,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>racing-club-de-avellaneda</v>
@@ -4685,7 +4828,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-river-plate</v>
@@ -4698,7 +4841,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-rosario-central</v>
@@ -4711,7 +4854,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-lorenzo-de-almagro</v>
@@ -4724,7 +4867,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-martin-de-san-juan</v>
@@ -4737,7 +4880,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-sarmiento-junin</v>
@@ -4750,7 +4893,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-talleres</v>
@@ -4763,7 +4906,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-tigre</v>
@@ -4776,7 +4919,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-union-de-santa-fe</v>
@@ -4789,7 +4932,7 @@
         <v>argentina</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-velez-sarsfield</v>
@@ -9261,7 +9404,7 @@
         <v>sweden</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-basel</v>
@@ -9274,7 +9417,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>grasshopper-club-zurich</v>
@@ -9287,7 +9430,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-lausanne-sport</v>
@@ -9300,7 +9443,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-lugano</v>
@@ -9313,7 +9456,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-luzern</v>
@@ -9326,7 +9469,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>servette-fc</v>
@@ -9339,7 +9482,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-sion</v>
@@ -9352,7 +9495,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-st-gallen</v>
@@ -9365,7 +9508,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-thun</v>
@@ -9378,7 +9521,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-winterthur</v>
@@ -9391,7 +9534,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>bsc-young-boys</v>
@@ -9404,7 +9547,7 @@
         <v>switzerland</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>fc-zurich</v>
@@ -10042,573 +10185,573 @@
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A593" s="7" t="str">
+      <c r="A593" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aek-athens-fc</v>
       </c>
       <c r="B593" t="s">
         <v>576</v>
       </c>
-      <c r="C593" s="7" t="str">
+      <c r="C593" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A594" s="7" t="str">
+      <c r="A594" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ael-fc</v>
       </c>
       <c r="B594" t="s">
         <v>577</v>
       </c>
-      <c r="C594" s="7" t="str">
+      <c r="C594" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A595" s="7" t="str">
+      <c r="A595" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aris-thessaloniki-fc</v>
       </c>
       <c r="B595" t="s">
         <v>578</v>
       </c>
-      <c r="C595" s="7" t="str">
+      <c r="C595" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A596" s="7" t="str">
+      <c r="A596" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>asteras-tripolis-fc</v>
       </c>
       <c r="B596" t="s">
         <v>579</v>
       </c>
-      <c r="C596" s="7" t="str">
+      <c r="C596" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A597" s="7" t="str">
+      <c r="A597" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>atromitos-fc</v>
       </c>
       <c r="B597" t="s">
         <v>580</v>
       </c>
-      <c r="C597" s="7" t="str">
+      <c r="C597" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A598" s="7" t="str">
+      <c r="A598" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ae-kifisia-fc</v>
       </c>
       <c r="B598" t="s">
         <v>581</v>
       </c>
-      <c r="C598" s="7" t="str">
+      <c r="C598" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A599" s="7" t="str">
+      <c r="A599" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>levadiakos-fc</v>
       </c>
       <c r="B599" t="s">
         <v>582</v>
       </c>
-      <c r="C599" s="7" t="str">
+      <c r="C599" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A600" s="7" t="str">
+      <c r="A600" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ofi-crete-fc</v>
       </c>
       <c r="B600" t="s">
         <v>583</v>
       </c>
-      <c r="C600" s="7" t="str">
+      <c r="C600" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A601" s="7" t="str">
+      <c r="A601" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>olympiacos-fc</v>
       </c>
       <c r="B601" t="s">
         <v>584</v>
       </c>
-      <c r="C601" s="7" t="str">
+      <c r="C601" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A602" s="7" t="str">
+      <c r="A602" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>panathinaikos-fc</v>
       </c>
       <c r="B602" t="s">
         <v>585</v>
       </c>
-      <c r="C602" s="7" t="str">
+      <c r="C602" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A603" s="7" t="str">
+      <c r="A603" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>panetolikos-fc</v>
       </c>
       <c r="B603" t="s">
         <v>586</v>
       </c>
-      <c r="C603" s="7" t="str">
+      <c r="C603" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A604" s="7" t="str">
+      <c r="A604" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>panserraikos-fc</v>
       </c>
       <c r="B604" t="s">
         <v>587</v>
       </c>
-      <c r="C604" s="7" t="str">
+      <c r="C604" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A605" s="7" t="str">
+      <c r="A605" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>paok-fc</v>
       </c>
       <c r="B605" t="s">
         <v>588</v>
       </c>
-      <c r="C605" s="7" t="str">
+      <c r="C605" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A606" s="7" t="str">
+      <c r="A606" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>volos-fc</v>
       </c>
       <c r="B606" t="s">
         <v>589</v>
       </c>
-      <c r="C606" s="7" t="str">
+      <c r="C606" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>greece</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A607" s="7" t="str">
+    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A607" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>sd-aucas</v>
       </c>
       <c r="B607" t="s">
         <v>590</v>
       </c>
-      <c r="C607" s="7" t="str">
+      <c r="C607" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A608" s="7" t="str">
+    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A608" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>barcelona-sc</v>
       </c>
       <c r="B608" t="s">
         <v>591</v>
       </c>
-      <c r="C608" s="7" t="str">
+      <c r="C608" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A609" s="7" t="str">
+    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A609" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>delfin-sc</v>
       </c>
       <c r="B609" t="s">
         <v>592</v>
       </c>
-      <c r="C609" s="7" t="str">
+      <c r="C609" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A610" s="7" t="str">
+    <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A610" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-cuenca</v>
       </c>
       <c r="B610" t="s">
         <v>593</v>
       </c>
-      <c r="C610" s="7" t="str">
+      <c r="C610" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A611" s="7" t="str">
+    <row r="611" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A611" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-el-nacional</v>
       </c>
       <c r="B611" t="s">
         <v>594</v>
       </c>
-      <c r="C611" s="7" t="str">
+      <c r="C611" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A612" s="7" t="str">
+    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A612" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cs-emelec</v>
       </c>
       <c r="B612" t="s">
         <v>595</v>
       </c>
-      <c r="C612" s="7" t="str">
+      <c r="C612" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A613" s="7" t="str">
+    <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A613" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>csd-independiente-del-valle</v>
       </c>
       <c r="B613" t="s">
         <v>596</v>
       </c>
-      <c r="C613" s="7" t="str">
+      <c r="C613" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A614" s="7" t="str">
+    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A614" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ldu-quito</v>
       </c>
       <c r="B614" t="s">
         <v>597</v>
       </c>
-      <c r="C614" s="7" t="str">
+      <c r="C614" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A615" s="7" t="str">
+    <row r="615" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A615" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>libertad-fc</v>
       </c>
       <c r="B615" t="s">
         <v>598</v>
       </c>
-      <c r="C615" s="7" t="str">
+      <c r="C615" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A616" s="7" t="str">
+    <row r="616" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A616" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>csd-macara</v>
       </c>
       <c r="B616" t="s">
         <v>599</v>
       </c>
-      <c r="C616" s="7" t="str">
+      <c r="C616" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A617" s="7" t="str">
+    <row r="617" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A617" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>manta-fc</v>
       </c>
       <c r="B617" t="s">
         <v>600</v>
       </c>
-      <c r="C617" s="7" t="str">
+      <c r="C617" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A618" s="7" t="str">
+    <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A618" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>mushuc-runa-sc</v>
       </c>
       <c r="B618" t="s">
         <v>601</v>
       </c>
-      <c r="C618" s="7" t="str">
+      <c r="C618" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A619" s="7" t="str">
+    <row r="619" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A619" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>orense-sc</v>
       </c>
       <c r="B619" t="s">
         <v>602</v>
       </c>
-      <c r="C619" s="7" t="str">
+      <c r="C619" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A620" s="7" t="str">
+    <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A620" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>tecnico-universitario</v>
       </c>
       <c r="B620" t="s">
         <v>603</v>
       </c>
-      <c r="C620" s="7" t="str">
+      <c r="C620" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A621" s="7" t="str">
+    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A621" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>cd-universidad-catolica</v>
       </c>
       <c r="B621" t="s">
         <v>604</v>
       </c>
-      <c r="C621" s="7" t="str">
+      <c r="C621" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A622" s="7" t="str">
+    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A622" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>vinotinto-fc-ecuador</v>
       </c>
       <c r="B622" t="s">
         <v>605</v>
       </c>
-      <c r="C622" s="7" t="str">
+      <c r="C622" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>ecuador</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A623" s="7" t="str">
+      <c r="A623" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ethnikos-achna-fc</v>
       </c>
       <c r="B623" t="s">
         <v>606</v>
       </c>
-      <c r="C623" s="7" t="str">
+      <c r="C623" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A624" s="7" t="str">
+      <c r="A624" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aek-larnaca-fc</v>
       </c>
       <c r="B624" t="s">
         <v>607</v>
       </c>
-      <c r="C624" s="7" t="str">
+      <c r="C624" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A625" s="7" t="str">
+      <c r="A625" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ael-limassol</v>
       </c>
       <c r="B625" t="s">
         <v>608</v>
       </c>
-      <c r="C625" s="7" t="str">
+      <c r="C625" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A626" s="7" t="str">
+      <c r="A626" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>anorthosis-famagusta-fc</v>
       </c>
       <c r="B626" t="s">
         <v>609</v>
       </c>
-      <c r="C626" s="7" t="str">
+      <c r="C626" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A627" s="7" t="str">
+      <c r="A627" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>apoel-fc</v>
       </c>
       <c r="B627" t="s">
         <v>610</v>
       </c>
-      <c r="C627" s="7" t="str">
+      <c r="C627" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A628" s="7" t="str">
+      <c r="A628" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>apollon-limassol</v>
       </c>
       <c r="B628" t="s">
         <v>611</v>
       </c>
-      <c r="C628" s="7" t="str">
+      <c r="C628" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A629" s="7" t="str">
+      <c r="A629" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>aris-limassol-fc</v>
       </c>
       <c r="B629" t="s">
         <v>612</v>
       </c>
-      <c r="C629" s="7" t="str">
+      <c r="C629" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A630" s="7" t="str">
+      <c r="A630" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>akritas-chlorakas</v>
       </c>
       <c r="B630" t="s">
         <v>613</v>
       </c>
-      <c r="C630" s="7" t="str">
+      <c r="C630" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A631" s="7" t="str">
+      <c r="A631" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>olympiakos-nicosia</v>
       </c>
       <c r="B631" t="s">
         <v>614</v>
       </c>
-      <c r="C631" s="7" t="str">
+      <c r="C631" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A632" s="7" t="str">
+      <c r="A632" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>ac-omonia</v>
       </c>
       <c r="B632" t="s">
         <v>615</v>
       </c>
-      <c r="C632" s="7" t="str">
+      <c r="C632" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A633" s="7" t="str">
+      <c r="A633" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>omonia-aradippou</v>
       </c>
       <c r="B633" t="s">
         <v>616</v>
       </c>
-      <c r="C633" s="7" t="str">
+      <c r="C633" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A634" s="7" t="str">
+      <c r="A634" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>pafos-fc</v>
       </c>
       <c r="B634" t="s">
         <v>617</v>
       </c>
-      <c r="C634" s="7" t="str">
+      <c r="C634" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A635" s="7" t="str">
+      <c r="A635" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>enosis-neon-paralimni-fc</v>
       </c>
       <c r="B635" t="s">
         <v>618</v>
       </c>
-      <c r="C635" s="7" t="str">
+      <c r="C635" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A636" s="7" t="str">
+      <c r="A636" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>krasava-eny-ypsonas-fc</v>
       </c>
       <c r="B636" t="s">
         <v>619</v>
       </c>
-      <c r="C636" s="7" t="str">
+      <c r="C636" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>cyprus</v>
       </c>
@@ -10616,8 +10759,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/enlaces_equipos.xlsx
+++ b/enlaces_equipos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://v7hfx-my.sharepoint.com/personal/joseca20_v7hfx_onmicrosoft_com/Documents/web scraping/statsFutbol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E67F04-374E-4FA4-B2B8-141DFC9A9454}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AC9F66-7D15-4134-A945-34B1483C3BAF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474EBA83-D6A0-4565-BEB0-BC6B2AA992C1}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="632">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -90,9 +90,6 @@
     <t>n-s-america/colombia/deportivo-cali</t>
   </si>
   <si>
-    <t>n-s-america/colombia/envigado-fc</t>
-  </si>
-  <si>
     <t>n-s-america/colombia/fortaleza-ceif</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>n-s-america/colombia/atletico-junior</t>
   </si>
   <si>
-    <t>n-s-america/colombia/cd-la-equidad</t>
-  </si>
-  <si>
     <t>n-s-america/colombia/llaneros-fc</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>n-s-america/colombia/deportes-tolima</t>
   </si>
   <si>
-    <t>n-s-america/colombia/union-magdalena</t>
-  </si>
-  <si>
     <t>uk-ireland/england/arsenal-fc</t>
   </si>
   <si>
@@ -1951,6 +1942,18 @@
   </si>
   <si>
     <t>ANALIZAR</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>n-s-america/colombia/cucuta-deportivo-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/colombia/internacional-de-bogota</t>
+  </si>
+  <si>
+    <t>n-s-america/colombia/jaguares-de-cordoba</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2073,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2108,20 +2125,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:D646" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}" name="Tabla1" displayName="Tabla1" ref="A1:D646" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:D646" xr:uid="{1329FF03-B366-468C-915B-7B9006981626}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C646">
     <sortCondition ref="C1:C646"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{94084D0E-9EB8-4AA2-8B8F-47973A2CEB88}" name="EQUIPO" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{94084D0E-9EB8-4AA2-8B8F-47973A2CEB88}" name="EQUIPO" dataDxfId="4">
       <calculatedColumnFormula>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{B01E1C82-362B-4BF7-BCB9-D64E8D4F9629}" name="ENLACE"/>
-    <tableColumn id="3" xr3:uid="{E3AB90A5-DEAD-4B94-A136-1E8126059E3B}" name="PAIS" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{E3AB90A5-DEAD-4B94-A136-1E8126059E3B}" name="PAIS" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{864CABB9-1E94-4601-B818-3F8256A83250}" name="ANALIZAR" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{864CABB9-1E94-4601-B818-3F8256A83250}" name="ANALIZAR" dataDxfId="2">
       <calculatedColumnFormula>IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2426,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3E121-4DD2-4C5A-A60B-ED62DD98B116}">
-  <dimension ref="A1:I646"/>
+  <dimension ref="A1:J646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="B376" sqref="B376:B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2442,7 +2459,7 @@
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2453,16 +2470,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-aldosivi</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2483,14 +2500,17 @@
       <c r="I2" s="10">
         <v>46044</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>argentinos-juniors</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2510,14 +2530,17 @@
       <c r="I3" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-tucuman</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2537,14 +2560,15 @@
       <c r="I4" s="10">
         <v>46059</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-banfield</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2559,19 +2583,22 @@
       </c>
       <c r="H5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I5" s="10">
         <v>46038</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-barracas-central</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2591,14 +2618,15 @@
       <c r="I6" s="10">
         <v>46059</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-belgrano</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2618,14 +2646,15 @@
       <c r="I7" s="10">
         <v>46050</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-boca-juniors</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2645,14 +2674,15 @@
       <c r="I8" s="10">
         <v>46060</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-central-cordoba</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C9" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2672,14 +2702,15 @@
       <c r="I9" s="10">
         <v>46052</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>defensa-y-justicia</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C10" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2694,19 +2725,22 @@
       </c>
       <c r="H10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I10" s="10">
         <v>46039</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>deportivo-riestra</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2726,14 +2760,15 @@
       <c r="I11" s="10">
         <v>46045</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-estudiantes-de-la-plata</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C12" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2753,14 +2788,15 @@
       <c r="I12" s="10">
         <v>46053</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-de-gimnasia-la-plata</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C13" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2780,14 +2816,15 @@
       <c r="I13" s="10">
         <v>46059</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>godoy-cruz</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2807,14 +2844,15 @@
       <c r="I14" s="10">
         <v>46073</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-huracan</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C15" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2834,14 +2872,17 @@
       <c r="I15" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-sportivo-independiente-rivadavia</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C16" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2861,14 +2902,15 @@
       <c r="I16" s="10">
         <v>46116</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-independiente</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C17" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2888,14 +2930,17 @@
       <c r="I17" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>instituto-atletico-central-cordoba</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C18" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2915,14 +2960,17 @@
       <c r="I18" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-lanus</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C19" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2942,14 +2990,17 @@
       <c r="I19" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-newells-old-boys</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C20" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2969,14 +3020,17 @@
       <c r="I20" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-platense</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C21" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -2996,14 +3050,17 @@
       <c r="I21" s="10">
         <v>46031</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>racing-club-de-avellaneda</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C22" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3023,14 +3080,17 @@
       <c r="I22" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-river-plate</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C23" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3050,14 +3110,15 @@
       <c r="I23" s="10">
         <v>46095</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-rosario-central</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C24" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3077,14 +3138,15 @@
       <c r="I24" s="10">
         <v>46052</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-lorenzo-de-almagro</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C25" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3104,14 +3166,15 @@
       <c r="I25" s="10">
         <v>46052</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>san-martin-de-san-juan</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C26" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3131,14 +3194,17 @@
       <c r="I26" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-sarmiento-junin</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C27" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3153,19 +3219,22 @@
       </c>
       <c r="H27" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I27" s="10">
         <v>46038</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-talleres</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C28" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3185,14 +3254,17 @@
       <c r="I28" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-tigre</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C29" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3212,14 +3284,17 @@
       <c r="I29" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-union-de-santa-fe</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C30" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3239,14 +3314,17 @@
       <c r="I30" s="10">
         <v>46030</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>club-atletico-velez-sarsfield</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C31" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3266,14 +3344,15 @@
       <c r="I31" s="10">
         <v>46117</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>adelaide-united-fc</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C32" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3288,19 +3367,22 @@
       </c>
       <c r="H32" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I32" s="10">
         <v>46036</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>auckland-fc</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C33" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3315,19 +3397,22 @@
       </c>
       <c r="H33" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I33" s="10">
         <v>46039</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>brisbane-roar-fc</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C34" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3347,235 +3432,236 @@
       <c r="I34" s="10">
         <v>46074</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>central-coast-mariners-fc</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C35" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>macarthur-fc</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C36" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>melbourne-city-fc</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C37" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>australia</v>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>melbourne-victory-fc</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C38" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>australia</v>
       </c>
-      <c r="D35" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>macarthur-fc</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="D38" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>newcastle-jets-fc</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C39" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>australia</v>
       </c>
-      <c r="D36" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>melbourne-city-fc</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="D39" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>perth-glory-fc</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C40" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>australia</v>
       </c>
-      <c r="D37" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>melbourne-victory-fc</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="D40" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>sydney-fc</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C41" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>australia</v>
       </c>
-      <c r="D38" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>newcastle-jets-fc</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="D41" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>wellington-phoenix-fc</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C42" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>australia</v>
       </c>
-      <c r="D39" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>perth-glory-fc</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="D42" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>western-sydney-wanderers-fc</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C43" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>australia</v>
       </c>
-      <c r="D40" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>sydney-fc</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C41" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>australia</v>
-      </c>
-      <c r="D41" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>wellington-phoenix-fc</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C42" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>australia</v>
-      </c>
-      <c r="D42" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>SI</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>western-sydney-wanderers-fc</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="C43" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>australia</v>
-      </c>
       <c r="D43" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
         <v>SI</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
         <v>rheindorf-altach</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+      <c r="D44" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>austria-vienna</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+      <c r="D45" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>bw-linz</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
+        <v>austria</v>
+      </c>
+      <c r="D46" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>grazer-ak</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C47" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
         <v>austria</v>
       </c>
-      <c r="D44" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>austria-vienna</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="D47" s="8" t="str">
+        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
+        <v>tsv-hartberg</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C45" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>austria</v>
-      </c>
-      <c r="D45" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>bw-linz</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>austria</v>
-      </c>
-      <c r="D46" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>grazer-ak</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" t="str">
-        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
-        <v>austria</v>
-      </c>
-      <c r="D47" s="8" t="str">
-        <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="str">
-        <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>tsv-hartberg</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C48" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3592,7 +3678,7 @@
         <v>lask</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C49" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3609,7 +3695,7 @@
         <v>sv-ried</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C50" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3626,7 +3712,7 @@
         <v>red-bull-salzburg</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C51" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3643,7 +3729,7 @@
         <v>rapid-vienna</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C52" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3660,7 +3746,7 @@
         <v>sturm-graz</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C53" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3677,7 +3763,7 @@
         <v>wsg-swarovski-tirol</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C54" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3694,7 +3780,7 @@
         <v>wolfsberger-ac</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C55" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3711,7 +3797,7 @@
         <v>rsc-anderlecht</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C56" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3719,7 +3805,7 @@
       </c>
       <c r="D56" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3728,7 +3814,7 @@
         <v>royal-antwerp-fc</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C57" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3736,7 +3822,7 @@
       </c>
       <c r="D57" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3745,7 +3831,7 @@
         <v>cercle-brugge-ksv</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C58" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3753,7 +3839,7 @@
       </c>
       <c r="D58" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3762,7 +3848,7 @@
         <v>royal-charleroi-sc</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C59" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3770,7 +3856,7 @@
       </c>
       <c r="D59" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3779,7 +3865,7 @@
         <v>club-brugge-kv</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C60" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3787,7 +3873,7 @@
       </c>
       <c r="D60" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3796,7 +3882,7 @@
         <v>fcv-dender-eh</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C61" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3804,7 +3890,7 @@
       </c>
       <c r="D61" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3813,7 +3899,7 @@
         <v>krc-genk</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C62" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3821,7 +3907,7 @@
       </c>
       <c r="D62" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3830,7 +3916,7 @@
         <v>kaa-gent</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C63" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3838,7 +3924,7 @@
       </c>
       <c r="D63" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3847,7 +3933,7 @@
         <v>kv-mechelen</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C64" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3855,7 +3941,7 @@
       </c>
       <c r="D64" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3864,7 +3950,7 @@
         <v>oh-leuven</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C65" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3872,7 +3958,7 @@
       </c>
       <c r="D65" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3881,7 +3967,7 @@
         <v>raal-la-louviere</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C66" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3889,7 +3975,7 @@
       </c>
       <c r="D66" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3898,7 +3984,7 @@
         <v>standard-liege</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C67" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3906,7 +3992,7 @@
       </c>
       <c r="D67" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3915,7 +4001,7 @@
         <v>sint-truidense-vv</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C68" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3923,7 +4009,7 @@
       </c>
       <c r="D68" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3932,7 +4018,7 @@
         <v>ru-saint-gilloise</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C69" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3940,7 +4026,7 @@
       </c>
       <c r="D69" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3949,7 +4035,7 @@
         <v>sv-zulte-waregem</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C70" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3957,7 +4043,7 @@
       </c>
       <c r="D70" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3966,7 +4052,7 @@
         <v>kvc-westerlo</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C71" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3974,7 +4060,7 @@
       </c>
       <c r="D71" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3983,7 +4069,7 @@
         <v>academia-del-balompie-boliviano</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C72" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4000,7 +4086,7 @@
         <v>club-always-ready</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C73" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4017,7 +4103,7 @@
         <v>club-aurora</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C74" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4034,7 +4120,7 @@
         <v>club-deportivo-blooming</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C75" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4051,7 +4137,7 @@
         <v>club-bolivar</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C76" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4068,7 +4154,7 @@
         <v>club-deportivo-guabira</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C77" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4085,7 +4171,7 @@
         <v>club-gv-san-jose</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C78" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4102,7 +4188,7 @@
         <v>club-independiente-petrolero</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C79" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4119,7 +4205,7 @@
         <v>club-atletico-nacional-potosi</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C80" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4136,7 +4222,7 @@
         <v>club-deportivo-oriente-petrolero</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C81" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4153,7 +4239,7 @@
         <v>cdt-real-oruro</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C82" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4170,7 +4256,7 @@
         <v>club-deportivo-san-antonio-bulo-bulo</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C83" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4187,7 +4273,7 @@
         <v>club-the-strongest</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C84" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4204,7 +4290,7 @@
         <v>club-deportivo-real-tomayapo</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C85" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4221,7 +4307,7 @@
         <v>fc-universitario-de-vinto</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C86" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4238,7 +4324,7 @@
         <v>club-deportivo-jorge-wilstermann</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C87" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4255,7 +4341,7 @@
         <v>clube-atletico-mineiro</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C88" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4272,7 +4358,7 @@
         <v>esporte-clube-bahia</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C89" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4289,7 +4375,7 @@
         <v>botafogo-de-futebol-e-regatas</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C90" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4306,7 +4392,7 @@
         <v>red-bull-bragantino</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C91" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4323,7 +4409,7 @@
         <v>ceara-sporting-club</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C92" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4340,7 +4426,7 @@
         <v>sport-club-corinthians-paulista</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C93" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4357,7 +4443,7 @@
         <v>cruzeiro-esporte-clube</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C94" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4374,7 +4460,7 @@
         <v>clube-de-regatas-do-flamengo</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C95" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4391,7 +4477,7 @@
         <v>fluminense-fc</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C96" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4408,7 +4494,7 @@
         <v>fortaleza-esporte-clube</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C97" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4425,7 +4511,7 @@
         <v>gremio-football-porto-alagrense</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C98" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4442,7 +4528,7 @@
         <v>sport-club-internacional</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C99" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4459,7 +4545,7 @@
         <v>esporte-clube-juventude</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C100" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4476,7 +4562,7 @@
         <v>mirassol-fc</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C101" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4493,7 +4579,7 @@
         <v>sociedade-esportiva-palmeiras</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C102" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4510,7 +4596,7 @@
         <v>santos-fc</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C103" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4527,7 +4613,7 @@
         <v>sao-paulo-fc</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C104" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4544,7 +4630,7 @@
         <v>sport-club-do-recife</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C105" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4561,7 +4647,7 @@
         <v>cr-vasco-da-gama</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C106" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4578,7 +4664,7 @@
         <v>esporte-clube-vitoria</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C107" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4595,7 +4681,7 @@
         <v>arda-kardzhali</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C108" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4612,7 +4698,7 @@
         <v>beroe</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C109" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4629,7 +4715,7 @@
         <v>botev-plovdiv</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C110" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4646,7 +4732,7 @@
         <v>botev-vratsa</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C111" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4663,7 +4749,7 @@
         <v>cherno-more</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C112" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4680,7 +4766,7 @@
         <v>fc-cska-1948-sofia</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C113" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4697,7 +4783,7 @@
         <v>cska-sofia</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C114" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4714,7 +4800,7 @@
         <v>fc-dobrudzha-dobrich</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C115" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4731,7 +4817,7 @@
         <v>levski-sofia</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C116" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4748,7 +4834,7 @@
         <v>lokomotiv-plovdiv</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C117" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4765,7 +4851,7 @@
         <v>fc-lokomotiv-1929-sofia</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C118" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4782,7 +4868,7 @@
         <v>ludogorets</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C119" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4799,7 +4885,7 @@
         <v>fc-montana</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C120" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4816,7 +4902,7 @@
         <v>pfc-septemvri-sofia</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C121" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4833,7 +4919,7 @@
         <v>slavia-sofia</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C122" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4850,7 +4936,7 @@
         <v>fc-spartak-varna</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C123" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4867,7 +4953,7 @@
         <v>audax-italiano</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C124" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4884,7 +4970,7 @@
         <v>cd-cobresal</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C125" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4901,7 +4987,7 @@
         <v>colo-colo</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C126" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4918,7 +5004,7 @@
         <v>coquimbo-unido</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C127" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4935,7 +5021,7 @@
         <v>deportes-iquique</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C128" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4952,7 +5038,7 @@
         <v>everton-de-vina-del-mar</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C129" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4969,7 +5055,7 @@
         <v>cd-huachipato</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C130" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4986,7 +5072,7 @@
         <v>deportes-la-serena</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C131" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5003,7 +5089,7 @@
         <v>deportes-limache</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C132" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5020,7 +5106,7 @@
         <v>deportivo-nublense</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C133" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5037,7 +5123,7 @@
         <v>o-higgins-fc</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C134" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5054,7 +5140,7 @@
         <v>cd-palestino</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C135" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5071,7 +5157,7 @@
         <v>union-la-calera</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C136" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5088,7 +5174,7 @@
         <v>cd-universidad-catolica</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C137" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5105,7 +5191,7 @@
         <v>club-universidad-de-chile</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C138" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5122,7 +5208,7 @@
         <v>union-espanola</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C139" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5147,7 +5233,7 @@
       </c>
       <c r="D140" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -5164,7 +5250,7 @@
       </c>
       <c r="D141" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -5181,7 +5267,7 @@
       </c>
       <c r="D142" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -5198,7 +5284,7 @@
       </c>
       <c r="D143" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -5215,7 +5301,7 @@
       </c>
       <c r="D144" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -5232,16 +5318,16 @@
       </c>
       <c r="D145" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>deportivo-cali</v>
+        <v>cucuta-deportivo-fc</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>9</v>
+        <v>629</v>
       </c>
       <c r="C146" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5249,16 +5335,16 @@
       </c>
       <c r="D146" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>envigado-fc</v>
+        <v>deportivo-cali</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C147" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5266,7 +5352,7 @@
       </c>
       <c r="D147" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -5275,7 +5361,7 @@
         <v>fortaleza-ceif</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C148" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5283,7 +5369,7 @@
       </c>
       <c r="D148" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -5292,7 +5378,7 @@
         <v>deportivo-independiente-medellin</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5300,16 +5386,16 @@
       </c>
       <c r="D149" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>atletico-junior</v>
+        <v>internacional-de-bogota</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>13</v>
+        <v>630</v>
       </c>
       <c r="C150" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5317,16 +5403,16 @@
       </c>
       <c r="D150" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>cd-la-equidad</v>
+        <v>jaguares-de-cordoba</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>14</v>
+        <v>631</v>
       </c>
       <c r="C151" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5334,16 +5420,16 @@
       </c>
       <c r="D151" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>llaneros-fc</v>
+        <v>atletico-junior</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C152" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5351,16 +5437,16 @@
       </c>
       <c r="D152" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>millonarios-fc</v>
+        <v>llaneros-fc</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C153" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5368,16 +5454,16 @@
       </c>
       <c r="D153" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>once-caldas</v>
+        <v>millonarios-fc</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C154" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5385,16 +5471,16 @@
       </c>
       <c r="D154" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>deportivo-pasto</v>
+        <v>once-caldas</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C155" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5402,16 +5488,16 @@
       </c>
       <c r="D155" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>deportivo-pereira</v>
+        <v>deportivo-pasto</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C156" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5419,16 +5505,16 @@
       </c>
       <c r="D156" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>independiente-santa-fe</v>
+        <v>deportivo-pereira</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C157" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5436,16 +5522,16 @@
       </c>
       <c r="D157" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>deportes-tolima</v>
+        <v>independiente-santa-fe</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C158" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5453,16 +5539,16 @@
       </c>
       <c r="D158" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>union-magdalena</v>
+        <v>deportes-tolima</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C159" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5470,7 +5556,7 @@
       </c>
       <c r="D159" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -5479,7 +5565,7 @@
         <v>dinamo-zagreb</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C160" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5496,7 +5582,7 @@
         <v>gorica</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C161" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5513,7 +5599,7 @@
         <v>hajduk-split</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C162" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5530,7 +5616,7 @@
         <v>istra-1961</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C163" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5547,7 +5633,7 @@
         <v>lokomotiva-zagreb</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C164" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5564,7 +5650,7 @@
         <v>osijek</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C165" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5581,7 +5667,7 @@
         <v>rijeka</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C166" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5598,7 +5684,7 @@
         <v>slaven-belupo</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C167" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5615,7 +5701,7 @@
         <v>varazdin</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C168" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5632,7 +5718,7 @@
         <v>hnk-vukovar-1991</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C169" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5649,7 +5735,7 @@
         <v>bohemians-1905</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C170" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5666,7 +5752,7 @@
         <v>fk-dukla-prague</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C171" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5683,7 +5769,7 @@
         <v>fc-hradec-kralove</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C172" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5700,7 +5786,7 @@
         <v>fk-jablonec</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C173" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5717,7 +5803,7 @@
         <v>mfk-karvina</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C174" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5734,7 +5820,7 @@
         <v>fc-slovan-liberec</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C175" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5751,7 +5837,7 @@
         <v>fk-mlada-boleslav</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C176" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5768,7 +5854,7 @@
         <v>fc-banik-ostrava</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C177" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5785,7 +5871,7 @@
         <v>fk-pardubice</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C178" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5802,7 +5888,7 @@
         <v>fc-viktoria-plzen</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C179" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5819,7 +5905,7 @@
         <v>sk-sigma-olomouc</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C180" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5836,7 +5922,7 @@
         <v>slavia-prague</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C181" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5853,7 +5939,7 @@
         <v>fc-slovacko</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C182" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5870,7 +5956,7 @@
         <v>sparta-prague</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C183" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5887,7 +5973,7 @@
         <v>fk-teplice</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C184" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5904,7 +5990,7 @@
         <v>fc-fastav-zlin</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C185" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5921,7 +6007,7 @@
         <v>aarhus</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C186" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5938,7 +6024,7 @@
         <v>brondby</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C187" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5955,7 +6041,7 @@
         <v>fc-copenhagen</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C188" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5972,7 +6058,7 @@
         <v>fc-fredericia</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C189" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5989,7 +6075,7 @@
         <v>fc-midtjylland</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C190" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6006,7 +6092,7 @@
         <v>fc-nordsjaelland</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C191" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6023,7 +6109,7 @@
         <v>odense-boldklub</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C192" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6040,7 +6126,7 @@
         <v>randers-fc</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C193" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6057,7 +6143,7 @@
         <v>silkeborg-if</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C194" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6074,7 +6160,7 @@
         <v>sonderjyske</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C195" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6091,7 +6177,7 @@
         <v>vejle-bk</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C196" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6108,7 +6194,7 @@
         <v>viborg-ff</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C197" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6125,7 +6211,7 @@
         <v>sd-aucas</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C198" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6142,7 +6228,7 @@
         <v>barcelona-sc</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C199" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6159,7 +6245,7 @@
         <v>delfin-sc</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C200" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6176,7 +6262,7 @@
         <v>cd-cuenca</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C201" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6193,7 +6279,7 @@
         <v>cd-el-nacional</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C202" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6210,7 +6296,7 @@
         <v>cs-emelec</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C203" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6227,7 +6313,7 @@
         <v>csd-independiente-del-valle</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C204" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6244,7 +6330,7 @@
         <v>ldu-quito</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C205" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6261,7 +6347,7 @@
         <v>libertad-fc</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C206" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6278,7 +6364,7 @@
         <v>csd-macara</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C207" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6295,7 +6381,7 @@
         <v>manta-fc</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C208" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6312,7 +6398,7 @@
         <v>mushuc-runa-sc</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C209" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6329,7 +6415,7 @@
         <v>orense-sc</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C210" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6346,7 +6432,7 @@
         <v>tecnico-universitario</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C211" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6363,7 +6449,7 @@
         <v>cd-universidad-catolica</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C212" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6380,7 +6466,7 @@
         <v>vinotinto-fc-ecuador</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C213" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6397,7 +6483,7 @@
         <v>arsenal-fc</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C214" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6414,7 +6500,7 @@
         <v>aston-villa-fc</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C215" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6431,7 +6517,7 @@
         <v>afc-bournemouth</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C216" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6448,7 +6534,7 @@
         <v>brentford-fc</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C217" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6465,7 +6551,7 @@
         <v>brighton-hove-albion-fc</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C218" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6482,7 +6568,7 @@
         <v>burnley-fc</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C219" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6499,7 +6585,7 @@
         <v>chelsea-fc</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C220" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6516,7 +6602,7 @@
         <v>crystal-palace-fc</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C221" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6533,7 +6619,7 @@
         <v>everton-fc</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C222" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6550,7 +6636,7 @@
         <v>fulham-fc</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C223" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6567,7 +6653,7 @@
         <v>leeds-united-fc</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C224" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6584,7 +6670,7 @@
         <v>liverpool-fc</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C225" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6601,7 +6687,7 @@
         <v>manchester-city-fc</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C226" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6618,7 +6704,7 @@
         <v>manchester-united-fc</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C227" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6635,7 +6721,7 @@
         <v>newcastle-united-fc</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C228" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6652,7 +6738,7 @@
         <v>nottingham-forest-fc</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C229" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6669,7 +6755,7 @@
         <v>sunderland-afc</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C230" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6686,7 +6772,7 @@
         <v>tottenham-hotspur-fc</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C231" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6703,7 +6789,7 @@
         <v>west-ham-united-fc</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C232" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6720,7 +6806,7 @@
         <v>wolverhampton-wanderers-fc</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C233" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6737,7 +6823,7 @@
         <v>birmingham-city-fc</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C234" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6754,7 +6840,7 @@
         <v>blackburn-rovers-fc</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C235" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6771,7 +6857,7 @@
         <v>bristol-city-fc</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C236" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6788,7 +6874,7 @@
         <v>charlton-athletic-fc</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C237" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6805,7 +6891,7 @@
         <v>coventry-city-fc</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C238" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6822,7 +6908,7 @@
         <v>derby-county-fc</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C239" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6839,7 +6925,7 @@
         <v>hull-city-fc</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C240" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6856,7 +6942,7 @@
         <v>ipswich-town-fc</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C241" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6873,7 +6959,7 @@
         <v>leicester-city-fc</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C242" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6890,7 +6976,7 @@
         <v>middlesbrough-fc</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C243" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6907,7 +6993,7 @@
         <v>millwall-fc</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C244" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6924,7 +7010,7 @@
         <v>norwich-city-fc</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C245" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6941,7 +7027,7 @@
         <v>oxford-united-fc</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C246" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6958,7 +7044,7 @@
         <v>portsmouth-fc</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C247" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6975,7 +7061,7 @@
         <v>preston-north-end-fc</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C248" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6992,7 +7078,7 @@
         <v>queens-park-rangers-fc</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C249" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7009,7 +7095,7 @@
         <v>sheffield-united-fc</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C250" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7026,7 +7112,7 @@
         <v>sheffield-wednesday-fc</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C251" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7043,7 +7129,7 @@
         <v>southampton-fc</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C252" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7060,7 +7146,7 @@
         <v>stoke-city-fc</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C253" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7077,7 +7163,7 @@
         <v>swansea-city-afc</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C254" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7094,7 +7180,7 @@
         <v>watford-fc</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C255" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7111,7 +7197,7 @@
         <v>west-bromwich-albion-fc</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C256" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7128,7 +7214,7 @@
         <v>wrexham-afc</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C257" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7145,7 +7231,7 @@
         <v>if-gnistan</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C258" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7162,7 +7248,7 @@
         <v>fc-haka</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C259" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7179,7 +7265,7 @@
         <v>hjk-helsinki</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C260" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7196,7 +7282,7 @@
         <v>fc-ilves</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C261" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7213,7 +7299,7 @@
         <v>fc-inter-turku</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C262" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7230,7 +7316,7 @@
         <v>ff-jaro</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C263" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7247,7 +7333,7 @@
         <v>kotkan-tyovaen-palloilijat</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C264" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7264,7 +7350,7 @@
         <v>kuopion-palloseura</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C265" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7281,7 +7367,7 @@
         <v>ifk-mariehamn</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C266" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7298,7 +7384,7 @@
         <v>ac-oulu</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C267" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7315,7 +7401,7 @@
         <v>sjk</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C268" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7332,7 +7418,7 @@
         <v>vaasan-palloseura</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C269" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7349,7 +7435,7 @@
         <v>angers-sco</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C270" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7366,7 +7452,7 @@
         <v>aj-auxerre</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C271" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7383,7 +7469,7 @@
         <v>stade-brestois-29</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C272" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7400,7 +7486,7 @@
         <v>le-havre-ac</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C273" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7417,7 +7503,7 @@
         <v>rc-lens</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C274" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7434,7 +7520,7 @@
         <v>lille-osc</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C275" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7451,7 +7537,7 @@
         <v>fc-lorient</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C276" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7468,7 +7554,7 @@
         <v>olympique-lyonnais</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C277" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7485,7 +7571,7 @@
         <v>olympique-de-marseille</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C278" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7502,7 +7588,7 @@
         <v>fc-metz</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C279" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7519,7 +7605,7 @@
         <v>as-monaco-fc</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C280" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7536,7 +7622,7 @@
         <v>fc-nantes</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C281" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7553,7 +7639,7 @@
         <v>ogc-nice</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C282" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7570,7 +7656,7 @@
         <v>paris-fc</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C283" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7587,7 +7673,7 @@
         <v>paris-saint-germain-fc</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C284" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7604,7 +7690,7 @@
         <v>stade-rennais-fc</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C285" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7621,7 +7707,7 @@
         <v>rc-strasbourg-alsace</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C286" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7638,7 +7724,7 @@
         <v>toulouse-fc</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C287" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7655,7 +7741,7 @@
         <v>fc-augsburg</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C288" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7672,7 +7758,7 @@
         <v>bayern-munich</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C289" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7689,7 +7775,7 @@
         <v>vfl-bochum</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C290" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7706,7 +7792,7 @@
         <v>werder-bremen</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C291" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7723,7 +7809,7 @@
         <v>borussia-dortmund</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C292" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7740,7 +7826,7 @@
         <v>eintracht-frankfurt</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C293" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7757,7 +7843,7 @@
         <v>sc-freiburg</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C294" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7774,7 +7860,7 @@
         <v>fc-heidenheim</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C295" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7791,7 +7877,7 @@
         <v>hoffenheim</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C296" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7808,7 +7894,7 @@
         <v>holstein-kiel</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C297" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7825,7 +7911,7 @@
         <v>bayer-leverkusen</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C298" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7842,7 +7928,7 @@
         <v>mainz-05</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C299" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7859,7 +7945,7 @@
         <v>borussia-monchengladbach</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C300" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7876,7 +7962,7 @@
         <v>rb-leipzig</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C301" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7893,7 +7979,7 @@
         <v>fc-st-pauli</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C302" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7910,7 +7996,7 @@
         <v>vfb-stuttgart</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C303" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7927,7 +8013,7 @@
         <v>union-berlin</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C304" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7944,7 +8030,7 @@
         <v>vfl-wolfsburg</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C305" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7961,7 +8047,7 @@
         <v>fc-augsburg</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C306" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7978,7 +8064,7 @@
         <v>bayern-munich</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C307" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7995,7 +8081,7 @@
         <v>werder-bremen</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C308" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8012,7 +8098,7 @@
         <v>borussia-dortmund</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C309" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8029,7 +8115,7 @@
         <v>fc-koln</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C310" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8046,7 +8132,7 @@
         <v>eintracht-frankfurt</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C311" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8063,7 +8149,7 @@
         <v>sc-freiburg</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C312" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8080,7 +8166,7 @@
         <v>hamburger-sv</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C313" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8097,7 +8183,7 @@
         <v>fc-heidenheim</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C314" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8114,7 +8200,7 @@
         <v>hoffenheim</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C315" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8131,7 +8217,7 @@
         <v>bayer-leverkusen</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C316" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8148,7 +8234,7 @@
         <v>mainz-05</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C317" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8165,7 +8251,7 @@
         <v>borussia-monchengladbach</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C318" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8182,7 +8268,7 @@
         <v>rb-leipzig</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C319" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8199,7 +8285,7 @@
         <v>fc-st-pauli</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C320" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8216,7 +8302,7 @@
         <v>vfb-stuttgart</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C321" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8233,7 +8319,7 @@
         <v>union-berlin</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C322" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8250,7 +8336,7 @@
         <v>vfl-wolfsburg</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C323" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8267,7 +8353,7 @@
         <v>arminia-bielefeld</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C324" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8284,7 +8370,7 @@
         <v>vfl-bochum</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C325" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8301,7 +8387,7 @@
         <v>eintracht-braunschweig</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C326" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8318,7 +8404,7 @@
         <v>darmstadt-98</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C327" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8335,7 +8421,7 @@
         <v>dynamo-dresden</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C328" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8352,7 +8438,7 @@
         <v>fortuna-dusseldorf</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C329" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8369,7 +8455,7 @@
         <v>sv-elversberg</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C330" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8386,7 +8472,7 @@
         <v>greuther-furth</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C331" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8403,7 +8489,7 @@
         <v>hannover-96</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C332" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8420,7 +8506,7 @@
         <v>hertha-berlin</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C333" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8437,7 +8523,7 @@
         <v>fc-kaiserslautern</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C334" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8454,7 +8540,7 @@
         <v>karlsruher-sc</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C335" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8471,7 +8557,7 @@
         <v>holstein-kiel</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C336" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8488,7 +8574,7 @@
         <v>fc-magdeburg</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C337" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8505,7 +8591,7 @@
         <v>preussen-munster</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C338" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8522,7 +8608,7 @@
         <v>fc-nurnberg</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C339" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8539,7 +8625,7 @@
         <v>sc-paderborn</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C340" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8556,7 +8642,7 @@
         <v>schalke-04</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C341" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8573,7 +8659,7 @@
         <v>aek-athens-fc</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C342" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8590,7 +8676,7 @@
         <v>ael-fc</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C343" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8607,7 +8693,7 @@
         <v>aris-thessaloniki-fc</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C344" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8624,7 +8710,7 @@
         <v>asteras-tripolis-fc</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C345" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8641,7 +8727,7 @@
         <v>atromitos-fc</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C346" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8658,7 +8744,7 @@
         <v>ae-kifisia-fc</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C347" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8675,7 +8761,7 @@
         <v>levadiakos-fc</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C348" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8692,7 +8778,7 @@
         <v>ofi-crete-fc</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C349" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8709,7 +8795,7 @@
         <v>olympiacos-fc</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C350" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8726,7 +8812,7 @@
         <v>panathinaikos-fc</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C351" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8743,7 +8829,7 @@
         <v>panetolikos-fc</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C352" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8760,7 +8846,7 @@
         <v>panserraikos-fc</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C353" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8777,7 +8863,7 @@
         <v>paok-fc</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C354" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8794,7 +8880,7 @@
         <v>volos-fc</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C355" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8811,7 +8897,7 @@
         <v>ac-milan</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C356" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8828,7 +8914,7 @@
         <v>as-roma</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C357" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8845,7 +8931,7 @@
         <v>atalanta-bc</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C358" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8862,7 +8948,7 @@
         <v>bologna-fc-1909</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C359" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8879,7 +8965,7 @@
         <v>cagliari-calcio</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C360" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8896,7 +8982,7 @@
         <v>como-1907</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C361" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8913,7 +8999,7 @@
         <v>us-cremonese</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C362" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8930,7 +9016,7 @@
         <v>acf-fiorentina</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C363" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8947,7 +9033,7 @@
         <v>genoa-cfc</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C364" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8964,7 +9050,7 @@
         <v>inter-milan</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C365" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8981,7 +9067,7 @@
         <v>juventus-fc</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C366" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -8998,7 +9084,7 @@
         <v>ss-lazio</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C367" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9015,7 +9101,7 @@
         <v>us-lecce</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C368" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9032,7 +9118,7 @@
         <v>ssc-napoli</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C369" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9049,7 +9135,7 @@
         <v>parma-calcio-1913</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C370" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9066,7 +9152,7 @@
         <v>ac-pisa-1909</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C371" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9083,7 +9169,7 @@
         <v>us-sassuolo-calcio</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C372" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9100,7 +9186,7 @@
         <v>torino-fc</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C373" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9117,7 +9203,7 @@
         <v>udinese-calcio</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C374" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9134,7 +9220,7 @@
         <v>hellas-verona-fc</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C375" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9151,7 +9237,7 @@
         <v>atletico-san-luis</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C376" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9168,7 +9254,7 @@
         <v>atlas-fc</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C377" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9185,7 +9271,7 @@
         <v>club-america</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C378" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9202,7 +9288,7 @@
         <v>cruz-azul</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C379" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9219,7 +9305,7 @@
         <v>cd-guadalajara</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C380" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9236,7 +9322,7 @@
         <v>fc-juarez</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C381" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9253,7 +9339,7 @@
         <v>club-leon</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C382" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9270,7 +9356,7 @@
         <v>mazatlan-fc</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C383" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9287,7 +9373,7 @@
         <v>cf-monterrey</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C384" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9304,7 +9390,7 @@
         <v>club-necaxa</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C385" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9321,7 +9407,7 @@
         <v>cf-pachuca</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C386" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9338,7 +9424,7 @@
         <v>club-puebla</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C387" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9355,7 +9441,7 @@
         <v>queretaro-fc</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C388" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9372,7 +9458,7 @@
         <v>santos-laguna</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C389" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9389,7 +9475,7 @@
         <v>tigres-uanl</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C390" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9406,7 +9492,7 @@
         <v>club-tijuana</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C391" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9423,7 +9509,7 @@
         <v>deportivo-toluca-fc</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C392" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9440,7 +9526,7 @@
         <v>unam</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C393" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9457,7 +9543,7 @@
         <v>afc-ajax</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C394" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9474,7 +9560,7 @@
         <v>az-alkmaar</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C395" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9491,7 +9577,7 @@
         <v>sbv-excelsior</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C396" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9508,7 +9594,7 @@
         <v>fc-volendam</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C397" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9525,7 +9611,7 @@
         <v>feyenoord-rotterdam</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C398" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9542,7 +9628,7 @@
         <v>go-ahead-eagles</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C399" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9559,7 +9645,7 @@
         <v>fc-groningen</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C400" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9576,7 +9662,7 @@
         <v>sc-heerenveen</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C401" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9593,7 +9679,7 @@
         <v>heracles-almelo</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C402" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9610,7 +9696,7 @@
         <v>nac-breda</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C403" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9627,7 +9713,7 @@
         <v>nec-nijmegen</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C404" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9644,7 +9730,7 @@
         <v>psv-eindhoven</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C405" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9661,7 +9747,7 @@
         <v>fortuna-sittard</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C406" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9678,7 +9764,7 @@
         <v>sparta-rotterdam</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C407" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9695,7 +9781,7 @@
         <v>sc-telstar</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C408" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9712,7 +9798,7 @@
         <v>fc-twente</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C409" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9729,7 +9815,7 @@
         <v>fc-utrecht</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C410" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9746,7 +9832,7 @@
         <v>pec-zwolle</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C411" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9763,7 +9849,7 @@
         <v>fk-bodo-glimt</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C412" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9780,7 +9866,7 @@
         <v>sk-brann</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C413" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9797,7 +9883,7 @@
         <v>bryne-fk</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C414" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9814,7 +9900,7 @@
         <v>fredrikstad-fk</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C415" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9831,7 +9917,7 @@
         <v>ham-kam</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C416" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9848,7 +9934,7 @@
         <v>fk-haugesund</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C417" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9865,7 +9951,7 @@
         <v>kfum-kameratene-oslo</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C418" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9882,7 +9968,7 @@
         <v>kristiansund-bk</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C419" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9899,7 +9985,7 @@
         <v>molde-fk</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C420" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9916,7 +10002,7 @@
         <v>rosenborg-bk</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C421" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9933,7 +10019,7 @@
         <v>sandefjord-fotball</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C422" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9950,7 +10036,7 @@
         <v>sarpsborg-08-ff</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C423" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9967,7 +10053,7 @@
         <v>stromsgodset</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C424" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9984,7 +10070,7 @@
         <v>tromso-il</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C425" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10001,7 +10087,7 @@
         <v>valerenga-fotball</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C426" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10018,7 +10104,7 @@
         <v>viking-fk</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C427" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10035,7 +10121,7 @@
         <v>alianza-lima</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C428" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10052,7 +10138,7 @@
         <v>asociacion-deportiva-tarma</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C429" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10069,7 +10155,7 @@
         <v>alianza-atletico</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C430" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10086,7 +10172,7 @@
         <v>alianza-universidad-de-huanuco</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C431" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10103,7 +10189,7 @@
         <v>ayacucho-fc</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C432" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10120,7 +10206,7 @@
         <v>deportivo-binacional</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C433" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10137,7 +10223,7 @@
         <v>universidad-tecnica-de-cajamarca</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C434" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10154,7 +10240,7 @@
         <v>club-sportivo-cienciano</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C435" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10171,7 +10257,7 @@
         <v>comerciantes-unidos</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C436" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10188,7 +10274,7 @@
         <v>cusco-fc</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C437" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10205,7 +10291,7 @@
         <v>deportivo-garcilaso</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C438" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10222,7 +10308,7 @@
         <v>atletico-grau</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C439" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10239,7 +10325,7 @@
         <v>sport-huancayo</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C440" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10256,7 +10342,7 @@
         <v>adc-juan-pablo-ii-college</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C441" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10273,7 +10359,7 @@
         <v>los-chankas-cyc</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C442" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10290,7 +10376,7 @@
         <v>fbc-melgar</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C443" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10307,7 +10393,7 @@
         <v>sport-boys</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C444" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10324,7 +10410,7 @@
         <v>sporting-cristal</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C445" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10341,7 +10427,7 @@
         <v>club-universitario-de-deportes</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C446" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10358,7 +10444,7 @@
         <v>arka-gdynia</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C447" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10375,7 +10461,7 @@
         <v>cracovia</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C448" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10392,7 +10478,7 @@
         <v>gornik-zabrze</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C449" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10409,7 +10495,7 @@
         <v>jagiellona-bialystok</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C450" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10426,7 +10512,7 @@
         <v>gks-katowice</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C451" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10443,7 +10529,7 @@
         <v>korona-kielce</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C452" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10460,7 +10546,7 @@
         <v>lech-poznan</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C453" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10477,7 +10563,7 @@
         <v>lechia-gdansk</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C454" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10494,7 +10580,7 @@
         <v>legia-warsaw</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C455" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10511,7 +10597,7 @@
         <v>motor-lublin</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C456" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10528,7 +10614,7 @@
         <v>piast-gliwice</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C457" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10545,7 +10631,7 @@
         <v>mks-pogon-szczecin</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C458" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10562,7 +10648,7 @@
         <v>radomiak-radom</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C459" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10579,7 +10665,7 @@
         <v>rakow-czestochowa</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C460" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10596,7 +10682,7 @@
         <v>bruk-bet-termalica-nieciecza</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C461" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10613,7 +10699,7 @@
         <v>rts-widzew-lodz</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C462" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10630,7 +10716,7 @@
         <v>wisla-plock</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C463" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10647,7 +10733,7 @@
         <v>zaglebie-lubin</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C464" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10664,7 +10750,7 @@
         <v>avs-futebol-sad</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C465" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10681,7 +10767,7 @@
         <v>fc-alverca</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C466" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10698,7 +10784,7 @@
         <v>fc-arouca</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C467" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10715,7 +10801,7 @@
         <v>benfica</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C468" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10732,7 +10818,7 @@
         <v>braga</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C469" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10749,7 +10835,7 @@
         <v>casa-pia-ac</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C470" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10766,7 +10852,7 @@
         <v>gd-estoril-praia</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C471" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10783,7 +10869,7 @@
         <v>cf-estrela-da-amadora</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C472" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10800,7 +10886,7 @@
         <v>famalicao</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C473" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10817,7 +10903,7 @@
         <v>fc-porto</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C474" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10834,7 +10920,7 @@
         <v>gil-vicente</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C475" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10851,7 +10937,7 @@
         <v>vitoria-de-guimaraes</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C476" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10868,7 +10954,7 @@
         <v>moreirense-fc</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C477" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10885,7 +10971,7 @@
         <v>cd-nacional</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C478" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10902,7 +10988,7 @@
         <v>rio-ave-fc</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C479" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10919,7 +11005,7 @@
         <v>santa-clara</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C480" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10936,7 +11022,7 @@
         <v>sporting-cp</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C481" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10953,7 +11039,7 @@
         <v>cd-tondela</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C482" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10970,7 +11056,7 @@
         <v>fc-botosani</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C483" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10978,7 +11064,7 @@
       </c>
       <c r="D483" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -10987,7 +11073,7 @@
         <v>cfr-cluj</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C484" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10995,7 +11081,7 @@
       </c>
       <c r="D484" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -11004,7 +11090,7 @@
         <v>fk-miercurea-ciuc</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C485" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11012,7 +11098,7 @@
       </c>
       <c r="D485" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -11021,7 +11107,7 @@
         <v>fc-dinamo-bucuresti</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C486" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11029,7 +11115,7 @@
       </c>
       <c r="D486" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -11038,7 +11124,7 @@
         <v>fc-farul-constanta</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C487" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11046,7 +11132,7 @@
       </c>
       <c r="D487" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -11055,7 +11141,7 @@
         <v>fc-arges-pitesti</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C488" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11063,7 +11149,7 @@
       </c>
       <c r="D488" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -11072,7 +11158,7 @@
         <v>fc-hermannstadt</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C489" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11080,7 +11166,7 @@
       </c>
       <c r="D489" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -11089,7 +11175,7 @@
         <v>fc-rapid-bucuresti</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C490" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11097,7 +11183,7 @@
       </c>
       <c r="D490" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -11106,7 +11192,7 @@
         <v>fcsb</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C491" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11114,7 +11200,7 @@
       </c>
       <c r="D491" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -11123,7 +11209,7 @@
         <v>fc-metaloglobus-bucuresti</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C492" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11131,7 +11217,7 @@
       </c>
       <c r="D492" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -11140,7 +11226,7 @@
         <v>asc-otelul-galati</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C493" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11148,7 +11234,7 @@
       </c>
       <c r="D493" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -11157,7 +11243,7 @@
         <v>fc-petrolul-ploiesti</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C494" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11165,7 +11251,7 @@
       </c>
       <c r="D494" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -11174,7 +11260,7 @@
         <v>fc-universitatea-cluj</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C495" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11182,7 +11268,7 @@
       </c>
       <c r="D495" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -11191,7 +11277,7 @@
         <v>afc-unirea-slobozia</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C496" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11199,7 +11285,7 @@
       </c>
       <c r="D496" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -11208,7 +11294,7 @@
         <v>cs-universitatea-craiova</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C497" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11216,7 +11302,7 @@
       </c>
       <c r="D497" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -11225,7 +11311,7 @@
         <v>fc-uta-arad</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C498" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11233,7 +11319,7 @@
       </c>
       <c r="D498" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -11242,7 +11328,7 @@
         <v>al-fateh-sc</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C499" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11259,7 +11345,7 @@
         <v>al-fayha-fc</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C500" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11276,7 +11362,7 @@
         <v>al-hazem-fc</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C501" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11293,7 +11379,7 @@
         <v>khaleej-fc</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C502" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11310,7 +11396,7 @@
         <v>al-kholood-club</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C503" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11327,7 +11413,7 @@
         <v>al-najma-sc</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C504" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11344,7 +11430,7 @@
         <v>al-okhdood-club</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C505" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11361,7 +11447,7 @@
         <v>al-qadsiah-fc</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C506" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11378,7 +11464,7 @@
         <v>al-riyadh-sc</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C507" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11395,7 +11481,7 @@
         <v>al-ahli-saudi-fc</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C508" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11412,7 +11498,7 @@
         <v>al-ettifaq-fc</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C509" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11429,7 +11515,7 @@
         <v>al-hilal-fc</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C510" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11446,7 +11532,7 @@
         <v>al-ittihad-fc</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C511" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11463,7 +11549,7 @@
         <v>al-nassr-fc</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C512" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11480,7 +11566,7 @@
         <v>al-shabab-fc</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C513" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11497,7 +11583,7 @@
         <v>al-taawoun-fc</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C514" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11514,7 +11600,7 @@
         <v>damac-fc</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C515" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11531,7 +11617,7 @@
         <v>neom-sc</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C516" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11548,7 +11634,7 @@
         <v>aberdeen-fc</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C517" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11565,7 +11651,7 @@
         <v>celtic-fc</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C518" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11582,7 +11668,7 @@
         <v>dundee-fc</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C519" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11599,7 +11685,7 @@
         <v>dundee-united-fc</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C520" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11616,7 +11702,7 @@
         <v>falkirk-fc</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C521" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11633,7 +11719,7 @@
         <v>heart-of-midlothian-fc</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C522" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11650,7 +11736,7 @@
         <v>hibernian-fc</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C523" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11667,7 +11753,7 @@
         <v>kilmarnock-fc</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C524" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11684,7 +11770,7 @@
         <v>livingston-fc</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C525" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11701,7 +11787,7 @@
         <v>motherwell-fc</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C526" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11718,7 +11804,7 @@
         <v>rangers-fc</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C527" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11735,7 +11821,7 @@
         <v>st-mirren-fc</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C528" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11752,7 +11838,7 @@
         <v>deportivo-alaves</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C529" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11769,7 +11855,7 @@
         <v>athletic-bilbao</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C530" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11786,7 +11872,7 @@
         <v>atletico-madrid</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C531" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11803,7 +11889,7 @@
         <v>fc-barcelona</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C532" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11820,7 +11906,7 @@
         <v>real-betis-balompie</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C533" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11837,7 +11923,7 @@
         <v>celta-vigo</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C534" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11854,7 +11940,7 @@
         <v>elche-cf</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C535" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11871,7 +11957,7 @@
         <v>rcd-espanyol</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C536" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11888,7 +11974,7 @@
         <v>getafe-cf</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C537" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11905,7 +11991,7 @@
         <v>girona-fc</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C538" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11922,7 +12008,7 @@
         <v>levante-ud</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C539" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11939,7 +12025,7 @@
         <v>rcd-mallorca</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C540" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11956,7 +12042,7 @@
         <v>ca-osasuna</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C541" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11973,7 +12059,7 @@
         <v>real-oviedo</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C542" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11990,7 +12076,7 @@
         <v>rayo-vallecano</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C543" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12007,7 +12093,7 @@
         <v>real-madrid-cf</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C544" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12024,7 +12110,7 @@
         <v>real-sociedad</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C545" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12041,7 +12127,7 @@
         <v>sevilla-fc</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C546" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12058,7 +12144,7 @@
         <v>valencia-cf</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C547" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12075,7 +12161,7 @@
         <v>villarreal-cf</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C548" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12092,7 +12178,7 @@
         <v>albacete-balompie</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C549" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12109,7 +12195,7 @@
         <v>ud-almeria</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C550" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12126,7 +12212,7 @@
         <v>fc-andorra</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C551" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12143,7 +12229,7 @@
         <v>burgos-cf</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C552" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12160,7 +12246,7 @@
         <v>cadiz-cf</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C553" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12177,7 +12263,7 @@
         <v>cd-castellon</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C554" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12194,7 +12280,7 @@
         <v>ad-ceuta-fc</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C555" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12211,7 +12297,7 @@
         <v>cordoba-cf</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C556" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12228,7 +12314,7 @@
         <v>cultural-y-deportiva-leonesa</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C557" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12245,7 +12331,7 @@
         <v>sd-eibar</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C558" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12262,7 +12348,7 @@
         <v>sporting-de-gijon</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C559" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12279,7 +12365,7 @@
         <v>granada-cf</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C560" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12296,7 +12382,7 @@
         <v>sd-huesca</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C561" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12313,7 +12399,7 @@
         <v>deportivo-de-la-coruna</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C562" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12330,7 +12416,7 @@
         <v>ud-las-palmas</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C563" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12347,7 +12433,7 @@
         <v>cd-leganes</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C564" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12364,7 +12450,7 @@
         <v>malaga-cf</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C565" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12381,7 +12467,7 @@
         <v>cd-mirandes</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C566" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12398,7 +12484,7 @@
         <v>racing-de-santander</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C567" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12415,7 +12501,7 @@
         <v>real-sociedad-b</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C568" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12432,7 +12518,7 @@
         <v>real-valladolid</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C569" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12449,7 +12535,7 @@
         <v>real-zaragoza</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C570" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12466,7 +12552,7 @@
         <v>aik</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C571" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12483,7 +12569,7 @@
         <v>if-brommapojkarna</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C572" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12500,7 +12586,7 @@
         <v>degerfors-if</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C573" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12517,7 +12603,7 @@
         <v>djurgardens-if</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C574" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12534,7 +12620,7 @@
         <v>if-elfsborg</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C575" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12551,7 +12637,7 @@
         <v>gais</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C576" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12568,7 +12654,7 @@
         <v>ifk-goteborg</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C577" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12585,7 +12671,7 @@
         <v>bk-hacken</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C578" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12602,7 +12688,7 @@
         <v>halmstads-bk</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C579" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12619,7 +12705,7 @@
         <v>hammarby-if</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C580" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12636,7 +12722,7 @@
         <v>malmo-ff</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C581" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12653,7 +12739,7 @@
         <v>mjallby-aif</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C582" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12670,7 +12756,7 @@
         <v>ifk-norrkoping</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C583" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12687,7 +12773,7 @@
         <v>osters-if</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C584" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12704,7 +12790,7 @@
         <v>ik-sirius</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C585" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12721,7 +12807,7 @@
         <v>ifk-varnamo</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C586" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12738,7 +12824,7 @@
         <v>fc-basel</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C587" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12746,7 +12832,7 @@
       </c>
       <c r="D587" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
@@ -12755,7 +12841,7 @@
         <v>grasshopper-club-zurich</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C588" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12763,7 +12849,7 @@
       </c>
       <c r="D588" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
@@ -12772,7 +12858,7 @@
         <v>fc-lausanne-sport</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C589" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12780,7 +12866,7 @@
       </c>
       <c r="D589" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
@@ -12789,7 +12875,7 @@
         <v>fc-lugano</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C590" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12797,7 +12883,7 @@
       </c>
       <c r="D590" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
@@ -12806,7 +12892,7 @@
         <v>fc-luzern</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C591" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12814,7 +12900,7 @@
       </c>
       <c r="D591" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
@@ -12823,7 +12909,7 @@
         <v>servette-fc</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C592" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12831,7 +12917,7 @@
       </c>
       <c r="D592" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
@@ -12840,7 +12926,7 @@
         <v>fc-sion</v>
       </c>
       <c r="B593" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C593" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12848,7 +12934,7 @@
       </c>
       <c r="D593" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
@@ -12857,7 +12943,7 @@
         <v>fc-st-gallen</v>
       </c>
       <c r="B594" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C594" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12865,7 +12951,7 @@
       </c>
       <c r="D594" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
@@ -12874,7 +12960,7 @@
         <v>fc-thun</v>
       </c>
       <c r="B595" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C595" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12882,7 +12968,7 @@
       </c>
       <c r="D595" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
@@ -12891,7 +12977,7 @@
         <v>fc-winterthur</v>
       </c>
       <c r="B596" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C596" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12899,7 +12985,7 @@
       </c>
       <c r="D596" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
@@ -12908,7 +12994,7 @@
         <v>bsc-young-boys</v>
       </c>
       <c r="B597" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C597" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12916,7 +13002,7 @@
       </c>
       <c r="D597" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
@@ -12925,7 +13011,7 @@
         <v>fc-zurich</v>
       </c>
       <c r="B598" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C598" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12933,7 +13019,7 @@
       </c>
       <c r="D598" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
@@ -12942,7 +13028,7 @@
         <v>alanyaspor</v>
       </c>
       <c r="B599" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C599" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12950,7 +13036,7 @@
       </c>
       <c r="D599" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
@@ -12959,7 +13045,7 @@
         <v>antalyaspor</v>
       </c>
       <c r="B600" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C600" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12967,7 +13053,7 @@
       </c>
       <c r="D600" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
@@ -12976,7 +13062,7 @@
         <v>istanbul-basaksehir-fk</v>
       </c>
       <c r="B601" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C601" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -12984,7 +13070,7 @@
       </c>
       <c r="D601" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
@@ -12993,7 +13079,7 @@
         <v>besiktas-jk</v>
       </c>
       <c r="B602" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C602" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13001,7 +13087,7 @@
       </c>
       <c r="D602" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
@@ -13010,7 +13096,7 @@
         <v>eyupspor</v>
       </c>
       <c r="B603" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C603" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13018,7 +13104,7 @@
       </c>
       <c r="D603" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
@@ -13027,7 +13113,7 @@
         <v>fenerbahce-sk</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C604" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13035,7 +13121,7 @@
       </c>
       <c r="D604" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
@@ -13044,7 +13130,7 @@
         <v>galatasaray-sk</v>
       </c>
       <c r="B605" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C605" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13052,7 +13138,7 @@
       </c>
       <c r="D605" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
@@ -13061,7 +13147,7 @@
         <v>gaziantep-fk</v>
       </c>
       <c r="B606" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C606" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13069,7 +13155,7 @@
       </c>
       <c r="D606" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
@@ -13078,7 +13164,7 @@
         <v>genclerbirligi-sk</v>
       </c>
       <c r="B607" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C607" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13086,7 +13172,7 @@
       </c>
       <c r="D607" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
@@ -13095,7 +13181,7 @@
         <v>goztepe-sk</v>
       </c>
       <c r="B608" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C608" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13103,7 +13189,7 @@
       </c>
       <c r="D608" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
@@ -13112,7 +13198,7 @@
         <v>fatih-karagumruk-sk</v>
       </c>
       <c r="B609" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C609" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13120,7 +13206,7 @@
       </c>
       <c r="D609" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
@@ -13129,7 +13215,7 @@
         <v>kasimpasa-sk</v>
       </c>
       <c r="B610" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C610" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13137,7 +13223,7 @@
       </c>
       <c r="D610" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
@@ -13146,7 +13232,7 @@
         <v>kayserispor</v>
       </c>
       <c r="B611" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C611" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13154,7 +13240,7 @@
       </c>
       <c r="D611" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
@@ -13163,7 +13249,7 @@
         <v>kocaelispor</v>
       </c>
       <c r="B612" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C612" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13171,7 +13257,7 @@
       </c>
       <c r="D612" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
@@ -13180,7 +13266,7 @@
         <v>konyaspor</v>
       </c>
       <c r="B613" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C613" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13188,7 +13274,7 @@
       </c>
       <c r="D613" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
@@ -13197,7 +13283,7 @@
         <v>caykur-rizespor</v>
       </c>
       <c r="B614" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C614" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13205,7 +13291,7 @@
       </c>
       <c r="D614" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
@@ -13214,7 +13300,7 @@
         <v>samsunspor</v>
       </c>
       <c r="B615" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C615" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13222,7 +13308,7 @@
       </c>
       <c r="D615" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
@@ -13231,7 +13317,7 @@
         <v>trabzonspor</v>
       </c>
       <c r="B616" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C616" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13239,7 +13325,7 @@
       </c>
       <c r="D616" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
@@ -13248,7 +13334,7 @@
         <v>atlanta-united-fc</v>
       </c>
       <c r="B617" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C617" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13265,7 +13351,7 @@
         <v>austin-fc</v>
       </c>
       <c r="B618" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C618" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13282,7 +13368,7 @@
         <v>club-de-foot-montreal</v>
       </c>
       <c r="B619" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C619" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13299,7 +13385,7 @@
         <v>charlotte-fc</v>
       </c>
       <c r="B620" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C620" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13316,7 +13402,7 @@
         <v>chicago-fire-fc</v>
       </c>
       <c r="B621" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C621" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13333,7 +13419,7 @@
         <v>fc-cincinnati</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C622" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13350,7 +13436,7 @@
         <v>colorado-rapids</v>
       </c>
       <c r="B623" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C623" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13367,7 +13453,7 @@
         <v>columbus-crew-sc</v>
       </c>
       <c r="B624" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C624" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13384,7 +13470,7 @@
         <v>dc-united</v>
       </c>
       <c r="B625" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C625" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13401,7 +13487,7 @@
         <v>fc-dallas</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C626" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13418,7 +13504,7 @@
         <v>houston-dynamo</v>
       </c>
       <c r="B627" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C627" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13435,7 +13521,7 @@
         <v>inter-miami-cf</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C628" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13452,7 +13538,7 @@
         <v>los-angeles-fc</v>
       </c>
       <c r="B629" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C629" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13469,7 +13555,7 @@
         <v>los-angeles-galaxy</v>
       </c>
       <c r="B630" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C630" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13486,7 +13572,7 @@
         <v>minnesota-united-fc</v>
       </c>
       <c r="B631" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C631" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13503,7 +13589,7 @@
         <v>nashville-sc</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C632" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13520,7 +13606,7 @@
         <v>new-england-revolution</v>
       </c>
       <c r="B633" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C633" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13537,7 +13623,7 @@
         <v>new-york-city-fc</v>
       </c>
       <c r="B634" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C634" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13554,7 +13640,7 @@
         <v>new-york-red-bulls</v>
       </c>
       <c r="B635" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C635" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13571,7 +13657,7 @@
         <v>orlando-city-sc</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C636" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13588,7 +13674,7 @@
         <v>philadelphia-union</v>
       </c>
       <c r="B637" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C637" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13605,7 +13691,7 @@
         <v>portland-timbers</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C638" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13622,7 +13708,7 @@
         <v>real-salt-lake</v>
       </c>
       <c r="B639" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C639" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13639,7 +13725,7 @@
         <v>san-diego-fc</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C640" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13656,7 +13742,7 @@
         <v>san-jose-earthquakes</v>
       </c>
       <c r="B641" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C641" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13673,7 +13759,7 @@
         <v>seattle-sounders-fc</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C642" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13690,7 +13776,7 @@
         <v>sporting-kansas-city</v>
       </c>
       <c r="B643" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C643" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13707,7 +13793,7 @@
         <v>st-louis-city-sc</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C644" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13724,7 +13810,7 @@
         <v>toronto-fc</v>
       </c>
       <c r="B645" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C645" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13741,7 +13827,7 @@
         <v>vancouver-whitecaps-fc</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C646" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -13753,6 +13839,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J34">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="act">
+      <formula>NOT(ISERROR(SEARCH("act",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/enlaces_equipos.xlsx
+++ b/enlaces_equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://v7hfx-my.sharepoint.com/personal/joseca20_v7hfx_onmicrosoft_com/Documents/web scraping/statsFutbol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A72E568C-DB6A-4B4A-8233-EAF0BABAC5F6}"/>
+  <xr:revisionPtr revIDLastSave="396" documentId="13_ncr:1_{C9A4DFC4-E548-46DD-BD70-6930DD5E65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EDA0BE9-CF94-48EF-82DF-76D7B9226599}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474EBA83-D6A0-4565-BEB0-BC6B2AA992C1}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="615">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1749,9 +1749,6 @@
     <t>n-s-america/ecuador/cd-cuenca</t>
   </si>
   <si>
-    <t>n-s-america/ecuador/cd-el-nacional</t>
-  </si>
-  <si>
     <t>n-s-america/ecuador/cs-emelec</t>
   </si>
   <si>
@@ -1782,9 +1779,6 @@
     <t>n-s-america/ecuador/cd-universidad-catolica</t>
   </si>
   <si>
-    <t>n-s-america/ecuador/vinotinto-fc-ecuador</t>
-  </si>
-  <si>
     <t>rest-of-the-world/saudi-arabia/al-hazem-fc</t>
   </si>
   <si>
@@ -1903,6 +1897,12 @@
   </si>
   <si>
     <t>n-s-america/peru/club-deportivo-moquegua</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/guayaquil-city-fc</t>
+  </si>
+  <si>
+    <t>n-s-america/ecuador/leones-fc</t>
   </si>
 </sst>
 </file>
@@ -2387,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3E121-4DD2-4C5A-A60B-ED62DD98B116}">
   <dimension ref="A1:J629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="G427" sqref="G427"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2412,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2443,7 +2443,7 @@
         <v>46044</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2473,7 +2473,7 @@
         <v>46030</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2496,14 +2496,14 @@
         <v>austria</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="shared" ref="H4:H34" ca="1" si="0">IF(I4&gt;TODAY(),"","X")</f>
-        <v/>
+        <f t="shared" ref="H4:H33" ca="1" si="0">IF(I4&gt;TODAY(),"","X")</f>
+        <v>X</v>
       </c>
       <c r="I4" s="10">
         <v>46059</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2533,7 +2533,7 @@
         <v>46038</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2562,7 +2562,9 @@
       <c r="I6" s="10">
         <v>46050</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
@@ -2585,13 +2587,13 @@
       </c>
       <c r="H7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I7" s="10">
         <v>46060</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2620,7 +2622,9 @@
       <c r="I8" s="10">
         <v>46052</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
@@ -2649,7 +2653,7 @@
         <v>46039</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2679,7 +2683,7 @@
         <v>46045</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2709,7 +2713,7 @@
         <v>46053</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2733,13 +2737,13 @@
       </c>
       <c r="H12" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I12" s="10">
         <v>46059</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2768,7 +2772,9 @@
       <c r="I13" s="10">
         <v>46073</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
@@ -2797,7 +2803,7 @@
         <v>46030</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2855,7 +2861,7 @@
         <v>46030</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2885,7 +2891,7 @@
         <v>46030</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2915,7 +2921,7 @@
         <v>46030</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2945,7 +2951,7 @@
         <v>46030</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2975,7 +2981,7 @@
         <v>46031</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3005,7 +3011,7 @@
         <v>46030</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3062,7 +3068,9 @@
       <c r="I23" s="10">
         <v>46052</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
@@ -3091,7 +3099,7 @@
         <v>46052</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3121,7 +3129,7 @@
         <v>46030</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3151,7 +3159,7 @@
         <v>46038</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3181,7 +3189,7 @@
         <v>46030</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3211,7 +3219,7 @@
         <v>46030</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -3241,7 +3249,7 @@
         <v>46030</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3299,7 +3307,7 @@
         <v>46036</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -3308,7 +3316,7 @@
         <v>adelaide-united-fc</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C32" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3329,7 +3337,7 @@
         <v>46039</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -3338,7 +3346,7 @@
         <v>auckland-fc</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C33" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3358,7 +3366,9 @@
       <c r="I33" s="10">
         <v>46074</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="9" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
@@ -3366,7 +3376,7 @@
         <v>brisbane-roar-fc</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C34" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3383,7 +3393,7 @@
         <v>central-coast-mariners-fc</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C35" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3400,7 +3410,7 @@
         <v>macarthur-fc</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C36" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3417,7 +3427,7 @@
         <v>melbourne-city-fc</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C37" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3434,7 +3444,7 @@
         <v>melbourne-victory-fc</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C38" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3451,7 +3461,7 @@
         <v>newcastle-jets-fc</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C39" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3468,7 +3478,7 @@
         <v>perth-glory-fc</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C40" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3485,7 +3495,7 @@
         <v>sydney-fc</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C41" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3502,7 +3512,7 @@
         <v>wellington-phoenix-fc</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C42" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3519,7 +3529,7 @@
         <v>western-sydney-wanderers-fc</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C43" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -3544,7 +3554,7 @@
       </c>
       <c r="D44" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -3561,7 +3571,7 @@
       </c>
       <c r="D45" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -3578,7 +3588,7 @@
       </c>
       <c r="D46" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -3595,7 +3605,7 @@
       </c>
       <c r="D47" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -3612,7 +3622,7 @@
       </c>
       <c r="D48" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3629,7 +3639,7 @@
       </c>
       <c r="D49" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3646,7 +3656,7 @@
       </c>
       <c r="D50" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3663,7 +3673,7 @@
       </c>
       <c r="D51" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3680,7 +3690,7 @@
       </c>
       <c r="D52" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3697,7 +3707,7 @@
       </c>
       <c r="D53" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3714,7 +3724,7 @@
       </c>
       <c r="D54" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3731,7 +3741,7 @@
       </c>
       <c r="D55" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -4012,7 +4022,7 @@
         <v>club-athletico-paranaense</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C72" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4097,7 +4107,7 @@
         <v>associacao-chapecoense-de-futebol</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C77" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4131,7 +4141,7 @@
         <v>coritiba-football-club</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C79" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4267,7 +4277,7 @@
         <v>clube-do-remo</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C87" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4360,7 +4370,7 @@
       </c>
       <c r="D92" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -4377,7 +4387,7 @@
       </c>
       <c r="D93" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -4394,7 +4404,7 @@
       </c>
       <c r="D94" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -4411,7 +4421,7 @@
       </c>
       <c r="D95" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -4428,7 +4438,7 @@
       </c>
       <c r="D96" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -4445,7 +4455,7 @@
       </c>
       <c r="D97" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -4462,7 +4472,7 @@
       </c>
       <c r="D98" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -4479,7 +4489,7 @@
       </c>
       <c r="D99" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4496,7 +4506,7 @@
       </c>
       <c r="D100" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4513,7 +4523,7 @@
       </c>
       <c r="D101" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4530,7 +4540,7 @@
       </c>
       <c r="D102" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4547,7 +4557,7 @@
       </c>
       <c r="D103" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4564,7 +4574,7 @@
       </c>
       <c r="D104" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4581,7 +4591,7 @@
       </c>
       <c r="D105" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4598,7 +4608,7 @@
       </c>
       <c r="D106" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -4615,7 +4625,7 @@
       </c>
       <c r="D107" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -4692,7 +4702,7 @@
         <v>deportes-concepcion</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C112" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4879,7 +4889,7 @@
         <v>cd-universidad-de-concepcion</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C123" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -4998,7 +5008,7 @@
         <v>cucuta-deportivo-fc</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C130" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5066,7 +5076,7 @@
         <v>internacional-de-bogota</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C134" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5083,7 +5093,7 @@
         <v>jaguares-de-cordoba</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C135" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5686,7 +5696,7 @@
       </c>
       <c r="D170" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -5703,7 +5713,7 @@
       </c>
       <c r="D171" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -5720,7 +5730,7 @@
       </c>
       <c r="D172" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -5737,7 +5747,7 @@
       </c>
       <c r="D173" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -5754,7 +5764,7 @@
       </c>
       <c r="D174" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -5771,7 +5781,7 @@
       </c>
       <c r="D175" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -5788,7 +5798,7 @@
       </c>
       <c r="D176" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -5805,7 +5815,7 @@
       </c>
       <c r="D177" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -5822,7 +5832,7 @@
       </c>
       <c r="D178" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -5839,7 +5849,7 @@
       </c>
       <c r="D179" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -5856,7 +5866,7 @@
       </c>
       <c r="D180" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5873,7 +5883,7 @@
       </c>
       <c r="D181" s="8" t="str">
         <f ca="1">IF(VLOOKUP(Tabla1[[#This Row],[PAIS]],$G$2:$H$34,2)="x","SI","NO")</f>
-        <v>NO</v>
+        <v>SI</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5947,7 +5957,7 @@
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>cd-el-nacional</v>
+        <v>cs-emelec</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>563</v>
@@ -5964,10 +5974,10 @@
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>cs-emelec</v>
+        <v>guayaquil-city-fc</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="C187" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -5984,7 +5994,7 @@
         <v>csd-independiente-del-valle</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C188" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6001,7 +6011,7 @@
         <v>ldu-quito</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C189" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6015,10 +6025,10 @@
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>libertad-fc</v>
+        <v>leones-fc</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
       <c r="C190" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6032,10 +6042,10 @@
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>csd-macara</v>
+        <v>libertad-fc</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C191" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6049,10 +6059,10 @@
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>manta-fc</v>
+        <v>csd-macara</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C192" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6066,10 +6076,10 @@
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>mushuc-runa-sc</v>
+        <v>manta-fc</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C193" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6083,10 +6093,10 @@
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>orense-sc</v>
+        <v>mushuc-runa-sc</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C194" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6100,10 +6110,10 @@
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>tecnico-universitario</v>
+        <v>orense-sc</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C195" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6117,10 +6127,10 @@
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>cd-universidad-catolica</v>
+        <v>tecnico-universitario</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C196" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6134,10 +6144,10 @@
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f>MID(Tabla1[[#This Row],[ENLACE]],FIND("~",SUBSTITUTE(Tabla1[[#This Row],[ENLACE]],"/","~",2))+1,LEN(Tabla1[[#This Row],[ENLACE]]))</f>
-        <v>vinotinto-fc-ecuador</v>
+        <v>cd-universidad-catolica</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C197" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6902,7 +6912,7 @@
         <v>if-gnistan</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C242" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6919,7 +6929,7 @@
         <v>fc-haka</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C243" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6936,7 +6946,7 @@
         <v>hjk-helsinki</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C244" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6953,7 +6963,7 @@
         <v>fc-ilves</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C245" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6970,7 +6980,7 @@
         <v>fc-inter-turku</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C246" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -6987,7 +6997,7 @@
         <v>ff-jaro</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C247" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7004,7 +7014,7 @@
         <v>kotkan-tyovaen-palloilijat</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C248" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7021,7 +7031,7 @@
         <v>kuopion-palloseura</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C249" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7038,7 +7048,7 @@
         <v>ifk-mariehamn</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C250" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7055,7 +7065,7 @@
         <v>ac-oulu</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C251" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7072,7 +7082,7 @@
         <v>sjk</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C252" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -7089,7 +7099,7 @@
         <v>vaasan-palloseura</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C253" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -9928,7 +9938,7 @@
         <v>fc-cajamarca</v>
       </c>
       <c r="B420" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C420" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -10030,7 +10040,7 @@
         <v>club-deportivo-moquegua</v>
       </c>
       <c r="B426" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C426" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11016,7 +11026,7 @@
         <v>al-hazem-fc</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C484" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11067,7 +11077,7 @@
         <v>al-najma-sc</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C487" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
@@ -11271,7 +11281,7 @@
         <v>neom-sc</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C499" t="str">
         <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Tabla1[[#This Row],[ENLACE]],"/",1),"/")</f>
